--- a/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
+++ b/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/elieli_stanford_edu/Documents/Box_2024-11-15/CGE/MPSGE-JL/First Mulit GHG taxes Paper/Miscfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\WiNnat_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="13_ncr:1_{0E691691-8C55-4E16-AE95-CBF9AE59ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75FA94FA-E24D-49A1-952C-1F61B70B8447}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFE0705-D413-49A8-876B-024260552309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="-17280" windowWidth="15552" windowHeight="17376" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="-21720" windowWidth="38640" windowHeight="21840" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS Codes" sheetId="31" r:id="rId1"/>
@@ -3610,6 +3610,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3625,11 +3628,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5588,10 +5588,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -5902,26 +5898,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -5933,13 +5929,13 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>474</v>
       </c>
       <c r="F4" s="2"/>
@@ -5958,7 +5954,7 @@
       <c r="D5" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="5" t="s">
         <v>479</v>
       </c>
@@ -17692,48 +17688,48 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="39" t="s">
+      <c r="A1025" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="39"/>
-      <c r="C1025" s="39"/>
-      <c r="D1025" s="39"/>
-      <c r="E1025" s="39"/>
-      <c r="F1025" s="39"/>
-      <c r="G1025" s="39"/>
+      <c r="B1025" s="40"/>
+      <c r="C1025" s="40"/>
+      <c r="D1025" s="40"/>
+      <c r="E1025" s="40"/>
+      <c r="F1025" s="40"/>
+      <c r="G1025" s="40"/>
     </row>
     <row r="1026" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="39" t="s">
+      <c r="A1026" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="39"/>
-      <c r="C1026" s="39"/>
-      <c r="D1026" s="39"/>
-      <c r="E1026" s="39"/>
-      <c r="F1026" s="39"/>
-      <c r="G1026" s="39"/>
+      <c r="B1026" s="40"/>
+      <c r="C1026" s="40"/>
+      <c r="D1026" s="40"/>
+      <c r="E1026" s="40"/>
+      <c r="F1026" s="40"/>
+      <c r="G1026" s="40"/>
     </row>
     <row r="1027" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="39" t="s">
+      <c r="A1027" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="39"/>
-      <c r="C1027" s="39"/>
-      <c r="D1027" s="39"/>
-      <c r="E1027" s="39"/>
-      <c r="F1027" s="39"/>
-      <c r="G1027" s="39"/>
+      <c r="B1027" s="40"/>
+      <c r="C1027" s="40"/>
+      <c r="D1027" s="40"/>
+      <c r="E1027" s="40"/>
+      <c r="F1027" s="40"/>
+      <c r="G1027" s="40"/>
     </row>
     <row r="1028" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="39" t="s">
+      <c r="A1028" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="39"/>
-      <c r="C1028" s="39"/>
-      <c r="D1028" s="39"/>
-      <c r="E1028" s="39"/>
-      <c r="F1028" s="39"/>
-      <c r="G1028" s="39"/>
+      <c r="B1028" s="40"/>
+      <c r="C1028" s="40"/>
+      <c r="D1028" s="40"/>
+      <c r="E1028" s="40"/>
+      <c r="F1028" s="40"/>
+      <c r="G1028" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17775,30 +17771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -17812,15 +17808,15 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>474</v>
       </c>
       <c r="H4" s="2"/>
@@ -17843,7 +17839,7 @@
         <v>726</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
         <v>479</v>
       </c>
@@ -34447,56 +34443,56 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="39" t="s">
+      <c r="A1025" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="39"/>
-      <c r="C1025" s="39"/>
-      <c r="D1025" s="39"/>
-      <c r="E1025" s="39"/>
-      <c r="F1025" s="39"/>
-      <c r="G1025" s="39"/>
-      <c r="H1025" s="39"/>
-      <c r="I1025" s="39"/>
+      <c r="B1025" s="40"/>
+      <c r="C1025" s="40"/>
+      <c r="D1025" s="40"/>
+      <c r="E1025" s="40"/>
+      <c r="F1025" s="40"/>
+      <c r="G1025" s="40"/>
+      <c r="H1025" s="40"/>
+      <c r="I1025" s="40"/>
     </row>
     <row r="1026" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="39" t="s">
+      <c r="A1026" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="39"/>
-      <c r="C1026" s="39"/>
-      <c r="D1026" s="39"/>
-      <c r="E1026" s="39"/>
-      <c r="F1026" s="39"/>
-      <c r="G1026" s="39"/>
-      <c r="H1026" s="39"/>
-      <c r="I1026" s="39"/>
+      <c r="B1026" s="40"/>
+      <c r="C1026" s="40"/>
+      <c r="D1026" s="40"/>
+      <c r="E1026" s="40"/>
+      <c r="F1026" s="40"/>
+      <c r="G1026" s="40"/>
+      <c r="H1026" s="40"/>
+      <c r="I1026" s="40"/>
     </row>
     <row r="1027" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="39" t="s">
+      <c r="A1027" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="39"/>
-      <c r="C1027" s="39"/>
-      <c r="D1027" s="39"/>
-      <c r="E1027" s="39"/>
-      <c r="F1027" s="39"/>
-      <c r="G1027" s="39"/>
-      <c r="H1027" s="39"/>
-      <c r="I1027" s="39"/>
+      <c r="B1027" s="40"/>
+      <c r="C1027" s="40"/>
+      <c r="D1027" s="40"/>
+      <c r="E1027" s="40"/>
+      <c r="F1027" s="40"/>
+      <c r="G1027" s="40"/>
+      <c r="H1027" s="40"/>
+      <c r="I1027" s="40"/>
     </row>
     <row r="1028" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="39" t="s">
+      <c r="A1028" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="39"/>
-      <c r="C1028" s="39"/>
-      <c r="D1028" s="39"/>
-      <c r="E1028" s="39"/>
-      <c r="F1028" s="39"/>
-      <c r="G1028" s="39"/>
-      <c r="H1028" s="39"/>
-      <c r="I1028" s="39"/>
+      <c r="B1028" s="40"/>
+      <c r="C1028" s="40"/>
+      <c r="D1028" s="40"/>
+      <c r="E1028" s="40"/>
+      <c r="F1028" s="40"/>
+      <c r="G1028" s="40"/>
+      <c r="H1028" s="40"/>
+      <c r="I1028" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -47651,10 +47647,10 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A322" s="45" t="s">
+      <c r="A322" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B322" s="45" t="s">
+      <c r="B322" s="6" t="s">
         <v>646</v>
       </c>
       <c r="C322" s="6" t="s">
@@ -47674,10 +47670,10 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A323" s="45" t="s">
+      <c r="A323" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B323" s="45" t="s">
+      <c r="B323" s="6" t="s">
         <v>646</v>
       </c>
       <c r="C323" s="6" t="s">
@@ -47697,10 +47693,10 @@
       </c>
     </row>
     <row r="324" spans="1:6" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A324" s="45" t="s">
+      <c r="A324" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B324" s="45" t="s">
+      <c r="B324" s="6" t="s">
         <v>650</v>
       </c>
       <c r="C324" s="6" t="s">
@@ -49632,7 +49628,7 @@
       <c r="A409" t="s">
         <v>817</v>
       </c>
-      <c r="B409" s="44" t="s">
+      <c r="B409" s="39" t="s">
         <v>858</v>
       </c>
       <c r="C409" t="str">
@@ -49654,7 +49650,7 @@
       <c r="A410" t="s">
         <v>818</v>
       </c>
-      <c r="B410" s="44" t="s">
+      <c r="B410" s="39" t="s">
         <v>859</v>
       </c>
       <c r="C410" t="str">
@@ -49676,7 +49672,7 @@
       <c r="A411" t="s">
         <v>819</v>
       </c>
-      <c r="B411" s="44" t="s">
+      <c r="B411" s="39" t="s">
         <v>860</v>
       </c>
       <c r="C411" t="str">
@@ -49698,7 +49694,7 @@
       <c r="A412" t="s">
         <v>820</v>
       </c>
-      <c r="B412" s="44" t="s">
+      <c r="B412" s="39" t="s">
         <v>861</v>
       </c>
       <c r="C412" t="str">
@@ -49720,7 +49716,7 @@
       <c r="A413" t="s">
         <v>821</v>
       </c>
-      <c r="B413" s="44" t="s">
+      <c r="B413" s="39" t="s">
         <v>862</v>
       </c>
       <c r="C413" t="str">
@@ -49742,7 +49738,7 @@
       <c r="A414" t="s">
         <v>823</v>
       </c>
-      <c r="B414" s="44" t="s">
+      <c r="B414" s="39" t="s">
         <v>864</v>
       </c>
       <c r="C414" t="str">
@@ -49764,7 +49760,7 @@
       <c r="A415" t="s">
         <v>824</v>
       </c>
-      <c r="B415" s="44" t="s">
+      <c r="B415" s="39" t="s">
         <v>865</v>
       </c>
       <c r="C415" t="str">
@@ -49786,7 +49782,7 @@
       <c r="A416" t="s">
         <v>825</v>
       </c>
-      <c r="B416" s="44" t="s">
+      <c r="B416" s="39" t="s">
         <v>866</v>
       </c>
       <c r="C416" t="str">
@@ -49808,7 +49804,7 @@
       <c r="A417" t="s">
         <v>826</v>
       </c>
-      <c r="B417" s="44" t="s">
+      <c r="B417" s="39" t="s">
         <v>867</v>
       </c>
       <c r="C417" t="str">
@@ -49830,7 +49826,7 @@
       <c r="A418" t="s">
         <v>827</v>
       </c>
-      <c r="B418" s="44" t="s">
+      <c r="B418" s="39" t="s">
         <v>868</v>
       </c>
       <c r="C418" t="str">
@@ -49852,7 +49848,7 @@
       <c r="A419" t="s">
         <v>828</v>
       </c>
-      <c r="B419" s="44" t="s">
+      <c r="B419" s="39" t="s">
         <v>869</v>
       </c>
       <c r="C419" t="str">
@@ -49874,7 +49870,7 @@
       <c r="A420" t="s">
         <v>829</v>
       </c>
-      <c r="B420" s="44" t="s">
+      <c r="B420" s="39" t="s">
         <v>870</v>
       </c>
       <c r="C420" t="str">
@@ -49896,7 +49892,7 @@
       <c r="A421" t="s">
         <v>830</v>
       </c>
-      <c r="B421" s="44" t="s">
+      <c r="B421" s="39" t="s">
         <v>871</v>
       </c>
       <c r="C421" t="str">
@@ -49918,7 +49914,7 @@
       <c r="A422" t="s">
         <v>831</v>
       </c>
-      <c r="B422" s="44" t="s">
+      <c r="B422" s="39" t="s">
         <v>872</v>
       </c>
       <c r="C422" t="str">
@@ -49940,7 +49936,7 @@
       <c r="A423" t="s">
         <v>832</v>
       </c>
-      <c r="B423" s="44" t="s">
+      <c r="B423" s="39" t="s">
         <v>873</v>
       </c>
       <c r="C423" t="str">
@@ -49962,7 +49958,7 @@
       <c r="A424" t="s">
         <v>833</v>
       </c>
-      <c r="B424" s="44" t="s">
+      <c r="B424" s="39" t="s">
         <v>874</v>
       </c>
       <c r="C424" t="str">
@@ -49984,7 +49980,7 @@
       <c r="A425" t="s">
         <v>834</v>
       </c>
-      <c r="B425" s="44" t="s">
+      <c r="B425" s="39" t="s">
         <v>875</v>
       </c>
       <c r="C425" t="str">
@@ -50006,7 +50002,7 @@
       <c r="A426" t="s">
         <v>816</v>
       </c>
-      <c r="B426" s="44" t="s">
+      <c r="B426" s="39" t="s">
         <v>857</v>
       </c>
       <c r="C426" t="str">
@@ -50027,7 +50023,7 @@
       <c r="A427" t="s">
         <v>822</v>
       </c>
-      <c r="B427" s="44" t="s">
+      <c r="B427" s="39" t="s">
         <v>863</v>
       </c>
       <c r="C427" t="str">
@@ -50042,7 +50038,7 @@
       <c r="A428" t="s">
         <v>806</v>
       </c>
-      <c r="B428" s="44" t="s">
+      <c r="B428" s="39" t="s">
         <v>805</v>
       </c>
       <c r="C428" t="str">
@@ -50057,7 +50053,7 @@
       <c r="A429" t="s">
         <v>807</v>
       </c>
-      <c r="B429" s="44" t="s">
+      <c r="B429" s="39" t="s">
         <v>890</v>
       </c>
       <c r="C429" t="str">
@@ -50072,7 +50068,7 @@
       <c r="A430" t="s">
         <v>808</v>
       </c>
-      <c r="B430" s="44" t="s">
+      <c r="B430" s="39" t="s">
         <v>849</v>
       </c>
       <c r="C430" t="str">
@@ -50087,7 +50083,7 @@
       <c r="A431" t="s">
         <v>809</v>
       </c>
-      <c r="B431" s="44" t="s">
+      <c r="B431" s="39" t="s">
         <v>850</v>
       </c>
       <c r="C431" t="str">
@@ -50102,7 +50098,7 @@
       <c r="A432" t="s">
         <v>810</v>
       </c>
-      <c r="B432" s="44" t="s">
+      <c r="B432" s="39" t="s">
         <v>851</v>
       </c>
       <c r="C432" t="str">
@@ -50117,7 +50113,7 @@
       <c r="A433" t="s">
         <v>811</v>
       </c>
-      <c r="B433" s="44" t="s">
+      <c r="B433" s="39" t="s">
         <v>852</v>
       </c>
       <c r="C433" t="str">
@@ -50132,7 +50128,7 @@
       <c r="A434" t="s">
         <v>812</v>
       </c>
-      <c r="B434" s="44" t="s">
+      <c r="B434" s="39" t="s">
         <v>853</v>
       </c>
       <c r="C434" t="str">
@@ -50147,7 +50143,7 @@
       <c r="A435" t="s">
         <v>813</v>
       </c>
-      <c r="B435" s="44" t="s">
+      <c r="B435" s="39" t="s">
         <v>854</v>
       </c>
       <c r="C435" t="str">
@@ -50162,7 +50158,7 @@
       <c r="A436" t="s">
         <v>814</v>
       </c>
-      <c r="B436" s="44" t="s">
+      <c r="B436" s="39" t="s">
         <v>855</v>
       </c>
       <c r="C436" t="str">
@@ -50177,7 +50173,7 @@
       <c r="A437" t="s">
         <v>815</v>
       </c>
-      <c r="B437" s="44" t="s">
+      <c r="B437" s="39" t="s">
         <v>856</v>
       </c>
       <c r="C437" t="str">
@@ -50189,7 +50185,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A457" s="44" t="s">
+      <c r="A457" s="39" t="s">
         <v>876</v>
       </c>
       <c r="B457" t="s">
@@ -50197,7 +50193,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A458" s="44" t="s">
+      <c r="A458" s="39" t="s">
         <v>877</v>
       </c>
       <c r="B458" t="s">
@@ -50205,7 +50201,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A459" s="44" t="s">
+      <c r="A459" s="39" t="s">
         <v>878</v>
       </c>
       <c r="B459" t="s">
@@ -50213,7 +50209,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A460" s="44" t="s">
+      <c r="A460" s="39" t="s">
         <v>879</v>
       </c>
       <c r="B460" t="s">
@@ -50221,7 +50217,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A461" s="44" t="s">
+      <c r="A461" s="39" t="s">
         <v>880</v>
       </c>
       <c r="B461" t="s">
@@ -50229,7 +50225,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A462" s="44" t="s">
+      <c r="A462" s="39" t="s">
         <v>881</v>
       </c>
       <c r="B462" t="s">
@@ -50237,7 +50233,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A463" s="44" t="s">
+      <c r="A463" s="39" t="s">
         <v>882</v>
       </c>
       <c r="B463" t="s">
@@ -50245,7 +50241,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A464" s="44" t="s">
+      <c r="A464" s="39" t="s">
         <v>883</v>
       </c>
       <c r="B464" t="s">
@@ -50253,7 +50249,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A465" s="44" t="s">
+      <c r="A465" s="39" t="s">
         <v>884</v>
       </c>
       <c r="B465" t="s">
@@ -50261,7 +50257,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A466" s="44" t="s">
+      <c r="A466" s="39" t="s">
         <v>885</v>
       </c>
       <c r="B466" t="s">
@@ -50269,7 +50265,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A467" s="44" t="s">
+      <c r="A467" s="39" t="s">
         <v>886</v>
       </c>
       <c r="B467" t="s">
@@ -50277,7 +50273,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A468" s="44" t="s">
+      <c r="A468" s="39" t="s">
         <v>887</v>
       </c>
       <c r="B468" t="s">
@@ -50285,7 +50281,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A469" s="44" t="s">
+      <c r="A469" s="39" t="s">
         <v>888</v>
       </c>
       <c r="B469" t="s">
@@ -50293,7 +50289,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A470" s="44" t="s">
+      <c r="A470" s="39" t="s">
         <v>889</v>
       </c>
       <c r="B470" t="s">
@@ -50310,9 +50306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B68322-A9FD-40B9-A576-DB2111CD9A1C}">
   <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G408" sqref="G408:G436"/>
+      <selection pane="bottomLeft" activeCell="A428" sqref="A428:A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -60093,7 +60089,7 @@
       <c r="A408" t="s">
         <v>817</v>
       </c>
-      <c r="B408" s="44" t="s">
+      <c r="B408" s="39" t="s">
         <v>858</v>
       </c>
       <c r="C408" t="s">
@@ -60117,7 +60113,7 @@
       <c r="A409" t="s">
         <v>818</v>
       </c>
-      <c r="B409" s="44" t="s">
+      <c r="B409" s="39" t="s">
         <v>859</v>
       </c>
       <c r="C409" t="s">
@@ -60141,7 +60137,7 @@
       <c r="A410" t="s">
         <v>819</v>
       </c>
-      <c r="B410" s="44" t="s">
+      <c r="B410" s="39" t="s">
         <v>860</v>
       </c>
       <c r="C410" t="s">
@@ -60165,7 +60161,7 @@
       <c r="A411" t="s">
         <v>820</v>
       </c>
-      <c r="B411" s="44" t="s">
+      <c r="B411" s="39" t="s">
         <v>861</v>
       </c>
       <c r="C411" t="s">
@@ -60189,7 +60185,7 @@
       <c r="A412" t="s">
         <v>821</v>
       </c>
-      <c r="B412" s="44" t="s">
+      <c r="B412" s="39" t="s">
         <v>862</v>
       </c>
       <c r="C412" t="s">
@@ -60213,7 +60209,7 @@
       <c r="A413" t="s">
         <v>823</v>
       </c>
-      <c r="B413" s="44" t="s">
+      <c r="B413" s="39" t="s">
         <v>864</v>
       </c>
       <c r="C413" t="s">
@@ -60237,7 +60233,7 @@
       <c r="A414" t="s">
         <v>824</v>
       </c>
-      <c r="B414" s="44" t="s">
+      <c r="B414" s="39" t="s">
         <v>865</v>
       </c>
       <c r="C414" t="s">
@@ -60261,7 +60257,7 @@
       <c r="A415" t="s">
         <v>825</v>
       </c>
-      <c r="B415" s="44" t="s">
+      <c r="B415" s="39" t="s">
         <v>866</v>
       </c>
       <c r="C415" t="s">
@@ -60285,7 +60281,7 @@
       <c r="A416" t="s">
         <v>826</v>
       </c>
-      <c r="B416" s="44" t="s">
+      <c r="B416" s="39" t="s">
         <v>867</v>
       </c>
       <c r="C416" t="s">
@@ -60309,7 +60305,7 @@
       <c r="A417" t="s">
         <v>827</v>
       </c>
-      <c r="B417" s="44" t="s">
+      <c r="B417" s="39" t="s">
         <v>868</v>
       </c>
       <c r="C417" t="s">
@@ -60333,7 +60329,7 @@
       <c r="A418" t="s">
         <v>828</v>
       </c>
-      <c r="B418" s="44" t="s">
+      <c r="B418" s="39" t="s">
         <v>869</v>
       </c>
       <c r="C418" t="s">
@@ -60357,7 +60353,7 @@
       <c r="A419" t="s">
         <v>829</v>
       </c>
-      <c r="B419" s="44" t="s">
+      <c r="B419" s="39" t="s">
         <v>870</v>
       </c>
       <c r="C419" t="s">
@@ -60381,7 +60377,7 @@
       <c r="A420" t="s">
         <v>830</v>
       </c>
-      <c r="B420" s="44" t="s">
+      <c r="B420" s="39" t="s">
         <v>871</v>
       </c>
       <c r="C420" t="s">
@@ -60405,7 +60401,7 @@
       <c r="A421" t="s">
         <v>831</v>
       </c>
-      <c r="B421" s="44" t="s">
+      <c r="B421" s="39" t="s">
         <v>872</v>
       </c>
       <c r="C421" t="s">
@@ -60429,7 +60425,7 @@
       <c r="A422" t="s">
         <v>832</v>
       </c>
-      <c r="B422" s="44" t="s">
+      <c r="B422" s="39" t="s">
         <v>873</v>
       </c>
       <c r="C422" t="s">
@@ -60453,7 +60449,7 @@
       <c r="A423" t="s">
         <v>833</v>
       </c>
-      <c r="B423" s="44" t="s">
+      <c r="B423" s="39" t="s">
         <v>874</v>
       </c>
       <c r="C423" t="s">
@@ -60477,7 +60473,7 @@
       <c r="A424" t="s">
         <v>834</v>
       </c>
-      <c r="B424" s="44" t="s">
+      <c r="B424" s="39" t="s">
         <v>875</v>
       </c>
       <c r="C424" t="s">
@@ -60501,7 +60497,7 @@
       <c r="A425" t="s">
         <v>816</v>
       </c>
-      <c r="B425" s="44" t="s">
+      <c r="B425" s="39" t="s">
         <v>857</v>
       </c>
       <c r="C425" t="s">
@@ -60525,7 +60521,7 @@
       <c r="A426" t="s">
         <v>822</v>
       </c>
-      <c r="B426" s="44" t="s">
+      <c r="B426" s="39" t="s">
         <v>863</v>
       </c>
       <c r="C426" t="s">
@@ -60549,7 +60545,7 @@
       <c r="A427" t="s">
         <v>806</v>
       </c>
-      <c r="B427" s="44" t="s">
+      <c r="B427" s="39" t="s">
         <v>805</v>
       </c>
       <c r="C427" t="s">
@@ -60570,10 +60566,10 @@
       </c>
     </row>
     <row r="428" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A428" t="s">
-        <v>807</v>
-      </c>
-      <c r="B428" s="44" t="s">
+      <c r="A428" s="45" t="s">
+        <v>890</v>
+      </c>
+      <c r="B428" s="39" t="s">
         <v>890</v>
       </c>
       <c r="C428" t="s">
@@ -60594,10 +60590,10 @@
       </c>
     </row>
     <row r="429" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A429" t="s">
-        <v>808</v>
-      </c>
-      <c r="B429" s="44" t="s">
+      <c r="A429" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="B429" s="39" t="s">
         <v>849</v>
       </c>
       <c r="C429" t="s">
@@ -60621,7 +60617,7 @@
       <c r="A430" t="s">
         <v>809</v>
       </c>
-      <c r="B430" s="44" t="s">
+      <c r="B430" s="39" t="s">
         <v>850</v>
       </c>
       <c r="C430" t="s">
@@ -60645,7 +60641,7 @@
       <c r="A431" t="s">
         <v>810</v>
       </c>
-      <c r="B431" s="44" t="s">
+      <c r="B431" s="39" t="s">
         <v>851</v>
       </c>
       <c r="C431" t="s">
@@ -60669,7 +60665,7 @@
       <c r="A432" t="s">
         <v>811</v>
       </c>
-      <c r="B432" s="44" t="s">
+      <c r="B432" s="39" t="s">
         <v>852</v>
       </c>
       <c r="C432" t="s">
@@ -60693,7 +60689,7 @@
       <c r="A433" t="s">
         <v>812</v>
       </c>
-      <c r="B433" s="44" t="s">
+      <c r="B433" s="39" t="s">
         <v>853</v>
       </c>
       <c r="C433" t="s">
@@ -60717,7 +60713,7 @@
       <c r="A434" t="s">
         <v>813</v>
       </c>
-      <c r="B434" s="44" t="s">
+      <c r="B434" s="39" t="s">
         <v>854</v>
       </c>
       <c r="C434" t="s">
@@ -60741,7 +60737,7 @@
       <c r="A435" t="s">
         <v>814</v>
       </c>
-      <c r="B435" s="44" t="s">
+      <c r="B435" s="39" t="s">
         <v>855</v>
       </c>
       <c r="C435" t="s">
@@ -60765,7 +60761,7 @@
       <c r="A436" t="s">
         <v>815</v>
       </c>
-      <c r="B436" s="44" t="s">
+      <c r="B436" s="39" t="s">
         <v>856</v>
       </c>
       <c r="C436" t="s">

--- a/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
+++ b/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\WiNnat_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFE0705-D413-49A8-876B-024260552309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FADDD7-5B18-4F96-A251-6EE7DCCD4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="-21720" windowWidth="38640" windowHeight="21840" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="-21600" windowWidth="12840" windowHeight="21705" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS Codes" sheetId="31" r:id="rId1"/>
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6260" uniqueCount="970">
   <si>
     <t>Oil and gas extraction</t>
   </si>
@@ -3287,6 +3287,69 @@
   </si>
   <si>
     <t>coa</t>
+  </si>
+  <si>
+    <t>Imports of goods and services</t>
+  </si>
+  <si>
+    <t>Imports of goods and services (MCIF)</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>Trade margins</t>
+  </si>
+  <si>
+    <t>Transport margins</t>
+  </si>
+  <si>
+    <t>Trade margins (Trans)</t>
+  </si>
+  <si>
+    <t>Transport margins (Trade)</t>
+  </si>
+  <si>
+    <t>Import duties</t>
+  </si>
+  <si>
+    <t>import_duties</t>
+  </si>
+  <si>
+    <t>Import duties (MDTY)</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>Tax on products</t>
+  </si>
+  <si>
+    <t>Tax on products (TOP)</t>
+  </si>
+  <si>
+    <t>armington_tax</t>
+  </si>
+  <si>
+    <t>armington_subsidy</t>
+  </si>
+  <si>
+    <t>Subsidies on products</t>
+  </si>
+  <si>
+    <t>Subsidies on products (SUB)</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>Other taxes on production (T00OTOP)</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +3567,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -3613,6 +3676,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3628,8 +3694,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5898,26 +5965,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -5929,13 +5996,13 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>474</v>
       </c>
       <c r="F4" s="2"/>
@@ -5954,7 +6021,7 @@
       <c r="D5" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="5" t="s">
         <v>479</v>
       </c>
@@ -17688,48 +17755,48 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="40" t="s">
+      <c r="A1025" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="40"/>
-      <c r="C1025" s="40"/>
-      <c r="D1025" s="40"/>
-      <c r="E1025" s="40"/>
-      <c r="F1025" s="40"/>
-      <c r="G1025" s="40"/>
+      <c r="B1025" s="41"/>
+      <c r="C1025" s="41"/>
+      <c r="D1025" s="41"/>
+      <c r="E1025" s="41"/>
+      <c r="F1025" s="41"/>
+      <c r="G1025" s="41"/>
     </row>
     <row r="1026" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="40" t="s">
+      <c r="A1026" s="41" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="40"/>
-      <c r="C1026" s="40"/>
-      <c r="D1026" s="40"/>
-      <c r="E1026" s="40"/>
-      <c r="F1026" s="40"/>
-      <c r="G1026" s="40"/>
+      <c r="B1026" s="41"/>
+      <c r="C1026" s="41"/>
+      <c r="D1026" s="41"/>
+      <c r="E1026" s="41"/>
+      <c r="F1026" s="41"/>
+      <c r="G1026" s="41"/>
     </row>
     <row r="1027" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="40" t="s">
+      <c r="A1027" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="40"/>
-      <c r="C1027" s="40"/>
-      <c r="D1027" s="40"/>
-      <c r="E1027" s="40"/>
-      <c r="F1027" s="40"/>
-      <c r="G1027" s="40"/>
+      <c r="B1027" s="41"/>
+      <c r="C1027" s="41"/>
+      <c r="D1027" s="41"/>
+      <c r="E1027" s="41"/>
+      <c r="F1027" s="41"/>
+      <c r="G1027" s="41"/>
     </row>
     <row r="1028" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="40" t="s">
+      <c r="A1028" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="40"/>
-      <c r="C1028" s="40"/>
-      <c r="D1028" s="40"/>
-      <c r="E1028" s="40"/>
-      <c r="F1028" s="40"/>
-      <c r="G1028" s="40"/>
+      <c r="B1028" s="41"/>
+      <c r="C1028" s="41"/>
+      <c r="D1028" s="41"/>
+      <c r="E1028" s="41"/>
+      <c r="F1028" s="41"/>
+      <c r="G1028" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17771,30 +17838,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -17808,15 +17875,15 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="44" t="s">
         <v>474</v>
       </c>
       <c r="H4" s="2"/>
@@ -17839,7 +17906,7 @@
         <v>726</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="44"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="5" t="s">
         <v>479</v>
       </c>
@@ -34443,56 +34510,56 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="40" t="s">
+      <c r="A1025" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="40"/>
-      <c r="C1025" s="40"/>
-      <c r="D1025" s="40"/>
-      <c r="E1025" s="40"/>
-      <c r="F1025" s="40"/>
-      <c r="G1025" s="40"/>
-      <c r="H1025" s="40"/>
-      <c r="I1025" s="40"/>
+      <c r="B1025" s="41"/>
+      <c r="C1025" s="41"/>
+      <c r="D1025" s="41"/>
+      <c r="E1025" s="41"/>
+      <c r="F1025" s="41"/>
+      <c r="G1025" s="41"/>
+      <c r="H1025" s="41"/>
+      <c r="I1025" s="41"/>
     </row>
     <row r="1026" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="40" t="s">
+      <c r="A1026" s="41" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="40"/>
-      <c r="C1026" s="40"/>
-      <c r="D1026" s="40"/>
-      <c r="E1026" s="40"/>
-      <c r="F1026" s="40"/>
-      <c r="G1026" s="40"/>
-      <c r="H1026" s="40"/>
-      <c r="I1026" s="40"/>
+      <c r="B1026" s="41"/>
+      <c r="C1026" s="41"/>
+      <c r="D1026" s="41"/>
+      <c r="E1026" s="41"/>
+      <c r="F1026" s="41"/>
+      <c r="G1026" s="41"/>
+      <c r="H1026" s="41"/>
+      <c r="I1026" s="41"/>
     </row>
     <row r="1027" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="40" t="s">
+      <c r="A1027" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="40"/>
-      <c r="C1027" s="40"/>
-      <c r="D1027" s="40"/>
-      <c r="E1027" s="40"/>
-      <c r="F1027" s="40"/>
-      <c r="G1027" s="40"/>
-      <c r="H1027" s="40"/>
-      <c r="I1027" s="40"/>
+      <c r="B1027" s="41"/>
+      <c r="C1027" s="41"/>
+      <c r="D1027" s="41"/>
+      <c r="E1027" s="41"/>
+      <c r="F1027" s="41"/>
+      <c r="G1027" s="41"/>
+      <c r="H1027" s="41"/>
+      <c r="I1027" s="41"/>
     </row>
     <row r="1028" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="40" t="s">
+      <c r="A1028" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="40"/>
-      <c r="C1028" s="40"/>
-      <c r="D1028" s="40"/>
-      <c r="E1028" s="40"/>
-      <c r="F1028" s="40"/>
-      <c r="G1028" s="40"/>
-      <c r="H1028" s="40"/>
-      <c r="I1028" s="40"/>
+      <c r="B1028" s="41"/>
+      <c r="C1028" s="41"/>
+      <c r="D1028" s="41"/>
+      <c r="E1028" s="41"/>
+      <c r="F1028" s="41"/>
+      <c r="G1028" s="41"/>
+      <c r="H1028" s="41"/>
+      <c r="I1028" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -50304,16 +50371,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B68322-A9FD-40B9-A576-DB2111CD9A1C}">
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A428" sqref="A428:A429"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="48.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -50585,8 +50652,8 @@
       <c r="A12" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>482</v>
+      <c r="B12" s="47" t="s">
+        <v>491</v>
       </c>
       <c r="C12" s="31">
         <v>113000</v>
@@ -50596,7 +50663,7 @@
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP(B12,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+        <v>Forestry, fishing, and related activities (113FF)</v>
       </c>
       <c r="F12" t="s">
         <v>728</v>
@@ -50609,8 +50676,8 @@
       <c r="A13" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>482</v>
+      <c r="B13" s="47" t="s">
+        <v>491</v>
       </c>
       <c r="C13" s="31">
         <v>114000</v>
@@ -50620,7 +50687,7 @@
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(B13,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+        <v>Forestry, fishing, and related activities (113FF)</v>
       </c>
       <c r="F13" t="s">
         <v>728</v>
@@ -50633,8 +50700,8 @@
       <c r="A14" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>482</v>
+      <c r="B14" s="47" t="s">
+        <v>491</v>
       </c>
       <c r="C14" s="31">
         <v>115000</v>
@@ -50644,7 +50711,7 @@
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP(B14,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+        <v>Forestry, fishing, and related activities (113FF)</v>
       </c>
       <c r="F14" t="s">
         <v>728</v>
@@ -60541,244 +60608,405 @@
         <v>822</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
+        <v>838</v>
+      </c>
+      <c r="B427" t="s">
+        <v>879</v>
+      </c>
+      <c r="C427" t="s">
+        <v>879</v>
+      </c>
+      <c r="D427" t="s">
+        <v>949</v>
+      </c>
+      <c r="E427" t="s">
+        <v>950</v>
+      </c>
+      <c r="F427" t="s">
+        <v>838</v>
+      </c>
+      <c r="G427" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A428" t="s">
         <v>806</v>
       </c>
-      <c r="B427" s="39" t="s">
+      <c r="B428" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C428" t="s">
         <v>928</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D428" t="s">
         <v>932</v>
-      </c>
-      <c r="E427" t="str">
-        <f>VLOOKUP(B427,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Total Intermediate (T005)</v>
-      </c>
-      <c r="F427" t="s">
-        <v>806</v>
-      </c>
-      <c r="G427" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A428" s="45" t="s">
-        <v>890</v>
-      </c>
-      <c r="B428" s="39" t="s">
-        <v>890</v>
-      </c>
-      <c r="C428" t="s">
-        <v>929</v>
-      </c>
-      <c r="D428" t="s">
-        <v>933</v>
       </c>
       <c r="E428" t="str">
         <f>VLOOKUP(B428,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Compensation of employees (V001)</v>
+        <v>Total Intermediate (T005)</v>
       </c>
       <c r="F428" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G428" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A429" s="45" t="s">
-        <v>849</v>
+      <c r="A429" s="40" t="s">
+        <v>890</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="C429" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D429" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E429" t="str">
         <f>VLOOKUP(B429,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Gross operating surplus (V003)</v>
+        <v>Compensation of employees (V001)</v>
       </c>
       <c r="F429" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G429" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A430" t="s">
-        <v>809</v>
+      <c r="A430" s="40" t="s">
+        <v>849</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C430" t="s">
-        <v>850</v>
+        <v>930</v>
       </c>
       <c r="D430" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E430" t="str">
         <f>VLOOKUP(B430,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other taxes on production (T00OTOP)</v>
+        <v>Gross operating surplus (V003)</v>
       </c>
       <c r="F430" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G430" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C431" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D431" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E431" t="str">
         <f>VLOOKUP(B431,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Value Added (basic prices) (VABAS)</v>
+        <v>Other taxes on production (T00OTOP)</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G431" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C432" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D432" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E432" t="str">
         <f>VLOOKUP(B432,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Total industry output (basic prices) (T018)</v>
+        <v>Value Added (basic prices) (VABAS)</v>
       </c>
       <c r="F432" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G432" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C433" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D433" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E433" t="str">
         <f>VLOOKUP(B433,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Taxes on products and imports (T00TOP)</v>
+        <v>Total industry output (basic prices) (T018)</v>
       </c>
       <c r="F433" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G433" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C434" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D434" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E434" t="str">
         <f>VLOOKUP(B434,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Less: Subsidies (T00SUB)</v>
+        <v>Taxes on products and imports (T00TOP)</v>
       </c>
       <c r="F434" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G434" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C435" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D435" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E435" t="str">
         <f>VLOOKUP(B435,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Value Added (producer prices) (VAPRO)</v>
+        <v>Less: Subsidies (T00SUB)</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G435" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C436" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D436" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="E436" t="str">
         <f>VLOOKUP(B436,[1]bea_all!A$2:E$117,5,FALSE)</f>
+        <v>Value Added (producer prices) (VAPRO)</v>
+      </c>
+      <c r="F436" t="s">
+        <v>814</v>
+      </c>
+      <c r="G436" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
+        <v>815</v>
+      </c>
+      <c r="B437" s="39" t="s">
+        <v>856</v>
+      </c>
+      <c r="C437" t="s">
+        <v>856</v>
+      </c>
+      <c r="D437" t="s">
+        <v>932</v>
+      </c>
+      <c r="E437" t="str">
+        <f>VLOOKUP(B437,[1]bea_all!A$2:E$117,5,FALSE)</f>
         <v>Total Intermediate (T001)</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F437" t="s">
         <v>815</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G437" t="s">
         <v>815</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>951</v>
+      </c>
+      <c r="B438" t="s">
+        <v>883</v>
+      </c>
+      <c r="C438" t="s">
+        <v>883</v>
+      </c>
+      <c r="D438" t="s">
+        <v>953</v>
+      </c>
+      <c r="E438" t="s">
+        <v>955</v>
+      </c>
+      <c r="F438" t="s">
+        <v>951</v>
+      </c>
+      <c r="G438" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
+        <v>952</v>
+      </c>
+      <c r="B439" t="s">
+        <v>882</v>
+      </c>
+      <c r="C439" t="s">
+        <v>882</v>
+      </c>
+      <c r="D439" t="s">
+        <v>954</v>
+      </c>
+      <c r="E439" t="s">
+        <v>956</v>
+      </c>
+      <c r="F439" t="s">
+        <v>952</v>
+      </c>
+      <c r="G439" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>958</v>
+      </c>
+      <c r="B440" t="s">
+        <v>885</v>
+      </c>
+      <c r="C440" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="D440" t="s">
+        <v>957</v>
+      </c>
+      <c r="E440" t="s">
+        <v>959</v>
+      </c>
+      <c r="F440" t="s">
+        <v>960</v>
+      </c>
+      <c r="G440" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
+        <v>963</v>
+      </c>
+      <c r="B441" t="s">
+        <v>886</v>
+      </c>
+      <c r="C441" t="s">
+        <v>886</v>
+      </c>
+      <c r="D441" t="s">
+        <v>961</v>
+      </c>
+      <c r="E441" t="s">
+        <v>962</v>
+      </c>
+      <c r="F441" t="s">
+        <v>967</v>
+      </c>
+      <c r="G441" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>964</v>
+      </c>
+      <c r="B442" t="s">
+        <v>887</v>
+      </c>
+      <c r="C442" t="s">
+        <v>887</v>
+      </c>
+      <c r="D442" t="s">
+        <v>965</v>
+      </c>
+      <c r="E442" t="s">
+        <v>966</v>
+      </c>
+      <c r="F442" t="s">
+        <v>968</v>
+      </c>
+      <c r="G442" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A443" t="s">
+        <v>850</v>
+      </c>
+      <c r="B443" t="s">
+        <v>850</v>
+      </c>
+      <c r="C443" t="s">
+        <v>850</v>
+      </c>
+      <c r="D443" t="s">
+        <v>935</v>
+      </c>
+      <c r="E443" t="s">
+        <v>969</v>
+      </c>
+      <c r="F443" t="s">
+        <v>809</v>
+      </c>
+      <c r="G443" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
+++ b/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\WiNnat_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FADDD7-5B18-4F96-A251-6EE7DCCD4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B123789-72D5-45C4-AFC8-C13461E363B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="-21600" windowWidth="12840" windowHeight="21705" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="-21600" windowWidth="19410" windowHeight="21705" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS Codes" sheetId="31" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="CorrespondencePrep" sheetId="34" r:id="rId4"/>
     <sheet name="Detail-Summary-WiNDC" sheetId="35" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CheckUnique#'!$A$1:$A$1000</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NAICS Codes'!#REF!</definedName>
@@ -439,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6260" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="1071">
   <si>
     <t>Oil and gas extraction</t>
   </si>
@@ -3350,6 +3347,309 @@
   </si>
   <si>
     <t>Other taxes on production (T00OTOP)</t>
+  </si>
+  <si>
+    <t>Farms (111CA)</t>
+  </si>
+  <si>
+    <t>Forestry, fishing, and related activities (113FF)</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction (211)</t>
+  </si>
+  <si>
+    <t>Mining, except oil and gas (212)</t>
+  </si>
+  <si>
+    <t>Support activities for mining (213)</t>
+  </si>
+  <si>
+    <t>Utilities (22)</t>
+  </si>
+  <si>
+    <t>Construction (23)</t>
+  </si>
+  <si>
+    <t>Wood products (321)</t>
+  </si>
+  <si>
+    <t>Nonmetallic mineral products (327)</t>
+  </si>
+  <si>
+    <t>Primary metals (331)</t>
+  </si>
+  <si>
+    <t>Fabricated metal products (332)</t>
+  </si>
+  <si>
+    <t>Machinery (333)</t>
+  </si>
+  <si>
+    <t>Computer and electronic products (334)</t>
+  </si>
+  <si>
+    <t>Electrical equipment, appliances, and components (335)</t>
+  </si>
+  <si>
+    <t>Motor vehicles, bodies and trailers, and parts (3361MV)</t>
+  </si>
+  <si>
+    <t>Other transportation equipment (3364OT)</t>
+  </si>
+  <si>
+    <t>Furniture and related products (337)</t>
+  </si>
+  <si>
+    <t>Miscellaneous manufacturing (339)</t>
+  </si>
+  <si>
+    <t>Food and beverage and tobacco products (311FT)</t>
+  </si>
+  <si>
+    <t>Textile mills and textile product mills (313TT)</t>
+  </si>
+  <si>
+    <t>Apparel and leather and allied products (315AL)</t>
+  </si>
+  <si>
+    <t>Paper products (322)</t>
+  </si>
+  <si>
+    <t>Printing and related support activities (323)</t>
+  </si>
+  <si>
+    <t>Petroleum and coal products (324)</t>
+  </si>
+  <si>
+    <t>Chemical products (325)</t>
+  </si>
+  <si>
+    <t>Plastics and rubber products (326)</t>
+  </si>
+  <si>
+    <t>Wholesale trade (42)</t>
+  </si>
+  <si>
+    <t>Motor vehicle and parts dealers (441)</t>
+  </si>
+  <si>
+    <t>Food and beverage stores (445)</t>
+  </si>
+  <si>
+    <t>General merchandise stores (452)</t>
+  </si>
+  <si>
+    <t>Other retail (4A0)</t>
+  </si>
+  <si>
+    <t>Air transportation (481)</t>
+  </si>
+  <si>
+    <t>Rail transportation (482)</t>
+  </si>
+  <si>
+    <t>Water transportation (483)</t>
+  </si>
+  <si>
+    <t>Truck transportation (484)</t>
+  </si>
+  <si>
+    <t>Transit and ground passenger transportation (485)</t>
+  </si>
+  <si>
+    <t>Pipeline transportation (486)</t>
+  </si>
+  <si>
+    <t>Other transportation and support activities (487OS)</t>
+  </si>
+  <si>
+    <t>Warehousing and storage (493)</t>
+  </si>
+  <si>
+    <t>Publishing industries, except internet (includes software) (511)</t>
+  </si>
+  <si>
+    <t>Motion picture and sound recording industries (512)</t>
+  </si>
+  <si>
+    <t>Broadcasting and telecommunications (513)</t>
+  </si>
+  <si>
+    <t>Data processing, internet publishing, and other information services (514)</t>
+  </si>
+  <si>
+    <t>Federal Reserve banks, credit intermediation, and related activities (521CI)</t>
+  </si>
+  <si>
+    <t>Securities, commodity contracts, and investments (523)</t>
+  </si>
+  <si>
+    <t>Insurance carriers and related activities (524)</t>
+  </si>
+  <si>
+    <t>Funds, trusts, and other financial vehicles (525)</t>
+  </si>
+  <si>
+    <t>Housing (HS)</t>
+  </si>
+  <si>
+    <t>Other real estate (ORE)</t>
+  </si>
+  <si>
+    <t>Rental and leasing services and lessors of intangible assets (532RL)</t>
+  </si>
+  <si>
+    <t>Legal services (5411)</t>
+  </si>
+  <si>
+    <t>Miscellaneous professional, scientific, and technical services (5412OP)</t>
+  </si>
+  <si>
+    <t>Computer systems design and related services (5415)</t>
+  </si>
+  <si>
+    <t>Management of companies and enterprises (55)</t>
+  </si>
+  <si>
+    <t>Administrative and support services (561)</t>
+  </si>
+  <si>
+    <t>Waste management and remediation services (562)</t>
+  </si>
+  <si>
+    <t>Educational services (61)</t>
+  </si>
+  <si>
+    <t>Ambulatory health care services (621)</t>
+  </si>
+  <si>
+    <t>Hospitals (622)</t>
+  </si>
+  <si>
+    <t>Nursing and residential care facilities (623)</t>
+  </si>
+  <si>
+    <t>Social assistance (624)</t>
+  </si>
+  <si>
+    <t>Performing arts, spectator sports, museums, and related activities (711AS)</t>
+  </si>
+  <si>
+    <t>Amusements, gambling, and recreation industries (713)</t>
+  </si>
+  <si>
+    <t>Accommodation (721)</t>
+  </si>
+  <si>
+    <t>Food services and drinking places (722)</t>
+  </si>
+  <si>
+    <t>Other services, except government (81)</t>
+  </si>
+  <si>
+    <t>Federal general government (defense) (GFGD)</t>
+  </si>
+  <si>
+    <t>Federal general government (nondefense) (GFGN)</t>
+  </si>
+  <si>
+    <t>Federal government enterprises (GFE)</t>
+  </si>
+  <si>
+    <t>State and local general government (GSLG)</t>
+  </si>
+  <si>
+    <t>State and local government enterprises (GSLE)</t>
+  </si>
+  <si>
+    <t>Scrap, used and secondhand goods (Used)</t>
+  </si>
+  <si>
+    <t>Noncomparable imports and rest-of-the-world adjustment (Other)</t>
+  </si>
+  <si>
+    <t>Nonresidential private fixed investment in equipment (F02E)</t>
+  </si>
+  <si>
+    <t>Nonresidential private fixed investment in intellectual property products (F02N)</t>
+  </si>
+  <si>
+    <t>Residential private fixed investment (F02R)</t>
+  </si>
+  <si>
+    <t>Nonresidential private fixed investment in structures (F02S)</t>
+  </si>
+  <si>
+    <t>Change in private inventories (F030)</t>
+  </si>
+  <si>
+    <t>National defense: Consumption expenditures (F06C)</t>
+  </si>
+  <si>
+    <t>Federal national defense: Gross investment in equipment (F06E)</t>
+  </si>
+  <si>
+    <t>Federal national defense: Gross investment in intellectual property products (F06N)</t>
+  </si>
+  <si>
+    <t>Federal national defense: Gross investment in structures (F06S)</t>
+  </si>
+  <si>
+    <t>Nondefense: Consumption expenditures (F07C)</t>
+  </si>
+  <si>
+    <t>Federal nondefense: Gross investment in equipment (F07E)</t>
+  </si>
+  <si>
+    <t>Federal nondefense: Gross investment in intellectual property products (F07N)</t>
+  </si>
+  <si>
+    <t>Federal nondefense: Gross investment in structures (F07S)</t>
+  </si>
+  <si>
+    <t>State and local government consumption expenditures (F10C)</t>
+  </si>
+  <si>
+    <t>State and local: Gross investment in equipment (F10E)</t>
+  </si>
+  <si>
+    <t>State and local: Gross investment in intellectual property products (F10N)</t>
+  </si>
+  <si>
+    <t>State and local: Gross investment in structures (F10S)</t>
+  </si>
+  <si>
+    <t>Personal consumption expenditures (F010)</t>
+  </si>
+  <si>
+    <t>Exports of goods and services (F040)</t>
+  </si>
+  <si>
+    <t>Total Intermediate (T005)</t>
+  </si>
+  <si>
+    <t>Compensation of employees (V001)</t>
+  </si>
+  <si>
+    <t>Gross operating surplus (V003)</t>
+  </si>
+  <si>
+    <t>Value Added (basic prices) (VABAS)</t>
+  </si>
+  <si>
+    <t>Total industry output (basic prices) (T018)</t>
+  </si>
+  <si>
+    <t>Taxes on products and imports (T00TOP)</t>
+  </si>
+  <si>
+    <t>Less: Subsidies (T00SUB)</t>
+  </si>
+  <si>
+    <t>Value Added (producer prices) (VAPRO)</t>
+  </si>
+  <si>
+    <t>Total Intermediate (T001)</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3867,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -3679,6 +3979,9 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3693,10 +3996,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3724,1935 +4023,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="bea_all"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>111CA</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>agr</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Farms</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Farms (111CA)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>113FF</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>fof</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Forestry, fishing, and related activities</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Forestry, fishing, and related activities (113FF)</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>211</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>oil</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Oil and gas extraction</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Oil and gas extraction (211)</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>212</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>min</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Mining, except oil and gas</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Mining, except oil and gas (212)</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>213</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>smn</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Support activities for mining</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Support activities for mining (213)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>22</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>uti</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Utilities</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Utilities (22)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>23</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>con</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Construction</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Construction (23)</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>321</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>wpd</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Wood products</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Wood products (321)</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>327</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>nmp</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Nonmetallic mineral products</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Nonmetallic mineral products (327)</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>331</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>pmt</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Primary metals</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Primary metals (331)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>332</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>fmt</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Fabricated metal products</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>Fabricated metal products (332)</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>333</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>mch</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Machinery</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>Machinery (333)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>334</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>cep</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Computer and electronic products</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>Computer and electronic products (334)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>335</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>eec</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Electrical equipment, appliances, and components</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>Electrical equipment, appliances, and components (335)</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>3361MV</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>mot</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Motor vehicles, bodies and trailers, and parts</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>3364OT</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>ote</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Other transportation equipment</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>Other transportation equipment (3364OT)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>337</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>fpd</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Furniture and related products</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>Furniture and related products (337)</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>339</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>mmf</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Miscellaneous manufacturing</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>Miscellaneous manufacturing (339)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>311FT</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>fbp</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>Food and beverage and tobacco products</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>Food and beverage and tobacco products (311FT)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>313TT</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>tex</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Textile mills and textile product mills</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>Textile mills and textile product mills (313TT)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>315AL</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>alt</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Apparel and leather and allied products</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>Apparel and leather and allied products (315AL)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>322</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>ppd</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Paper products</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>Paper products (322)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>323</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>pri</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Printing and related support activities</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>Printing and related support activities (323)</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>324</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>pet</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Petroleum and coal products</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>Petroleum and coal products (324)</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>325</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>che</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>Chemical products</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>Chemical products (325)</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>326</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>pla</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>Plastics and rubber products</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>Plastics and rubber products (326)</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>42</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>wht</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Wholesale trade</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>Wholesale trade (42)</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>441</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>mvt</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Motor vehicle and parts dealers</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>Motor vehicle and parts dealers (441)</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>445</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>fbt</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Food and beverage stores</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>Food and beverage stores (445)</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>452</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>gmt</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>General merchandise stores</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>General merchandise stores (452)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>4A0</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>ott</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>Other retail</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>Other retail (4A0)</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>481</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>air</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>Air transportation</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>Air transportation (481)</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>482</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>trn</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Rail transportation</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>Rail transportation (482)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>483</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>wtt</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>Water transportation</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>Water transportation (483)</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>484</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>trk</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>Truck transportation</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>Truck transportation (484)</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>485</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>grd</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>Transit and ground passenger transportation</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>Transit and ground passenger transportation (485)</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>486</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>pip</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>Pipeline transportation</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>Pipeline transportation (486)</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>487OS</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>otr</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>Other transportation and support activities</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>Other transportation and support activities (487OS)</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>493</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>wrh</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>Warehousing and storage</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>Warehousing and storage (493)</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>511</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>pub</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>Publishing industries, except internet (includes software)</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>Publishing industries, except internet (includes software) (511)</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>512</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>mov</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>Motion picture and sound recording industries</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>Motion picture and sound recording industries (512)</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>513</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>brd</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>Broadcasting and telecommunications</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>Broadcasting and telecommunications (513)</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>514</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>dat</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>Data processing, internet publishing, and other information services</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>Data processing, internet publishing, and other information services (514)</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>521CI</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>bnk</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>Federal Reserve banks, credit intermediation, and related activities</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>Federal Reserve banks, credit intermediation, and related activities (521CI)</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>523</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>sec</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>Securities, commodity contracts, and investments</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>Securities, commodity contracts, and investments (523)</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>524</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>ins</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>Insurance carriers and related activities</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>Insurance carriers and related activities (524)</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>525</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>fin</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>Funds, trusts, and other financial vehicles</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>Funds, trusts, and other financial vehicles (525)</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>HS</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>hou</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>Housing</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>Housing (HS)</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>ORE</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>ore</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>Other real estate</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>Other real estate (ORE)</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>532RL</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>rnt</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>Rental and leasing services and lessors of intangible assets</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>Rental and leasing services and lessors of intangible assets (532RL)</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>5411</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>leg</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>Legal services</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>Legal services (5411)</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>5415</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>com</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>Computer systems design and related services</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>Computer systems design and related services (5415)</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>5412OP</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>tsv</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>Miscellaneous professional, scientific, and technical services</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>55</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>man</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>Management of companies and enterprises</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>Management of companies and enterprises (55)</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>561</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>adm</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>Administrative and support services</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Administrative and support services (561)</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>562</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>wst</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>Waste management and remediation services</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>Waste management and remediation services (562)</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>61</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>edu</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>Educational services</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>Educational services (61)</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>621</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>amb</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>Ambulatory health care services</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Ambulatory health care services (621)</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>622</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>hos</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>Hospitals</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Hospitals (622)</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>623</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>nrs</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>Nursing and residential care facilities</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Nursing and residential care facilities (623)</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>624</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>soc</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>Social assistance</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>Social assistance (624)</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>711AS</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>art</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>Performing arts, spectator sports, museums, and related activities</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>713</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>rec</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>Amusements, gambling, and recreation industries</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>Amusements, gambling, and recreation industries (713)</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>721</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>amd</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>Accommodation</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Accommodation (721)</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>722</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>res</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>Food services and drinking places</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>Food services and drinking places (722)</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>81</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>osv</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>Other services, except government</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>Other services, except government (81)</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GFGD</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>fdd</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>Federal general government (defense)</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>Federal general government (defense) (GFGD)</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>GFGN</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>fnd</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>Federal general government (nondefense)</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>Federal general government (nondefense) (GFGN)</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>GFE</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>fen</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>Federal government enterprises</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>Federal government enterprises (GFE)</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>GSLG</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>slg</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>State and local general government</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>State and local general government (GSLG)</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>GSLE</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>sle</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>State and local government enterprises</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>State and local government enterprises (GSLE)</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>Other</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>oth</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>Noncomparable imports and rest-of-the-world adjustment</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>Noncomparable imports and rest-of-the-world adjustment (Other)</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>Used</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>use</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>goods</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>Scrap, used and secondhand goods</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>Scrap, used and secondhand goods (Used)</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>T005</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>interm</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>Total Intermediate</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>Total Intermediate (T005)</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>V001</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>compen</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>valueadded</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>Compensation of employees</v>
-          </cell>
-          <cell r="E76" t="str">
-            <v>Compensation of employees (V001)</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>V003</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>surplus</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>valueadded</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>Gross operating surplus</v>
-          </cell>
-          <cell r="E77" t="str">
-            <v>Gross operating surplus (V003)</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>T00OTOP</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>othtax</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>valueadded</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>Other taxes on production</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>Other taxes on production (T00OTOP)</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>VABAS</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>basicvalueadded</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>Value Added (basic prices)</v>
-          </cell>
-          <cell r="E79" t="str">
-            <v>Value Added (basic prices) (VABAS)</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>T018</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>industryoutput</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>Total industry output (basic prices)</v>
-          </cell>
-          <cell r="E80" t="str">
-            <v>Total industry output (basic prices) (T018)</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>T00TOP</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>taxes</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>taxessubsidies</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>Taxes on products and imports</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>Taxes on products and imports (T00TOP)</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>T00SUB</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>subsidies</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>taxessubsidies</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>Less: Subsidies</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>Less: Subsidies (T00SUB)</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>VAPRO</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>valueadded</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>Value Added (producer prices)</v>
-          </cell>
-          <cell r="E83" t="str">
-            <v>Value Added (producer prices) (VAPRO)</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>T001</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>totint</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>Total Intermediate</v>
-          </cell>
-          <cell r="E84" t="str">
-            <v>Total Intermediate (T001)</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>F010</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>pce</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>Personal consumption expenditures</v>
-          </cell>
-          <cell r="E85" t="str">
-            <v>Personal consumption expenditures (F010)</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>F02E</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>equipment</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>Nonresidential private fixed investment in equipment</v>
-          </cell>
-          <cell r="E86" t="str">
-            <v>Nonresidential private fixed investment in equipment (F02E)</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>F02N</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>intelprop</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>Nonresidential private fixed investment in intellectual property products</v>
-          </cell>
-          <cell r="E87" t="str">
-            <v>Nonresidential private fixed investment in intellectual property products (F02N)</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>F02R</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>residential</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>Residential private fixed investment</v>
-          </cell>
-          <cell r="E88" t="str">
-            <v>Residential private fixed investment (F02R)</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>F02S</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>structures</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>Nonresidential private fixed investment in structures</v>
-          </cell>
-          <cell r="E89" t="str">
-            <v>Nonresidential private fixed investment in structures (F02S)</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>F030</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>changinv</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>Change in private inventories</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>Change in private inventories (F030)</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>F040</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>exports</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>Exports of goods and services</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>Exports of goods and services (F040)</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>F06C</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>defense</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D92" t="str">
-            <v>National defense: Consumption expenditures</v>
-          </cell>
-          <cell r="E92" t="str">
-            <v>National defense: Consumption expenditures (F06C)</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>F06E</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>def_equipment</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D93" t="str">
-            <v>Federal national defense: Gross investment in equipment</v>
-          </cell>
-          <cell r="E93" t="str">
-            <v>Federal national defense: Gross investment in equipment (F06E)</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>F06N</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>def_intelprop</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D94" t="str">
-            <v>Federal national defense: Gross investment in intellectual property products</v>
-          </cell>
-          <cell r="E94" t="str">
-            <v>Federal national defense: Gross investment in intellectual property products (F06N)</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>F06S</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>def_structures</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D95" t="str">
-            <v>Federal national defense: Gross investment in structures</v>
-          </cell>
-          <cell r="E95" t="str">
-            <v>Federal national defense: Gross investment in structures (F06S)</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>F07C</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>nondefense</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D96" t="str">
-            <v>Nondefense: Consumption expenditures</v>
-          </cell>
-          <cell r="E96" t="str">
-            <v>Nondefense: Consumption expenditures (F07C)</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>F07E</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>fed_equipment</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D97" t="str">
-            <v>Federal nondefense: Gross investment in equipment</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>Federal nondefense: Gross investment in equipment (F07E)</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>F07N</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>fed_intelprop</v>
-          </cell>
-          <cell r="C98" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D98" t="str">
-            <v>Federal nondefense: Gross investment in intellectual property products</v>
-          </cell>
-          <cell r="E98" t="str">
-            <v>Federal nondefense: Gross investment in intellectual property products (F07N)</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>F07S</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>fed_structures</v>
-          </cell>
-          <cell r="C99" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D99" t="str">
-            <v>Federal nondefense: Gross investment in structures</v>
-          </cell>
-          <cell r="E99" t="str">
-            <v>Federal nondefense: Gross investment in structures (F07S)</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>F10C</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>state_consume</v>
-          </cell>
-          <cell r="C100" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D100" t="str">
-            <v>State and local government consumption expenditures</v>
-          </cell>
-          <cell r="E100" t="str">
-            <v>State and local government consumption expenditures (F10C)</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>F10E</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>state_equipment</v>
-          </cell>
-          <cell r="C101" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D101" t="str">
-            <v>State and local: Gross investment in equipment</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>State and local: Gross investment in equipment (F10E)</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>F10N</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>state_intelprop</v>
-          </cell>
-          <cell r="C102" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D102" t="str">
-            <v>State and local: Gross investment in intellectual property products</v>
-          </cell>
-          <cell r="E102" t="str">
-            <v>State and local: Gross investment in intellectual property products (F10N)</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>F10S</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>state_invest</v>
-          </cell>
-          <cell r="C103" t="str">
-            <v>finaldemand</v>
-          </cell>
-          <cell r="D103" t="str">
-            <v>State and local: Gross investment in structures</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>State and local: Gross investment in structures (F10S)</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>T019</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>totaluse</v>
-          </cell>
-          <cell r="D104" t="str">
-            <v>Total use of products</v>
-          </cell>
-          <cell r="E104" t="str">
-            <v>Total use of products (T019)</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>T017</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>TotalBasic</v>
-          </cell>
-          <cell r="D105" t="str">
-            <v>Total industry supply</v>
-          </cell>
-          <cell r="E105" t="str">
-            <v>Total industry supply (T017)</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>T007</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>Output</v>
-          </cell>
-          <cell r="D106" t="str">
-            <v>Total Commodity Output</v>
-          </cell>
-          <cell r="E106" t="str">
-            <v>Total Commodity Output (T007)</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>MCIF</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>imports</v>
-          </cell>
-          <cell r="D107" t="str">
-            <v>Imports</v>
-          </cell>
-          <cell r="E107" t="str">
-            <v>Imports (MCIF)</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>MADJ</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>ciffob</v>
-          </cell>
-          <cell r="D108" t="str">
-            <v>CIF/FOB Adjustments on Imports</v>
-          </cell>
-          <cell r="E108" t="str">
-            <v>CIF/FOB Adjustments on Imports (MADJ)</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>T013</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>BasicSupply</v>
-          </cell>
-          <cell r="D109" t="str">
-            <v>Total product supply (basic prices)</v>
-          </cell>
-          <cell r="E109" t="str">
-            <v>Total product supply (basic prices) (T013)</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>Trade</v>
-          </cell>
-          <cell r="B110" t="str">
-            <v>Margins</v>
-          </cell>
-          <cell r="D110" t="str">
-            <v>Trade margins</v>
-          </cell>
-          <cell r="E110" t="str">
-            <v>Trade margins (Trade)</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>Trans</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>TrnCost</v>
-          </cell>
-          <cell r="D111" t="str">
-            <v>Transport margins</v>
-          </cell>
-          <cell r="E111" t="str">
-            <v>Transport margins (Trans)</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>T014</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>TrdTrn</v>
-          </cell>
-          <cell r="D112" t="str">
-            <v>Total trade and transportation margins</v>
-          </cell>
-          <cell r="E112" t="str">
-            <v>Total trade and transportation margins (T014)</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>MDTY</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>Duties</v>
-          </cell>
-          <cell r="D113" t="str">
-            <v>Import duties</v>
-          </cell>
-          <cell r="E113" t="str">
-            <v>Import duties (MDTY)</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>TOP</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>Tax</v>
-          </cell>
-          <cell r="D114" t="str">
-            <v>Tax on products</v>
-          </cell>
-          <cell r="E114" t="str">
-            <v>Tax on products (TOP)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>SUB</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>Subsidies</v>
-          </cell>
-          <cell r="D115" t="str">
-            <v>Subsidies</v>
-          </cell>
-          <cell r="E115" t="str">
-            <v>Subsidies (SUB)</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>T015</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>TaxLesSubsidies</v>
-          </cell>
-          <cell r="D116" t="str">
-            <v>Total tax less subsidies on products</v>
-          </cell>
-          <cell r="E116" t="str">
-            <v>Total tax less subsidies on products (T015)</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>T016</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>Supply</v>
-          </cell>
-          <cell r="D117" t="str">
-            <v>Total product supply (purchaser prices)</v>
-          </cell>
-          <cell r="E117" t="str">
-            <v>Total product supply (purchaser prices) (T016)</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5965,26 +4335,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -5996,13 +4366,13 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>474</v>
       </c>
       <c r="F4" s="2"/>
@@ -6021,7 +4391,7 @@
       <c r="D5" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="5" t="s">
         <v>479</v>
       </c>
@@ -17755,48 +16125,48 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="41" t="s">
+      <c r="A1025" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="41"/>
-      <c r="C1025" s="41"/>
-      <c r="D1025" s="41"/>
-      <c r="E1025" s="41"/>
-      <c r="F1025" s="41"/>
-      <c r="G1025" s="41"/>
+      <c r="B1025" s="42"/>
+      <c r="C1025" s="42"/>
+      <c r="D1025" s="42"/>
+      <c r="E1025" s="42"/>
+      <c r="F1025" s="42"/>
+      <c r="G1025" s="42"/>
     </row>
     <row r="1026" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="41" t="s">
+      <c r="A1026" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="41"/>
-      <c r="C1026" s="41"/>
-      <c r="D1026" s="41"/>
-      <c r="E1026" s="41"/>
-      <c r="F1026" s="41"/>
-      <c r="G1026" s="41"/>
+      <c r="B1026" s="42"/>
+      <c r="C1026" s="42"/>
+      <c r="D1026" s="42"/>
+      <c r="E1026" s="42"/>
+      <c r="F1026" s="42"/>
+      <c r="G1026" s="42"/>
     </row>
     <row r="1027" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="41" t="s">
+      <c r="A1027" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="41"/>
-      <c r="C1027" s="41"/>
-      <c r="D1027" s="41"/>
-      <c r="E1027" s="41"/>
-      <c r="F1027" s="41"/>
-      <c r="G1027" s="41"/>
+      <c r="B1027" s="42"/>
+      <c r="C1027" s="42"/>
+      <c r="D1027" s="42"/>
+      <c r="E1027" s="42"/>
+      <c r="F1027" s="42"/>
+      <c r="G1027" s="42"/>
     </row>
     <row r="1028" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="41" t="s">
+      <c r="A1028" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="41"/>
-      <c r="C1028" s="41"/>
-      <c r="D1028" s="41"/>
-      <c r="E1028" s="41"/>
-      <c r="F1028" s="41"/>
-      <c r="G1028" s="41"/>
+      <c r="B1028" s="42"/>
+      <c r="C1028" s="42"/>
+      <c r="D1028" s="42"/>
+      <c r="E1028" s="42"/>
+      <c r="F1028" s="42"/>
+      <c r="G1028" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17838,30 +16208,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -17875,15 +16245,15 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="45" t="s">
         <v>474</v>
       </c>
       <c r="H4" s="2"/>
@@ -17906,7 +16276,7 @@
         <v>726</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="5" t="s">
         <v>479</v>
       </c>
@@ -34510,56 +32880,56 @@
       <c r="C1024" s="14"/>
     </row>
     <row r="1025" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1025" s="41" t="s">
+      <c r="A1025" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="B1025" s="41"/>
-      <c r="C1025" s="41"/>
-      <c r="D1025" s="41"/>
-      <c r="E1025" s="41"/>
-      <c r="F1025" s="41"/>
-      <c r="G1025" s="41"/>
-      <c r="H1025" s="41"/>
-      <c r="I1025" s="41"/>
+      <c r="B1025" s="42"/>
+      <c r="C1025" s="42"/>
+      <c r="D1025" s="42"/>
+      <c r="E1025" s="42"/>
+      <c r="F1025" s="42"/>
+      <c r="G1025" s="42"/>
+      <c r="H1025" s="42"/>
+      <c r="I1025" s="42"/>
     </row>
     <row r="1026" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1026" s="41" t="s">
+      <c r="A1026" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="B1026" s="41"/>
-      <c r="C1026" s="41"/>
-      <c r="D1026" s="41"/>
-      <c r="E1026" s="41"/>
-      <c r="F1026" s="41"/>
-      <c r="G1026" s="41"/>
-      <c r="H1026" s="41"/>
-      <c r="I1026" s="41"/>
+      <c r="B1026" s="42"/>
+      <c r="C1026" s="42"/>
+      <c r="D1026" s="42"/>
+      <c r="E1026" s="42"/>
+      <c r="F1026" s="42"/>
+      <c r="G1026" s="42"/>
+      <c r="H1026" s="42"/>
+      <c r="I1026" s="42"/>
     </row>
     <row r="1027" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1027" s="41" t="s">
+      <c r="A1027" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="B1027" s="41"/>
-      <c r="C1027" s="41"/>
-      <c r="D1027" s="41"/>
-      <c r="E1027" s="41"/>
-      <c r="F1027" s="41"/>
-      <c r="G1027" s="41"/>
-      <c r="H1027" s="41"/>
-      <c r="I1027" s="41"/>
+      <c r="B1027" s="42"/>
+      <c r="C1027" s="42"/>
+      <c r="D1027" s="42"/>
+      <c r="E1027" s="42"/>
+      <c r="F1027" s="42"/>
+      <c r="G1027" s="42"/>
+      <c r="H1027" s="42"/>
+      <c r="I1027" s="42"/>
     </row>
     <row r="1028" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1028" s="41" t="s">
+      <c r="A1028" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="B1028" s="41"/>
-      <c r="C1028" s="41"/>
-      <c r="D1028" s="41"/>
-      <c r="E1028" s="41"/>
-      <c r="F1028" s="41"/>
-      <c r="G1028" s="41"/>
-      <c r="H1028" s="41"/>
-      <c r="I1028" s="41"/>
+      <c r="B1028" s="42"/>
+      <c r="C1028" s="42"/>
+      <c r="D1028" s="42"/>
+      <c r="E1028" s="42"/>
+      <c r="F1028" s="42"/>
+      <c r="G1028" s="42"/>
+      <c r="H1028" s="42"/>
+      <c r="I1028" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -50374,8 +48744,8 @@
   <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E400" sqref="E400"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E396" sqref="E396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -50421,9 +48791,8 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(B2,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E2" t="s">
+        <v>970</v>
       </c>
       <c r="F2" t="s">
         <v>727</v>
@@ -50445,9 +48814,8 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(B3,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E3" t="s">
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>727</v>
@@ -50469,9 +48837,8 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(B4,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E4" t="s">
+        <v>970</v>
       </c>
       <c r="F4" t="s">
         <v>727</v>
@@ -50493,9 +48860,8 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(B5,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E5" t="s">
+        <v>970</v>
       </c>
       <c r="F5" t="s">
         <v>727</v>
@@ -50517,9 +48883,8 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(B6,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E6" t="s">
+        <v>970</v>
       </c>
       <c r="F6" t="s">
         <v>727</v>
@@ -50541,9 +48906,8 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(B7,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E7" t="s">
+        <v>970</v>
       </c>
       <c r="F7" t="s">
         <v>727</v>
@@ -50565,9 +48929,8 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(B8,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E8" t="s">
+        <v>970</v>
       </c>
       <c r="F8" t="s">
         <v>727</v>
@@ -50589,9 +48952,8 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(B9,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E9" t="s">
+        <v>970</v>
       </c>
       <c r="F9" t="s">
         <v>727</v>
@@ -50613,9 +48975,8 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(B10,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E10" t="s">
+        <v>970</v>
       </c>
       <c r="F10" t="s">
         <v>727</v>
@@ -50637,9 +48998,8 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(B11,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Farms (111CA)</v>
+      <c r="E11" t="s">
+        <v>970</v>
       </c>
       <c r="F11" t="s">
         <v>727</v>
@@ -50652,7 +49012,7 @@
       <c r="A12" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="41" t="s">
         <v>491</v>
       </c>
       <c r="C12" s="31">
@@ -50661,9 +49021,8 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(B12,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Forestry, fishing, and related activities (113FF)</v>
+      <c r="E12" t="s">
+        <v>971</v>
       </c>
       <c r="F12" t="s">
         <v>728</v>
@@ -50676,7 +49035,7 @@
       <c r="A13" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>491</v>
       </c>
       <c r="C13" s="31">
@@ -50685,9 +49044,8 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(B13,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Forestry, fishing, and related activities (113FF)</v>
+      <c r="E13" t="s">
+        <v>971</v>
       </c>
       <c r="F13" t="s">
         <v>728</v>
@@ -50700,7 +49058,7 @@
       <c r="A14" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>491</v>
       </c>
       <c r="C14" s="31">
@@ -50709,9 +49067,8 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(B14,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Forestry, fishing, and related activities (113FF)</v>
+      <c r="E14" t="s">
+        <v>971</v>
       </c>
       <c r="F14" t="s">
         <v>728</v>
@@ -50733,9 +49090,8 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(B15,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Oil and gas extraction (211)</v>
+      <c r="E15" t="s">
+        <v>972</v>
       </c>
       <c r="F15" t="s">
         <v>729</v>
@@ -50757,9 +49113,8 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(B16,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Mining, except oil and gas (212)</v>
+      <c r="E16" t="s">
+        <v>973</v>
       </c>
       <c r="F16" t="s">
         <v>730</v>
@@ -50781,9 +49136,8 @@
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(B17,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Mining, except oil and gas (212)</v>
+      <c r="E17" t="s">
+        <v>973</v>
       </c>
       <c r="F17" t="s">
         <v>730</v>
@@ -50805,9 +49159,8 @@
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(B18,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Mining, except oil and gas (212)</v>
+      <c r="E18" t="s">
+        <v>973</v>
       </c>
       <c r="F18" t="s">
         <v>730</v>
@@ -50829,9 +49182,8 @@
       <c r="D19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(B19,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Mining, except oil and gas (212)</v>
+      <c r="E19" t="s">
+        <v>973</v>
       </c>
       <c r="F19" t="s">
         <v>730</v>
@@ -50853,9 +49205,8 @@
       <c r="D20" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(B20,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Mining, except oil and gas (212)</v>
+      <c r="E20" t="s">
+        <v>973</v>
       </c>
       <c r="F20" t="s">
         <v>730</v>
@@ -50877,9 +49228,8 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(B21,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Support activities for mining (213)</v>
+      <c r="E21" t="s">
+        <v>974</v>
       </c>
       <c r="F21" t="s">
         <v>731</v>
@@ -50901,9 +49251,8 @@
       <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(B22,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Support activities for mining (213)</v>
+      <c r="E22" t="s">
+        <v>974</v>
       </c>
       <c r="F22" t="s">
         <v>731</v>
@@ -50925,9 +49274,8 @@
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(B23,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Utilities (22)</v>
+      <c r="E23" t="s">
+        <v>975</v>
       </c>
       <c r="F23" t="s">
         <v>732</v>
@@ -50949,9 +49297,8 @@
       <c r="D24" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(B24,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Utilities (22)</v>
+      <c r="E24" t="s">
+        <v>975</v>
       </c>
       <c r="F24" t="s">
         <v>732</v>
@@ -50973,9 +49320,8 @@
       <c r="D25" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(B25,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Utilities (22)</v>
+      <c r="E25" t="s">
+        <v>975</v>
       </c>
       <c r="F25" t="s">
         <v>732</v>
@@ -50997,9 +49343,8 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(B26,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E26" t="s">
+        <v>976</v>
       </c>
       <c r="F26" t="s">
         <v>733</v>
@@ -51021,9 +49366,8 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="E27" t="str">
-        <f>VLOOKUP(B27,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E27" t="s">
+        <v>976</v>
       </c>
       <c r="F27" t="s">
         <v>733</v>
@@ -51045,9 +49389,8 @@
       <c r="D28" t="s">
         <v>447</v>
       </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(B28,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E28" t="s">
+        <v>976</v>
       </c>
       <c r="F28" t="s">
         <v>733</v>
@@ -51069,9 +49412,8 @@
       <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="E29" t="str">
-        <f>VLOOKUP(B29,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E29" t="s">
+        <v>976</v>
       </c>
       <c r="F29" t="s">
         <v>733</v>
@@ -51093,9 +49435,8 @@
       <c r="D30" t="s">
         <v>422</v>
       </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(B30,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E30" t="s">
+        <v>976</v>
       </c>
       <c r="F30" t="s">
         <v>733</v>
@@ -51117,9 +49458,8 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="str">
-        <f>VLOOKUP(B31,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E31" t="s">
+        <v>976</v>
       </c>
       <c r="F31" t="s">
         <v>733</v>
@@ -51141,9 +49481,8 @@
       <c r="D32" t="s">
         <v>57</v>
       </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(B32,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E32" t="s">
+        <v>976</v>
       </c>
       <c r="F32" t="s">
         <v>733</v>
@@ -51165,9 +49504,8 @@
       <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(B33,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E33" t="s">
+        <v>976</v>
       </c>
       <c r="F33" t="s">
         <v>733</v>
@@ -51189,9 +49527,8 @@
       <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(B34,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E34" t="s">
+        <v>976</v>
       </c>
       <c r="F34" t="s">
         <v>733</v>
@@ -51213,9 +49550,8 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(B35,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E35" t="s">
+        <v>976</v>
       </c>
       <c r="F35" t="s">
         <v>733</v>
@@ -51237,9 +49573,8 @@
       <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(B36,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E36" t="s">
+        <v>976</v>
       </c>
       <c r="F36" t="s">
         <v>733</v>
@@ -51261,9 +49596,8 @@
       <c r="D37" t="s">
         <v>51</v>
       </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(B37,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Construction (23)</v>
+      <c r="E37" t="s">
+        <v>976</v>
       </c>
       <c r="F37" t="s">
         <v>733</v>
@@ -51285,9 +49619,8 @@
       <c r="D38" t="s">
         <v>62</v>
       </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(B38,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wood products (321)</v>
+      <c r="E38" t="s">
+        <v>977</v>
       </c>
       <c r="F38" t="s">
         <v>734</v>
@@ -51309,9 +49642,8 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(B39,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wood products (321)</v>
+      <c r="E39" t="s">
+        <v>977</v>
       </c>
       <c r="F39" t="s">
         <v>734</v>
@@ -51333,9 +49665,8 @@
       <c r="D40" t="s">
         <v>64</v>
       </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(B40,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wood products (321)</v>
+      <c r="E40" t="s">
+        <v>977</v>
       </c>
       <c r="F40" t="s">
         <v>734</v>
@@ -51357,9 +49688,8 @@
       <c r="D41" t="s">
         <v>66</v>
       </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(B41,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wood products (321)</v>
+      <c r="E41" t="s">
+        <v>977</v>
       </c>
       <c r="F41" t="s">
         <v>734</v>
@@ -51381,9 +49711,8 @@
       <c r="D42" t="s">
         <v>67</v>
       </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(B42,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E42" t="s">
+        <v>978</v>
       </c>
       <c r="F42" t="s">
         <v>735</v>
@@ -51405,9 +49734,8 @@
       <c r="D43" t="s">
         <v>68</v>
       </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(B43,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E43" t="s">
+        <v>978</v>
       </c>
       <c r="F43" t="s">
         <v>735</v>
@@ -51429,9 +49757,8 @@
       <c r="D44" t="s">
         <v>69</v>
       </c>
-      <c r="E44" t="str">
-        <f>VLOOKUP(B44,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E44" t="s">
+        <v>978</v>
       </c>
       <c r="F44" t="s">
         <v>735</v>
@@ -51453,9 +49780,8 @@
       <c r="D45" t="s">
         <v>70</v>
       </c>
-      <c r="E45" t="str">
-        <f>VLOOKUP(B45,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E45" t="s">
+        <v>978</v>
       </c>
       <c r="F45" t="s">
         <v>735</v>
@@ -51477,9 +49803,8 @@
       <c r="D46" t="s">
         <v>71</v>
       </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(B46,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E46" t="s">
+        <v>978</v>
       </c>
       <c r="F46" t="s">
         <v>735</v>
@@ -51501,9 +49826,8 @@
       <c r="D47" t="s">
         <v>72</v>
       </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(B47,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E47" t="s">
+        <v>978</v>
       </c>
       <c r="F47" t="s">
         <v>735</v>
@@ -51525,9 +49849,8 @@
       <c r="D48" t="s">
         <v>73</v>
       </c>
-      <c r="E48" t="str">
-        <f>VLOOKUP(B48,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E48" t="s">
+        <v>978</v>
       </c>
       <c r="F48" t="s">
         <v>735</v>
@@ -51549,9 +49872,8 @@
       <c r="D49" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="str">
-        <f>VLOOKUP(B49,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E49" t="s">
+        <v>978</v>
       </c>
       <c r="F49" t="s">
         <v>735</v>
@@ -51573,9 +49895,8 @@
       <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="E50" t="str">
-        <f>VLOOKUP(B50,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E50" t="s">
+        <v>978</v>
       </c>
       <c r="F50" t="s">
         <v>735</v>
@@ -51597,9 +49918,8 @@
       <c r="D51" t="s">
         <v>76</v>
       </c>
-      <c r="E51" t="str">
-        <f>VLOOKUP(B51,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E51" t="s">
+        <v>978</v>
       </c>
       <c r="F51" t="s">
         <v>735</v>
@@ -51621,9 +49941,8 @@
       <c r="D52" t="s">
         <v>77</v>
       </c>
-      <c r="E52" t="str">
-        <f>VLOOKUP(B52,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E52" t="s">
+        <v>978</v>
       </c>
       <c r="F52" t="s">
         <v>735</v>
@@ -51645,9 +49964,8 @@
       <c r="D53" t="s">
         <v>78</v>
       </c>
-      <c r="E53" t="str">
-        <f>VLOOKUP(B53,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonmetallic mineral products (327)</v>
+      <c r="E53" t="s">
+        <v>978</v>
       </c>
       <c r="F53" t="s">
         <v>735</v>
@@ -51669,9 +49987,8 @@
       <c r="D54" t="s">
         <v>79</v>
       </c>
-      <c r="E54" t="str">
-        <f>VLOOKUP(B54,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E54" t="s">
+        <v>979</v>
       </c>
       <c r="F54" t="s">
         <v>736</v>
@@ -51693,9 +50010,8 @@
       <c r="D55" t="s">
         <v>80</v>
       </c>
-      <c r="E55" t="str">
-        <f>VLOOKUP(B55,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E55" t="s">
+        <v>979</v>
       </c>
       <c r="F55" t="s">
         <v>736</v>
@@ -51717,9 +50033,8 @@
       <c r="D56" t="s">
         <v>81</v>
       </c>
-      <c r="E56" t="str">
-        <f>VLOOKUP(B56,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E56" t="s">
+        <v>979</v>
       </c>
       <c r="F56" t="s">
         <v>736</v>
@@ -51741,9 +50056,8 @@
       <c r="D57" t="s">
         <v>82</v>
       </c>
-      <c r="E57" t="str">
-        <f>VLOOKUP(B57,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E57" t="s">
+        <v>979</v>
       </c>
       <c r="F57" t="s">
         <v>736</v>
@@ -51765,9 +50079,8 @@
       <c r="D58" t="s">
         <v>84</v>
       </c>
-      <c r="E58" t="str">
-        <f>VLOOKUP(B58,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E58" t="s">
+        <v>979</v>
       </c>
       <c r="F58" t="s">
         <v>736</v>
@@ -51789,9 +50102,8 @@
       <c r="D59" t="s">
         <v>462</v>
       </c>
-      <c r="E59" t="str">
-        <f>VLOOKUP(B59,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E59" t="s">
+        <v>979</v>
       </c>
       <c r="F59" t="s">
         <v>736</v>
@@ -51813,9 +50125,8 @@
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="str">
-        <f>VLOOKUP(B60,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E60" t="s">
+        <v>979</v>
       </c>
       <c r="F60" t="s">
         <v>736</v>
@@ -51837,9 +50148,8 @@
       <c r="D61" t="s">
         <v>86</v>
       </c>
-      <c r="E61" t="str">
-        <f>VLOOKUP(B61,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E61" t="s">
+        <v>979</v>
       </c>
       <c r="F61" t="s">
         <v>736</v>
@@ -51861,9 +50171,8 @@
       <c r="D62" t="s">
         <v>87</v>
       </c>
-      <c r="E62" t="str">
-        <f>VLOOKUP(B62,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E62" t="s">
+        <v>979</v>
       </c>
       <c r="F62" t="s">
         <v>736</v>
@@ -51885,9 +50194,8 @@
       <c r="D63" t="s">
         <v>88</v>
       </c>
-      <c r="E63" t="str">
-        <f>VLOOKUP(B63,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Primary metals (331)</v>
+      <c r="E63" t="s">
+        <v>979</v>
       </c>
       <c r="F63" t="s">
         <v>736</v>
@@ -51909,9 +50217,8 @@
       <c r="D64" t="s">
         <v>90</v>
       </c>
-      <c r="E64" t="str">
-        <f>VLOOKUP(B64,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E64" t="s">
+        <v>980</v>
       </c>
       <c r="F64" t="s">
         <v>737</v>
@@ -51933,9 +50240,8 @@
       <c r="D65" t="s">
         <v>91</v>
       </c>
-      <c r="E65" t="str">
-        <f>VLOOKUP(B65,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E65" t="s">
+        <v>980</v>
       </c>
       <c r="F65" t="s">
         <v>737</v>
@@ -51957,9 +50263,8 @@
       <c r="D66" t="s">
         <v>448</v>
       </c>
-      <c r="E66" t="str">
-        <f>VLOOKUP(B66,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E66" t="s">
+        <v>980</v>
       </c>
       <c r="F66" t="s">
         <v>737</v>
@@ -51981,9 +50286,8 @@
       <c r="D67" t="s">
         <v>92</v>
       </c>
-      <c r="E67" t="str">
-        <f>VLOOKUP(B67,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E67" t="s">
+        <v>980</v>
       </c>
       <c r="F67" t="s">
         <v>737</v>
@@ -52005,9 +50309,8 @@
       <c r="D68" t="s">
         <v>93</v>
       </c>
-      <c r="E68" t="str">
-        <f>VLOOKUP(B68,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E68" t="s">
+        <v>980</v>
       </c>
       <c r="F68" t="s">
         <v>737</v>
@@ -52029,9 +50332,8 @@
       <c r="D69" t="s">
         <v>94</v>
       </c>
-      <c r="E69" t="str">
-        <f>VLOOKUP(B69,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E69" t="s">
+        <v>980</v>
       </c>
       <c r="F69" t="s">
         <v>737</v>
@@ -52053,9 +50355,8 @@
       <c r="D70" t="s">
         <v>95</v>
       </c>
-      <c r="E70" t="str">
-        <f>VLOOKUP(B70,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E70" t="s">
+        <v>980</v>
       </c>
       <c r="F70" t="s">
         <v>737</v>
@@ -52077,9 +50378,8 @@
       <c r="D71" t="s">
         <v>96</v>
       </c>
-      <c r="E71" t="str">
-        <f>VLOOKUP(B71,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E71" t="s">
+        <v>980</v>
       </c>
       <c r="F71" t="s">
         <v>737</v>
@@ -52101,9 +50401,8 @@
       <c r="D72" t="s">
         <v>97</v>
       </c>
-      <c r="E72" t="str">
-        <f>VLOOKUP(B72,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E72" t="s">
+        <v>980</v>
       </c>
       <c r="F72" t="s">
         <v>737</v>
@@ -52125,9 +50424,8 @@
       <c r="D73" t="s">
         <v>98</v>
       </c>
-      <c r="E73" t="str">
-        <f>VLOOKUP(B73,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E73" t="s">
+        <v>980</v>
       </c>
       <c r="F73" t="s">
         <v>737</v>
@@ -52149,9 +50447,8 @@
       <c r="D74" t="s">
         <v>99</v>
       </c>
-      <c r="E74" t="str">
-        <f>VLOOKUP(B74,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E74" t="s">
+        <v>980</v>
       </c>
       <c r="F74" t="s">
         <v>737</v>
@@ -52173,9 +50470,8 @@
       <c r="D75" t="s">
         <v>100</v>
       </c>
-      <c r="E75" t="str">
-        <f>VLOOKUP(B75,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E75" t="s">
+        <v>980</v>
       </c>
       <c r="F75" t="s">
         <v>737</v>
@@ -52197,9 +50493,8 @@
       <c r="D76" t="s">
         <v>101</v>
       </c>
-      <c r="E76" t="str">
-        <f>VLOOKUP(B76,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E76" t="s">
+        <v>980</v>
       </c>
       <c r="F76" t="s">
         <v>737</v>
@@ -52221,9 +50516,8 @@
       <c r="D77" t="s">
         <v>102</v>
       </c>
-      <c r="E77" t="str">
-        <f>VLOOKUP(B77,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E77" t="s">
+        <v>980</v>
       </c>
       <c r="F77" t="s">
         <v>737</v>
@@ -52245,9 +50539,8 @@
       <c r="D78" t="s">
         <v>104</v>
       </c>
-      <c r="E78" t="str">
-        <f>VLOOKUP(B78,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E78" t="s">
+        <v>980</v>
       </c>
       <c r="F78" t="s">
         <v>737</v>
@@ -52269,9 +50562,8 @@
       <c r="D79" t="s">
         <v>105</v>
       </c>
-      <c r="E79" t="str">
-        <f>VLOOKUP(B79,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E79" t="s">
+        <v>980</v>
       </c>
       <c r="F79" t="s">
         <v>737</v>
@@ -52293,9 +50585,8 @@
       <c r="D80" t="s">
         <v>106</v>
       </c>
-      <c r="E80" t="str">
-        <f>VLOOKUP(B80,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E80" t="s">
+        <v>980</v>
       </c>
       <c r="F80" t="s">
         <v>737</v>
@@ -52317,9 +50608,8 @@
       <c r="D81" t="s">
         <v>108</v>
       </c>
-      <c r="E81" t="str">
-        <f>VLOOKUP(B81,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E81" t="s">
+        <v>980</v>
       </c>
       <c r="F81" t="s">
         <v>737</v>
@@ -52341,9 +50631,8 @@
       <c r="D82" t="s">
         <v>109</v>
       </c>
-      <c r="E82" t="str">
-        <f>VLOOKUP(B82,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E82" t="s">
+        <v>980</v>
       </c>
       <c r="F82" t="s">
         <v>737</v>
@@ -52365,9 +50654,8 @@
       <c r="D83" t="s">
         <v>110</v>
       </c>
-      <c r="E83" t="str">
-        <f>VLOOKUP(B83,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Fabricated metal products (332)</v>
+      <c r="E83" t="s">
+        <v>980</v>
       </c>
       <c r="F83" t="s">
         <v>737</v>
@@ -52389,9 +50677,8 @@
       <c r="D84" t="s">
         <v>111</v>
       </c>
-      <c r="E84" t="str">
-        <f>VLOOKUP(B84,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E84" t="s">
+        <v>981</v>
       </c>
       <c r="F84" t="s">
         <v>738</v>
@@ -52413,9 +50700,8 @@
       <c r="D85" t="s">
         <v>112</v>
       </c>
-      <c r="E85" t="str">
-        <f>VLOOKUP(B85,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E85" t="s">
+        <v>981</v>
       </c>
       <c r="F85" t="s">
         <v>738</v>
@@ -52437,9 +50723,8 @@
       <c r="D86" t="s">
         <v>113</v>
       </c>
-      <c r="E86" t="str">
-        <f>VLOOKUP(B86,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E86" t="s">
+        <v>981</v>
       </c>
       <c r="F86" t="s">
         <v>738</v>
@@ -52461,9 +50746,8 @@
       <c r="D87" t="s">
         <v>114</v>
       </c>
-      <c r="E87" t="str">
-        <f>VLOOKUP(B87,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E87" t="s">
+        <v>981</v>
       </c>
       <c r="F87" t="s">
         <v>738</v>
@@ -52485,9 +50769,8 @@
       <c r="D88" t="s">
         <v>117</v>
       </c>
-      <c r="E88" t="str">
-        <f>VLOOKUP(B88,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E88" t="s">
+        <v>981</v>
       </c>
       <c r="F88" t="s">
         <v>738</v>
@@ -52509,9 +50792,8 @@
       <c r="D89" t="s">
         <v>116</v>
       </c>
-      <c r="E89" t="str">
-        <f>VLOOKUP(B89,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E89" t="s">
+        <v>981</v>
       </c>
       <c r="F89" t="s">
         <v>738</v>
@@ -52533,9 +50815,8 @@
       <c r="D90" t="s">
         <v>118</v>
       </c>
-      <c r="E90" t="str">
-        <f>VLOOKUP(B90,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E90" t="s">
+        <v>981</v>
       </c>
       <c r="F90" t="s">
         <v>738</v>
@@ -52557,9 +50838,8 @@
       <c r="D91" t="s">
         <v>119</v>
       </c>
-      <c r="E91" t="str">
-        <f>VLOOKUP(B91,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E91" t="s">
+        <v>981</v>
       </c>
       <c r="F91" t="s">
         <v>738</v>
@@ -52581,9 +50861,8 @@
       <c r="D92" t="s">
         <v>449</v>
       </c>
-      <c r="E92" t="str">
-        <f>VLOOKUP(B92,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E92" t="s">
+        <v>981</v>
       </c>
       <c r="F92" t="s">
         <v>738</v>
@@ -52605,9 +50884,8 @@
       <c r="D93" t="s">
         <v>450</v>
       </c>
-      <c r="E93" t="str">
-        <f>VLOOKUP(B93,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E93" t="s">
+        <v>981</v>
       </c>
       <c r="F93" t="s">
         <v>738</v>
@@ -52629,9 +50907,8 @@
       <c r="D94" t="s">
         <v>120</v>
       </c>
-      <c r="E94" t="str">
-        <f>VLOOKUP(B94,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E94" t="s">
+        <v>981</v>
       </c>
       <c r="F94" t="s">
         <v>738</v>
@@ -52653,9 +50930,8 @@
       <c r="D95" t="s">
         <v>121</v>
       </c>
-      <c r="E95" t="str">
-        <f>VLOOKUP(B95,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E95" t="s">
+        <v>981</v>
       </c>
       <c r="F95" t="s">
         <v>738</v>
@@ -52677,9 +50953,8 @@
       <c r="D96" t="s">
         <v>122</v>
       </c>
-      <c r="E96" t="str">
-        <f>VLOOKUP(B96,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E96" t="s">
+        <v>981</v>
       </c>
       <c r="F96" t="s">
         <v>738</v>
@@ -52701,9 +50976,8 @@
       <c r="D97" t="s">
         <v>451</v>
       </c>
-      <c r="E97" t="str">
-        <f>VLOOKUP(B97,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E97" t="s">
+        <v>981</v>
       </c>
       <c r="F97" t="s">
         <v>738</v>
@@ -52725,9 +50999,8 @@
       <c r="D98" t="s">
         <v>123</v>
       </c>
-      <c r="E98" t="str">
-        <f>VLOOKUP(B98,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E98" t="s">
+        <v>981</v>
       </c>
       <c r="F98" t="s">
         <v>738</v>
@@ -52749,9 +51022,8 @@
       <c r="D99" t="s">
         <v>125</v>
       </c>
-      <c r="E99" t="str">
-        <f>VLOOKUP(B99,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E99" t="s">
+        <v>981</v>
       </c>
       <c r="F99" t="s">
         <v>738</v>
@@ -52773,9 +51045,8 @@
       <c r="D100" t="s">
         <v>126</v>
       </c>
-      <c r="E100" t="str">
-        <f>VLOOKUP(B100,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E100" t="s">
+        <v>981</v>
       </c>
       <c r="F100" t="s">
         <v>738</v>
@@ -52797,9 +51068,8 @@
       <c r="D101" t="s">
         <v>127</v>
       </c>
-      <c r="E101" t="str">
-        <f>VLOOKUP(B101,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E101" t="s">
+        <v>981</v>
       </c>
       <c r="F101" t="s">
         <v>738</v>
@@ -52821,9 +51091,8 @@
       <c r="D102" t="s">
         <v>128</v>
       </c>
-      <c r="E102" t="str">
-        <f>VLOOKUP(B102,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E102" t="s">
+        <v>981</v>
       </c>
       <c r="F102" t="s">
         <v>738</v>
@@ -52845,9 +51114,8 @@
       <c r="D103" t="s">
         <v>129</v>
       </c>
-      <c r="E103" t="str">
-        <f>VLOOKUP(B103,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E103" t="s">
+        <v>981</v>
       </c>
       <c r="F103" t="s">
         <v>738</v>
@@ -52869,9 +51137,8 @@
       <c r="D104" t="s">
         <v>463</v>
       </c>
-      <c r="E104" t="str">
-        <f>VLOOKUP(B104,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E104" t="s">
+        <v>981</v>
       </c>
       <c r="F104" t="s">
         <v>738</v>
@@ -52893,9 +51160,8 @@
       <c r="D105" t="s">
         <v>130</v>
       </c>
-      <c r="E105" t="str">
-        <f>VLOOKUP(B105,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E105" t="s">
+        <v>981</v>
       </c>
       <c r="F105" t="s">
         <v>738</v>
@@ -52917,9 +51183,8 @@
       <c r="D106" t="s">
         <v>131</v>
       </c>
-      <c r="E106" t="str">
-        <f>VLOOKUP(B106,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E106" t="s">
+        <v>981</v>
       </c>
       <c r="F106" t="s">
         <v>738</v>
@@ -52941,9 +51206,8 @@
       <c r="D107" t="s">
         <v>132</v>
       </c>
-      <c r="E107" t="str">
-        <f>VLOOKUP(B107,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E107" t="s">
+        <v>981</v>
       </c>
       <c r="F107" t="s">
         <v>738</v>
@@ -52965,9 +51229,8 @@
       <c r="D108" t="s">
         <v>134</v>
       </c>
-      <c r="E108" t="str">
-        <f>VLOOKUP(B108,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E108" t="s">
+        <v>981</v>
       </c>
       <c r="F108" t="s">
         <v>738</v>
@@ -52989,9 +51252,8 @@
       <c r="D109" t="s">
         <v>135</v>
       </c>
-      <c r="E109" t="str">
-        <f>VLOOKUP(B109,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E109" t="s">
+        <v>981</v>
       </c>
       <c r="F109" t="s">
         <v>738</v>
@@ -53013,9 +51275,8 @@
       <c r="D110" t="s">
         <v>136</v>
       </c>
-      <c r="E110" t="str">
-        <f>VLOOKUP(B110,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E110" t="s">
+        <v>981</v>
       </c>
       <c r="F110" t="s">
         <v>738</v>
@@ -53037,9 +51298,8 @@
       <c r="D111" t="s">
         <v>138</v>
       </c>
-      <c r="E111" t="str">
-        <f>VLOOKUP(B111,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Machinery (333)</v>
+      <c r="E111" t="s">
+        <v>981</v>
       </c>
       <c r="F111" t="s">
         <v>738</v>
@@ -53061,9 +51321,8 @@
       <c r="D112" t="s">
         <v>139</v>
       </c>
-      <c r="E112" t="str">
-        <f>VLOOKUP(B112,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E112" t="s">
+        <v>982</v>
       </c>
       <c r="F112" t="s">
         <v>739</v>
@@ -53085,9 +51344,8 @@
       <c r="D113" t="s">
         <v>140</v>
       </c>
-      <c r="E113" t="str">
-        <f>VLOOKUP(B113,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E113" t="s">
+        <v>982</v>
       </c>
       <c r="F113" t="s">
         <v>739</v>
@@ -53109,9 +51367,8 @@
       <c r="D114" t="s">
         <v>141</v>
       </c>
-      <c r="E114" t="str">
-        <f>VLOOKUP(B114,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E114" t="s">
+        <v>982</v>
       </c>
       <c r="F114" t="s">
         <v>739</v>
@@ -53133,9 +51390,8 @@
       <c r="D115" t="s">
         <v>142</v>
       </c>
-      <c r="E115" t="str">
-        <f>VLOOKUP(B115,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E115" t="s">
+        <v>982</v>
       </c>
       <c r="F115" t="s">
         <v>739</v>
@@ -53157,9 +51413,8 @@
       <c r="D116" t="s">
         <v>143</v>
       </c>
-      <c r="E116" t="str">
-        <f>VLOOKUP(B116,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E116" t="s">
+        <v>982</v>
       </c>
       <c r="F116" t="s">
         <v>739</v>
@@ -53181,9 +51436,8 @@
       <c r="D117" t="s">
         <v>144</v>
       </c>
-      <c r="E117" t="str">
-        <f>VLOOKUP(B117,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E117" t="s">
+        <v>982</v>
       </c>
       <c r="F117" t="s">
         <v>739</v>
@@ -53205,9 +51459,8 @@
       <c r="D118" t="s">
         <v>148</v>
       </c>
-      <c r="E118" t="str">
-        <f>VLOOKUP(B118,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E118" t="s">
+        <v>982</v>
       </c>
       <c r="F118" t="s">
         <v>739</v>
@@ -53229,9 +51482,8 @@
       <c r="D119" t="s">
         <v>149</v>
       </c>
-      <c r="E119" t="str">
-        <f>VLOOKUP(B119,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E119" t="s">
+        <v>982</v>
       </c>
       <c r="F119" t="s">
         <v>739</v>
@@ -53253,9 +51505,8 @@
       <c r="D120" t="s">
         <v>147</v>
       </c>
-      <c r="E120" t="str">
-        <f>VLOOKUP(B120,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E120" t="s">
+        <v>982</v>
       </c>
       <c r="F120" t="s">
         <v>739</v>
@@ -53277,9 +51528,8 @@
       <c r="D121" t="s">
         <v>150</v>
       </c>
-      <c r="E121" t="str">
-        <f>VLOOKUP(B121,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E121" t="s">
+        <v>982</v>
       </c>
       <c r="F121" t="s">
         <v>739</v>
@@ -53301,9 +51551,8 @@
       <c r="D122" t="s">
         <v>151</v>
       </c>
-      <c r="E122" t="str">
-        <f>VLOOKUP(B122,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E122" t="s">
+        <v>982</v>
       </c>
       <c r="F122" t="s">
         <v>739</v>
@@ -53325,9 +51574,8 @@
       <c r="D123" t="s">
         <v>152</v>
       </c>
-      <c r="E123" t="str">
-        <f>VLOOKUP(B123,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E123" t="s">
+        <v>982</v>
       </c>
       <c r="F123" t="s">
         <v>739</v>
@@ -53349,9 +51597,8 @@
       <c r="D124" t="s">
         <v>153</v>
       </c>
-      <c r="E124" t="str">
-        <f>VLOOKUP(B124,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E124" t="s">
+        <v>982</v>
       </c>
       <c r="F124" t="s">
         <v>739</v>
@@ -53373,9 +51620,8 @@
       <c r="D125" t="s">
         <v>154</v>
       </c>
-      <c r="E125" t="str">
-        <f>VLOOKUP(B125,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E125" t="s">
+        <v>982</v>
       </c>
       <c r="F125" t="s">
         <v>739</v>
@@ -53397,9 +51643,8 @@
       <c r="D126" t="s">
         <v>155</v>
       </c>
-      <c r="E126" t="str">
-        <f>VLOOKUP(B126,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E126" t="s">
+        <v>982</v>
       </c>
       <c r="F126" t="s">
         <v>739</v>
@@ -53421,9 +51666,8 @@
       <c r="D127" t="s">
         <v>156</v>
       </c>
-      <c r="E127" t="str">
-        <f>VLOOKUP(B127,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E127" t="s">
+        <v>982</v>
       </c>
       <c r="F127" t="s">
         <v>739</v>
@@ -53445,9 +51689,8 @@
       <c r="D128" t="s">
         <v>157</v>
       </c>
-      <c r="E128" t="str">
-        <f>VLOOKUP(B128,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E128" t="s">
+        <v>982</v>
       </c>
       <c r="F128" t="s">
         <v>739</v>
@@ -53469,9 +51712,8 @@
       <c r="D129" t="s">
         <v>159</v>
       </c>
-      <c r="E129" t="str">
-        <f>VLOOKUP(B129,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E129" t="s">
+        <v>982</v>
       </c>
       <c r="F129" t="s">
         <v>739</v>
@@ -53493,9 +51735,8 @@
       <c r="D130" t="s">
         <v>145</v>
       </c>
-      <c r="E130" t="str">
-        <f>VLOOKUP(B130,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E130" t="s">
+        <v>982</v>
       </c>
       <c r="F130" t="s">
         <v>739</v>
@@ -53517,9 +51758,8 @@
       <c r="D131" t="s">
         <v>160</v>
       </c>
-      <c r="E131" t="str">
-        <f>VLOOKUP(B131,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer and electronic products (334)</v>
+      <c r="E131" t="s">
+        <v>982</v>
       </c>
       <c r="F131" t="s">
         <v>739</v>
@@ -53541,9 +51781,8 @@
       <c r="D132" t="s">
         <v>161</v>
       </c>
-      <c r="E132" t="str">
-        <f>VLOOKUP(B132,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E132" t="s">
+        <v>983</v>
       </c>
       <c r="F132" t="s">
         <v>740</v>
@@ -53565,9 +51804,8 @@
       <c r="D133" t="s">
         <v>162</v>
       </c>
-      <c r="E133" t="str">
-        <f>VLOOKUP(B133,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E133" t="s">
+        <v>983</v>
       </c>
       <c r="F133" t="s">
         <v>740</v>
@@ -53589,9 +51827,8 @@
       <c r="D134" t="s">
         <v>163</v>
       </c>
-      <c r="E134" t="str">
-        <f>VLOOKUP(B134,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E134" t="s">
+        <v>983</v>
       </c>
       <c r="F134" t="s">
         <v>740</v>
@@ -53613,9 +51850,8 @@
       <c r="D135" t="s">
         <v>461</v>
       </c>
-      <c r="E135" t="str">
-        <f>VLOOKUP(B135,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E135" t="s">
+        <v>983</v>
       </c>
       <c r="F135" t="s">
         <v>740</v>
@@ -53637,9 +51873,8 @@
       <c r="D136" t="s">
         <v>164</v>
       </c>
-      <c r="E136" t="str">
-        <f>VLOOKUP(B136,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E136" t="s">
+        <v>983</v>
       </c>
       <c r="F136" t="s">
         <v>740</v>
@@ -53661,9 +51896,8 @@
       <c r="D137" t="s">
         <v>165</v>
       </c>
-      <c r="E137" t="str">
-        <f>VLOOKUP(B137,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E137" t="s">
+        <v>983</v>
       </c>
       <c r="F137" t="s">
         <v>740</v>
@@ -53685,9 +51919,8 @@
       <c r="D138" t="s">
         <v>166</v>
       </c>
-      <c r="E138" t="str">
-        <f>VLOOKUP(B138,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E138" t="s">
+        <v>983</v>
       </c>
       <c r="F138" t="s">
         <v>740</v>
@@ -53709,9 +51942,8 @@
       <c r="D139" t="s">
         <v>167</v>
       </c>
-      <c r="E139" t="str">
-        <f>VLOOKUP(B139,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E139" t="s">
+        <v>983</v>
       </c>
       <c r="F139" t="s">
         <v>740</v>
@@ -53733,9 +51965,8 @@
       <c r="D140" t="s">
         <v>168</v>
       </c>
-      <c r="E140" t="str">
-        <f>VLOOKUP(B140,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E140" t="s">
+        <v>983</v>
       </c>
       <c r="F140" t="s">
         <v>740</v>
@@ -53757,9 +51988,8 @@
       <c r="D141" t="s">
         <v>169</v>
       </c>
-      <c r="E141" t="str">
-        <f>VLOOKUP(B141,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E141" t="s">
+        <v>983</v>
       </c>
       <c r="F141" t="s">
         <v>740</v>
@@ -53781,9 +52011,8 @@
       <c r="D142" t="s">
         <v>170</v>
       </c>
-      <c r="E142" t="str">
-        <f>VLOOKUP(B142,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E142" t="s">
+        <v>983</v>
       </c>
       <c r="F142" t="s">
         <v>740</v>
@@ -53805,9 +52034,8 @@
       <c r="D143" t="s">
         <v>171</v>
       </c>
-      <c r="E143" t="str">
-        <f>VLOOKUP(B143,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E143" t="s">
+        <v>983</v>
       </c>
       <c r="F143" t="s">
         <v>740</v>
@@ -53829,9 +52057,8 @@
       <c r="D144" t="s">
         <v>172</v>
       </c>
-      <c r="E144" t="str">
-        <f>VLOOKUP(B144,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E144" t="s">
+        <v>983</v>
       </c>
       <c r="F144" t="s">
         <v>740</v>
@@ -53853,9 +52080,8 @@
       <c r="D145" t="s">
         <v>173</v>
       </c>
-      <c r="E145" t="str">
-        <f>VLOOKUP(B145,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Electrical equipment, appliances, and components (335)</v>
+      <c r="E145" t="s">
+        <v>983</v>
       </c>
       <c r="F145" t="s">
         <v>740</v>
@@ -53877,9 +52103,8 @@
       <c r="D146" t="s">
         <v>174</v>
       </c>
-      <c r="E146" t="str">
-        <f>VLOOKUP(B146,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E146" t="s">
+        <v>984</v>
       </c>
       <c r="F146" t="s">
         <v>741</v>
@@ -53901,9 +52126,8 @@
       <c r="D147" t="s">
         <v>175</v>
       </c>
-      <c r="E147" t="str">
-        <f>VLOOKUP(B147,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E147" t="s">
+        <v>984</v>
       </c>
       <c r="F147" t="s">
         <v>741</v>
@@ -53925,9 +52149,8 @@
       <c r="D148" t="s">
         <v>176</v>
       </c>
-      <c r="E148" t="str">
-        <f>VLOOKUP(B148,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E148" t="s">
+        <v>984</v>
       </c>
       <c r="F148" t="s">
         <v>741</v>
@@ -53949,9 +52172,8 @@
       <c r="D149" t="s">
         <v>177</v>
       </c>
-      <c r="E149" t="str">
-        <f>VLOOKUP(B149,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E149" t="s">
+        <v>984</v>
       </c>
       <c r="F149" t="s">
         <v>741</v>
@@ -53973,9 +52195,8 @@
       <c r="D150" t="s">
         <v>178</v>
       </c>
-      <c r="E150" t="str">
-        <f>VLOOKUP(B150,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E150" t="s">
+        <v>984</v>
       </c>
       <c r="F150" t="s">
         <v>741</v>
@@ -53997,9 +52218,8 @@
       <c r="D151" t="s">
         <v>179</v>
       </c>
-      <c r="E151" t="str">
-        <f>VLOOKUP(B151,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E151" t="s">
+        <v>984</v>
       </c>
       <c r="F151" t="s">
         <v>741</v>
@@ -54021,9 +52241,8 @@
       <c r="D152" t="s">
         <v>180</v>
       </c>
-      <c r="E152" t="str">
-        <f>VLOOKUP(B152,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E152" t="s">
+        <v>984</v>
       </c>
       <c r="F152" t="s">
         <v>741</v>
@@ -54045,9 +52264,8 @@
       <c r="D153" t="s">
         <v>181</v>
       </c>
-      <c r="E153" t="str">
-        <f>VLOOKUP(B153,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E153" t="s">
+        <v>984</v>
       </c>
       <c r="F153" t="s">
         <v>741</v>
@@ -54069,9 +52287,8 @@
       <c r="D154" t="s">
         <v>182</v>
       </c>
-      <c r="E154" t="str">
-        <f>VLOOKUP(B154,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E154" t="s">
+        <v>984</v>
       </c>
       <c r="F154" t="s">
         <v>741</v>
@@ -54093,9 +52310,8 @@
       <c r="D155" t="s">
         <v>184</v>
       </c>
-      <c r="E155" t="str">
-        <f>VLOOKUP(B155,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E155" t="s">
+        <v>984</v>
       </c>
       <c r="F155" t="s">
         <v>741</v>
@@ -54117,9 +52333,8 @@
       <c r="D156" t="s">
         <v>185</v>
       </c>
-      <c r="E156" t="str">
-        <f>VLOOKUP(B156,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E156" t="s">
+        <v>984</v>
       </c>
       <c r="F156" t="s">
         <v>741</v>
@@ -54141,9 +52356,8 @@
       <c r="D157" t="s">
         <v>186</v>
       </c>
-      <c r="E157" t="str">
-        <f>VLOOKUP(B157,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E157" t="s">
+        <v>984</v>
       </c>
       <c r="F157" t="s">
         <v>741</v>
@@ -54165,9 +52379,8 @@
       <c r="D158" t="s">
         <v>187</v>
       </c>
-      <c r="E158" t="str">
-        <f>VLOOKUP(B158,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E158" t="s">
+        <v>984</v>
       </c>
       <c r="F158" t="s">
         <v>741</v>
@@ -54189,9 +52402,8 @@
       <c r="D159" t="s">
         <v>464</v>
       </c>
-      <c r="E159" t="str">
-        <f>VLOOKUP(B159,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicles, bodies and trailers, and parts (3361MV)</v>
+      <c r="E159" t="s">
+        <v>984</v>
       </c>
       <c r="F159" t="s">
         <v>741</v>
@@ -54213,9 +52425,8 @@
       <c r="D160" t="s">
         <v>188</v>
       </c>
-      <c r="E160" t="str">
-        <f>VLOOKUP(B160,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E160" t="s">
+        <v>985</v>
       </c>
       <c r="F160" t="s">
         <v>742</v>
@@ -54237,9 +52448,8 @@
       <c r="D161" t="s">
         <v>189</v>
       </c>
-      <c r="E161" t="str">
-        <f>VLOOKUP(B161,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E161" t="s">
+        <v>985</v>
       </c>
       <c r="F161" t="s">
         <v>742</v>
@@ -54261,9 +52471,8 @@
       <c r="D162" t="s">
         <v>190</v>
       </c>
-      <c r="E162" t="str">
-        <f>VLOOKUP(B162,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E162" t="s">
+        <v>985</v>
       </c>
       <c r="F162" t="s">
         <v>742</v>
@@ -54285,9 +52494,8 @@
       <c r="D163" t="s">
         <v>191</v>
       </c>
-      <c r="E163" t="str">
-        <f>VLOOKUP(B163,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E163" t="s">
+        <v>985</v>
       </c>
       <c r="F163" t="s">
         <v>742</v>
@@ -54309,9 +52517,8 @@
       <c r="D164" t="s">
         <v>193</v>
       </c>
-      <c r="E164" t="str">
-        <f>VLOOKUP(B164,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E164" t="s">
+        <v>985</v>
       </c>
       <c r="F164" t="s">
         <v>742</v>
@@ -54333,9 +52540,8 @@
       <c r="D165" t="s">
         <v>194</v>
       </c>
-      <c r="E165" t="str">
-        <f>VLOOKUP(B165,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E165" t="s">
+        <v>985</v>
       </c>
       <c r="F165" t="s">
         <v>742</v>
@@ -54357,9 +52563,8 @@
       <c r="D166" t="s">
         <v>195</v>
       </c>
-      <c r="E166" t="str">
-        <f>VLOOKUP(B166,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E166" t="s">
+        <v>985</v>
       </c>
       <c r="F166" t="s">
         <v>742</v>
@@ -54381,9 +52586,8 @@
       <c r="D167" t="s">
         <v>196</v>
       </c>
-      <c r="E167" t="str">
-        <f>VLOOKUP(B167,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E167" t="s">
+        <v>985</v>
       </c>
       <c r="F167" t="s">
         <v>742</v>
@@ -54405,9 +52609,8 @@
       <c r="D168" t="s">
         <v>197</v>
       </c>
-      <c r="E168" t="str">
-        <f>VLOOKUP(B168,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E168" t="s">
+        <v>985</v>
       </c>
       <c r="F168" t="s">
         <v>742</v>
@@ -54429,9 +52632,8 @@
       <c r="D169" t="s">
         <v>198</v>
       </c>
-      <c r="E169" t="str">
-        <f>VLOOKUP(B169,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E169" t="s">
+        <v>985</v>
       </c>
       <c r="F169" t="s">
         <v>742</v>
@@ -54453,9 +52655,8 @@
       <c r="D170" t="s">
         <v>199</v>
       </c>
-      <c r="E170" t="str">
-        <f>VLOOKUP(B170,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation equipment (3364OT)</v>
+      <c r="E170" t="s">
+        <v>985</v>
       </c>
       <c r="F170" t="s">
         <v>742</v>
@@ -54477,9 +52678,8 @@
       <c r="D171" t="s">
         <v>200</v>
       </c>
-      <c r="E171" t="str">
-        <f>VLOOKUP(B171,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E171" t="s">
+        <v>986</v>
       </c>
       <c r="F171" t="s">
         <v>743</v>
@@ -54501,9 +52701,8 @@
       <c r="D172" t="s">
         <v>201</v>
       </c>
-      <c r="E172" t="str">
-        <f>VLOOKUP(B172,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E172" t="s">
+        <v>986</v>
       </c>
       <c r="F172" t="s">
         <v>743</v>
@@ -54525,9 +52724,8 @@
       <c r="D173" t="s">
         <v>202</v>
       </c>
-      <c r="E173" t="str">
-        <f>VLOOKUP(B173,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E173" t="s">
+        <v>986</v>
       </c>
       <c r="F173" t="s">
         <v>743</v>
@@ -54549,9 +52747,8 @@
       <c r="D174" t="s">
         <v>203</v>
       </c>
-      <c r="E174" t="str">
-        <f>VLOOKUP(B174,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E174" t="s">
+        <v>986</v>
       </c>
       <c r="F174" t="s">
         <v>743</v>
@@ -54573,9 +52770,8 @@
       <c r="D175" t="s">
         <v>204</v>
       </c>
-      <c r="E175" t="str">
-        <f>VLOOKUP(B175,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E175" t="s">
+        <v>986</v>
       </c>
       <c r="F175" t="s">
         <v>743</v>
@@ -54597,9 +52793,8 @@
       <c r="D176" t="s">
         <v>206</v>
       </c>
-      <c r="E176" t="str">
-        <f>VLOOKUP(B176,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E176" t="s">
+        <v>986</v>
       </c>
       <c r="F176" t="s">
         <v>743</v>
@@ -54621,9 +52816,8 @@
       <c r="D177" t="s">
         <v>207</v>
       </c>
-      <c r="E177" t="str">
-        <f>VLOOKUP(B177,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E177" t="s">
+        <v>986</v>
       </c>
       <c r="F177" t="s">
         <v>743</v>
@@ -54645,9 +52839,8 @@
       <c r="D178" t="s">
         <v>208</v>
       </c>
-      <c r="E178" t="str">
-        <f>VLOOKUP(B178,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Furniture and related products (337)</v>
+      <c r="E178" t="s">
+        <v>986</v>
       </c>
       <c r="F178" t="s">
         <v>743</v>
@@ -54669,9 +52862,8 @@
       <c r="D179" t="s">
         <v>209</v>
       </c>
-      <c r="E179" t="str">
-        <f>VLOOKUP(B179,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E179" t="s">
+        <v>987</v>
       </c>
       <c r="F179" t="s">
         <v>744</v>
@@ -54693,9 +52885,8 @@
       <c r="D180" t="s">
         <v>210</v>
       </c>
-      <c r="E180" t="str">
-        <f>VLOOKUP(B180,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E180" t="s">
+        <v>987</v>
       </c>
       <c r="F180" t="s">
         <v>744</v>
@@ -54717,9 +52908,8 @@
       <c r="D181" t="s">
         <v>211</v>
       </c>
-      <c r="E181" t="str">
-        <f>VLOOKUP(B181,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E181" t="s">
+        <v>987</v>
       </c>
       <c r="F181" t="s">
         <v>744</v>
@@ -54741,9 +52931,8 @@
       <c r="D182" t="s">
         <v>212</v>
       </c>
-      <c r="E182" t="str">
-        <f>VLOOKUP(B182,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E182" t="s">
+        <v>987</v>
       </c>
       <c r="F182" t="s">
         <v>744</v>
@@ -54765,9 +52954,8 @@
       <c r="D183" t="s">
         <v>213</v>
       </c>
-      <c r="E183" t="str">
-        <f>VLOOKUP(B183,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E183" t="s">
+        <v>987</v>
       </c>
       <c r="F183" t="s">
         <v>744</v>
@@ -54789,9 +52977,8 @@
       <c r="D184" t="s">
         <v>214</v>
       </c>
-      <c r="E184" t="str">
-        <f>VLOOKUP(B184,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E184" t="s">
+        <v>987</v>
       </c>
       <c r="F184" t="s">
         <v>744</v>
@@ -54813,9 +53000,8 @@
       <c r="D185" t="s">
         <v>215</v>
       </c>
-      <c r="E185" t="str">
-        <f>VLOOKUP(B185,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E185" t="s">
+        <v>987</v>
       </c>
       <c r="F185" t="s">
         <v>744</v>
@@ -54837,9 +53023,8 @@
       <c r="D186" t="s">
         <v>216</v>
       </c>
-      <c r="E186" t="str">
-        <f>VLOOKUP(B186,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E186" t="s">
+        <v>987</v>
       </c>
       <c r="F186" t="s">
         <v>744</v>
@@ -54861,9 +53046,8 @@
       <c r="D187" t="s">
         <v>217</v>
       </c>
-      <c r="E187" t="str">
-        <f>VLOOKUP(B187,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E187" t="s">
+        <v>987</v>
       </c>
       <c r="F187" t="s">
         <v>744</v>
@@ -54885,9 +53069,8 @@
       <c r="D188" t="s">
         <v>218</v>
       </c>
-      <c r="E188" t="str">
-        <f>VLOOKUP(B188,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E188" t="s">
+        <v>987</v>
       </c>
       <c r="F188" t="s">
         <v>744</v>
@@ -54909,9 +53092,8 @@
       <c r="D189" t="s">
         <v>219</v>
       </c>
-      <c r="E189" t="str">
-        <f>VLOOKUP(B189,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous manufacturing (339)</v>
+      <c r="E189" t="s">
+        <v>987</v>
       </c>
       <c r="F189" t="s">
         <v>744</v>
@@ -54933,9 +53115,8 @@
       <c r="D190" t="s">
         <v>220</v>
       </c>
-      <c r="E190" t="str">
-        <f>VLOOKUP(B190,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E190" t="s">
+        <v>988</v>
       </c>
       <c r="F190" t="s">
         <v>745</v>
@@ -54957,9 +53138,8 @@
       <c r="D191" t="s">
         <v>221</v>
       </c>
-      <c r="E191" t="str">
-        <f>VLOOKUP(B191,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E191" t="s">
+        <v>988</v>
       </c>
       <c r="F191" t="s">
         <v>745</v>
@@ -54981,9 +53161,8 @@
       <c r="D192" t="s">
         <v>222</v>
       </c>
-      <c r="E192" t="str">
-        <f>VLOOKUP(B192,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E192" t="s">
+        <v>988</v>
       </c>
       <c r="F192" t="s">
         <v>745</v>
@@ -55005,9 +53184,8 @@
       <c r="D193" t="s">
         <v>223</v>
       </c>
-      <c r="E193" t="str">
-        <f>VLOOKUP(B193,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E193" t="s">
+        <v>988</v>
       </c>
       <c r="F193" t="s">
         <v>745</v>
@@ -55029,9 +53207,8 @@
       <c r="D194" t="s">
         <v>224</v>
       </c>
-      <c r="E194" t="str">
-        <f>VLOOKUP(B194,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E194" t="s">
+        <v>988</v>
       </c>
       <c r="F194" t="s">
         <v>745</v>
@@ -55053,9 +53230,8 @@
       <c r="D195" t="s">
         <v>225</v>
       </c>
-      <c r="E195" t="str">
-        <f>VLOOKUP(B195,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E195" t="s">
+        <v>988</v>
       </c>
       <c r="F195" t="s">
         <v>745</v>
@@ -55077,9 +53253,8 @@
       <c r="D196" t="s">
         <v>226</v>
       </c>
-      <c r="E196" t="str">
-        <f>VLOOKUP(B196,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E196" t="s">
+        <v>988</v>
       </c>
       <c r="F196" t="s">
         <v>745</v>
@@ -55101,9 +53276,8 @@
       <c r="D197" t="s">
         <v>227</v>
       </c>
-      <c r="E197" t="str">
-        <f>VLOOKUP(B197,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E197" t="s">
+        <v>988</v>
       </c>
       <c r="F197" t="s">
         <v>745</v>
@@ -55125,9 +53299,8 @@
       <c r="D198" t="s">
         <v>228</v>
       </c>
-      <c r="E198" t="str">
-        <f>VLOOKUP(B198,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E198" t="s">
+        <v>988</v>
       </c>
       <c r="F198" t="s">
         <v>745</v>
@@ -55149,9 +53322,8 @@
       <c r="D199" t="s">
         <v>229</v>
       </c>
-      <c r="E199" t="str">
-        <f>VLOOKUP(B199,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E199" t="s">
+        <v>988</v>
       </c>
       <c r="F199" t="s">
         <v>745</v>
@@ -55173,9 +53345,8 @@
       <c r="D200" t="s">
         <v>231</v>
       </c>
-      <c r="E200" t="str">
-        <f>VLOOKUP(B200,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E200" t="s">
+        <v>988</v>
       </c>
       <c r="F200" t="s">
         <v>745</v>
@@ -55197,9 +53368,8 @@
       <c r="D201" t="s">
         <v>232</v>
       </c>
-      <c r="E201" t="str">
-        <f>VLOOKUP(B201,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E201" t="s">
+        <v>988</v>
       </c>
       <c r="F201" t="s">
         <v>745</v>
@@ -55221,9 +53391,8 @@
       <c r="D202" t="s">
         <v>233</v>
       </c>
-      <c r="E202" t="str">
-        <f>VLOOKUP(B202,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E202" t="s">
+        <v>988</v>
       </c>
       <c r="F202" t="s">
         <v>745</v>
@@ -55245,9 +53414,8 @@
       <c r="D203" t="s">
         <v>234</v>
       </c>
-      <c r="E203" t="str">
-        <f>VLOOKUP(B203,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E203" t="s">
+        <v>988</v>
       </c>
       <c r="F203" t="s">
         <v>745</v>
@@ -55269,9 +53437,8 @@
       <c r="D204" t="s">
         <v>236</v>
       </c>
-      <c r="E204" t="str">
-        <f>VLOOKUP(B204,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E204" t="s">
+        <v>988</v>
       </c>
       <c r="F204" t="s">
         <v>745</v>
@@ -55293,9 +53460,8 @@
       <c r="D205" t="s">
         <v>237</v>
       </c>
-      <c r="E205" t="str">
-        <f>VLOOKUP(B205,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E205" t="s">
+        <v>988</v>
       </c>
       <c r="F205" t="s">
         <v>745</v>
@@ -55317,9 +53483,8 @@
       <c r="D206" t="s">
         <v>238</v>
       </c>
-      <c r="E206" t="str">
-        <f>VLOOKUP(B206,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E206" t="s">
+        <v>988</v>
       </c>
       <c r="F206" t="s">
         <v>745</v>
@@ -55341,9 +53506,8 @@
       <c r="D207" t="s">
         <v>239</v>
       </c>
-      <c r="E207" t="str">
-        <f>VLOOKUP(B207,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E207" t="s">
+        <v>988</v>
       </c>
       <c r="F207" t="s">
         <v>745</v>
@@ -55365,9 +53529,8 @@
       <c r="D208" t="s">
         <v>241</v>
       </c>
-      <c r="E208" t="str">
-        <f>VLOOKUP(B208,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E208" t="s">
+        <v>988</v>
       </c>
       <c r="F208" t="s">
         <v>745</v>
@@ -55389,9 +53552,8 @@
       <c r="D209" t="s">
         <v>242</v>
       </c>
-      <c r="E209" t="str">
-        <f>VLOOKUP(B209,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E209" t="s">
+        <v>988</v>
       </c>
       <c r="F209" t="s">
         <v>745</v>
@@ -55413,9 +53575,8 @@
       <c r="D210" t="s">
         <v>243</v>
       </c>
-      <c r="E210" t="str">
-        <f>VLOOKUP(B210,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E210" t="s">
+        <v>988</v>
       </c>
       <c r="F210" t="s">
         <v>745</v>
@@ -55437,9 +53598,8 @@
       <c r="D211" t="s">
         <v>244</v>
       </c>
-      <c r="E211" t="str">
-        <f>VLOOKUP(B211,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E211" t="s">
+        <v>988</v>
       </c>
       <c r="F211" t="s">
         <v>745</v>
@@ -55461,9 +53621,8 @@
       <c r="D212" t="s">
         <v>245</v>
       </c>
-      <c r="E212" t="str">
-        <f>VLOOKUP(B212,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E212" t="s">
+        <v>988</v>
       </c>
       <c r="F212" t="s">
         <v>745</v>
@@ -55485,9 +53644,8 @@
       <c r="D213" t="s">
         <v>246</v>
       </c>
-      <c r="E213" t="str">
-        <f>VLOOKUP(B213,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E213" t="s">
+        <v>988</v>
       </c>
       <c r="F213" t="s">
         <v>745</v>
@@ -55509,9 +53667,8 @@
       <c r="D214" t="s">
         <v>247</v>
       </c>
-      <c r="E214" t="str">
-        <f>VLOOKUP(B214,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E214" t="s">
+        <v>988</v>
       </c>
       <c r="F214" t="s">
         <v>745</v>
@@ -55533,9 +53690,8 @@
       <c r="D215" t="s">
         <v>248</v>
       </c>
-      <c r="E215" t="str">
-        <f>VLOOKUP(B215,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E215" t="s">
+        <v>988</v>
       </c>
       <c r="F215" t="s">
         <v>745</v>
@@ -55557,9 +53713,8 @@
       <c r="D216" t="s">
         <v>249</v>
       </c>
-      <c r="E216" t="str">
-        <f>VLOOKUP(B216,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E216" t="s">
+        <v>988</v>
       </c>
       <c r="F216" t="s">
         <v>745</v>
@@ -55581,9 +53736,8 @@
       <c r="D217" t="s">
         <v>250</v>
       </c>
-      <c r="E217" t="str">
-        <f>VLOOKUP(B217,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E217" t="s">
+        <v>988</v>
       </c>
       <c r="F217" t="s">
         <v>745</v>
@@ -55605,9 +53759,8 @@
       <c r="D218" t="s">
         <v>465</v>
       </c>
-      <c r="E218" t="str">
-        <f>VLOOKUP(B218,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage and tobacco products (311FT)</v>
+      <c r="E218" t="s">
+        <v>988</v>
       </c>
       <c r="F218" t="s">
         <v>745</v>
@@ -55629,9 +53782,8 @@
       <c r="D219" t="s">
         <v>251</v>
       </c>
-      <c r="E219" t="str">
-        <f>VLOOKUP(B219,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E219" t="s">
+        <v>989</v>
       </c>
       <c r="F219" t="s">
         <v>746</v>
@@ -55653,9 +53805,8 @@
       <c r="D220" t="s">
         <v>252</v>
       </c>
-      <c r="E220" t="str">
-        <f>VLOOKUP(B220,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E220" t="s">
+        <v>989</v>
       </c>
       <c r="F220" t="s">
         <v>746</v>
@@ -55677,9 +53828,8 @@
       <c r="D221" t="s">
         <v>253</v>
       </c>
-      <c r="E221" t="str">
-        <f>VLOOKUP(B221,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E221" t="s">
+        <v>989</v>
       </c>
       <c r="F221" t="s">
         <v>746</v>
@@ -55701,9 +53851,8 @@
       <c r="D222" t="s">
         <v>254</v>
       </c>
-      <c r="E222" t="str">
-        <f>VLOOKUP(B222,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E222" t="s">
+        <v>989</v>
       </c>
       <c r="F222" t="s">
         <v>746</v>
@@ -55725,9 +53874,8 @@
       <c r="D223" t="s">
         <v>255</v>
       </c>
-      <c r="E223" t="str">
-        <f>VLOOKUP(B223,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E223" t="s">
+        <v>989</v>
       </c>
       <c r="F223" t="s">
         <v>746</v>
@@ -55749,9 +53897,8 @@
       <c r="D224" t="s">
         <v>256</v>
       </c>
-      <c r="E224" t="str">
-        <f>VLOOKUP(B224,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Textile mills and textile product mills (313TT)</v>
+      <c r="E224" t="s">
+        <v>989</v>
       </c>
       <c r="F224" t="s">
         <v>746</v>
@@ -55773,9 +53920,8 @@
       <c r="D225" t="s">
         <v>257</v>
       </c>
-      <c r="E225" t="str">
-        <f>VLOOKUP(B225,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Apparel and leather and allied products (315AL)</v>
+      <c r="E225" t="s">
+        <v>990</v>
       </c>
       <c r="F225" t="s">
         <v>747</v>
@@ -55797,9 +53943,8 @@
       <c r="D226" t="s">
         <v>258</v>
       </c>
-      <c r="E226" t="str">
-        <f>VLOOKUP(B226,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Apparel and leather and allied products (315AL)</v>
+      <c r="E226" t="s">
+        <v>990</v>
       </c>
       <c r="F226" t="s">
         <v>747</v>
@@ -55821,9 +53966,8 @@
       <c r="D227" t="s">
         <v>259</v>
       </c>
-      <c r="E227" t="str">
-        <f>VLOOKUP(B227,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E227" t="s">
+        <v>991</v>
       </c>
       <c r="F227" t="s">
         <v>748</v>
@@ -55845,9 +53989,8 @@
       <c r="D228" t="s">
         <v>260</v>
       </c>
-      <c r="E228" t="str">
-        <f>VLOOKUP(B228,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E228" t="s">
+        <v>991</v>
       </c>
       <c r="F228" t="s">
         <v>748</v>
@@ -55869,9 +54012,8 @@
       <c r="D229" t="s">
         <v>261</v>
       </c>
-      <c r="E229" t="str">
-        <f>VLOOKUP(B229,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E229" t="s">
+        <v>991</v>
       </c>
       <c r="F229" t="s">
         <v>748</v>
@@ -55893,9 +54035,8 @@
       <c r="D230" t="s">
         <v>262</v>
       </c>
-      <c r="E230" t="str">
-        <f>VLOOKUP(B230,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E230" t="s">
+        <v>991</v>
       </c>
       <c r="F230" t="s">
         <v>748</v>
@@ -55917,9 +54058,8 @@
       <c r="D231" t="s">
         <v>466</v>
       </c>
-      <c r="E231" t="str">
-        <f>VLOOKUP(B231,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E231" t="s">
+        <v>991</v>
       </c>
       <c r="F231" t="s">
         <v>748</v>
@@ -55941,9 +54081,8 @@
       <c r="D232" t="s">
         <v>263</v>
       </c>
-      <c r="E232" t="str">
-        <f>VLOOKUP(B232,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E232" t="s">
+        <v>991</v>
       </c>
       <c r="F232" t="s">
         <v>748</v>
@@ -55965,9 +54104,8 @@
       <c r="D233" t="s">
         <v>264</v>
       </c>
-      <c r="E233" t="str">
-        <f>VLOOKUP(B233,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E233" t="s">
+        <v>991</v>
       </c>
       <c r="F233" t="s">
         <v>748</v>
@@ -55989,9 +54127,8 @@
       <c r="D234" t="s">
         <v>265</v>
       </c>
-      <c r="E234" t="str">
-        <f>VLOOKUP(B234,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Paper products (322)</v>
+      <c r="E234" t="s">
+        <v>991</v>
       </c>
       <c r="F234" t="s">
         <v>748</v>
@@ -56013,9 +54150,8 @@
       <c r="D235" t="s">
         <v>266</v>
       </c>
-      <c r="E235" t="str">
-        <f>VLOOKUP(B235,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Printing and related support activities (323)</v>
+      <c r="E235" t="s">
+        <v>992</v>
       </c>
       <c r="F235" t="s">
         <v>749</v>
@@ -56037,9 +54173,8 @@
       <c r="D236" t="s">
         <v>267</v>
       </c>
-      <c r="E236" t="str">
-        <f>VLOOKUP(B236,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Printing and related support activities (323)</v>
+      <c r="E236" t="s">
+        <v>992</v>
       </c>
       <c r="F236" t="s">
         <v>749</v>
@@ -56061,9 +54196,8 @@
       <c r="D237" t="s">
         <v>268</v>
       </c>
-      <c r="E237" t="str">
-        <f>VLOOKUP(B237,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Petroleum and coal products (324)</v>
+      <c r="E237" t="s">
+        <v>993</v>
       </c>
       <c r="F237" t="s">
         <v>750</v>
@@ -56085,9 +54219,8 @@
       <c r="D238" t="s">
         <v>269</v>
       </c>
-      <c r="E238" t="str">
-        <f>VLOOKUP(B238,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Petroleum and coal products (324)</v>
+      <c r="E238" t="s">
+        <v>993</v>
       </c>
       <c r="F238" t="s">
         <v>750</v>
@@ -56109,9 +54242,8 @@
       <c r="D239" t="s">
         <v>270</v>
       </c>
-      <c r="E239" t="str">
-        <f>VLOOKUP(B239,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Petroleum and coal products (324)</v>
+      <c r="E239" t="s">
+        <v>993</v>
       </c>
       <c r="F239" t="s">
         <v>750</v>
@@ -56133,9 +54265,8 @@
       <c r="D240" t="s">
         <v>271</v>
       </c>
-      <c r="E240" t="str">
-        <f>VLOOKUP(B240,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Petroleum and coal products (324)</v>
+      <c r="E240" t="s">
+        <v>993</v>
       </c>
       <c r="F240" t="s">
         <v>750</v>
@@ -56157,9 +54288,8 @@
       <c r="D241" t="s">
         <v>272</v>
       </c>
-      <c r="E241" t="str">
-        <f>VLOOKUP(B241,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E241" t="s">
+        <v>994</v>
       </c>
       <c r="F241" t="s">
         <v>751</v>
@@ -56181,9 +54311,8 @@
       <c r="D242" t="s">
         <v>273</v>
       </c>
-      <c r="E242" t="str">
-        <f>VLOOKUP(B242,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E242" t="s">
+        <v>994</v>
       </c>
       <c r="F242" t="s">
         <v>751</v>
@@ -56205,9 +54334,8 @@
       <c r="D243" t="s">
         <v>274</v>
       </c>
-      <c r="E243" t="str">
-        <f>VLOOKUP(B243,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E243" t="s">
+        <v>994</v>
       </c>
       <c r="F243" t="s">
         <v>751</v>
@@ -56229,9 +54357,8 @@
       <c r="D244" t="s">
         <v>467</v>
       </c>
-      <c r="E244" t="str">
-        <f>VLOOKUP(B244,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E244" t="s">
+        <v>994</v>
       </c>
       <c r="F244" t="s">
         <v>751</v>
@@ -56253,9 +54380,8 @@
       <c r="D245" t="s">
         <v>275</v>
       </c>
-      <c r="E245" t="str">
-        <f>VLOOKUP(B245,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E245" t="s">
+        <v>994</v>
       </c>
       <c r="F245" t="s">
         <v>751</v>
@@ -56277,9 +54403,8 @@
       <c r="D246" t="s">
         <v>276</v>
       </c>
-      <c r="E246" t="str">
-        <f>VLOOKUP(B246,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E246" t="s">
+        <v>994</v>
       </c>
       <c r="F246" t="s">
         <v>751</v>
@@ -56301,9 +54426,8 @@
       <c r="D247" t="s">
         <v>278</v>
       </c>
-      <c r="E247" t="str">
-        <f>VLOOKUP(B247,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E247" t="s">
+        <v>994</v>
       </c>
       <c r="F247" t="s">
         <v>751</v>
@@ -56325,9 +54449,8 @@
       <c r="D248" t="s">
         <v>281</v>
       </c>
-      <c r="E248" t="str">
-        <f>VLOOKUP(B248,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E248" t="s">
+        <v>994</v>
       </c>
       <c r="F248" t="s">
         <v>751</v>
@@ -56349,9 +54472,8 @@
       <c r="D249" t="s">
         <v>282</v>
       </c>
-      <c r="E249" t="str">
-        <f>VLOOKUP(B249,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E249" t="s">
+        <v>994</v>
       </c>
       <c r="F249" t="s">
         <v>751</v>
@@ -56373,9 +54495,8 @@
       <c r="D250" t="s">
         <v>283</v>
       </c>
-      <c r="E250" t="str">
-        <f>VLOOKUP(B250,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E250" t="s">
+        <v>994</v>
       </c>
       <c r="F250" t="s">
         <v>751</v>
@@ -56397,9 +54518,8 @@
       <c r="D251" t="s">
         <v>284</v>
       </c>
-      <c r="E251" t="str">
-        <f>VLOOKUP(B251,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E251" t="s">
+        <v>994</v>
       </c>
       <c r="F251" t="s">
         <v>751</v>
@@ -56421,9 +54541,8 @@
       <c r="D252" t="s">
         <v>279</v>
       </c>
-      <c r="E252" t="str">
-        <f>VLOOKUP(B252,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E252" t="s">
+        <v>994</v>
       </c>
       <c r="F252" t="s">
         <v>751</v>
@@ -56445,9 +54564,8 @@
       <c r="D253" t="s">
         <v>280</v>
       </c>
-      <c r="E253" t="str">
-        <f>VLOOKUP(B253,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E253" t="s">
+        <v>994</v>
       </c>
       <c r="F253" t="s">
         <v>751</v>
@@ -56469,9 +54587,8 @@
       <c r="D254" t="s">
         <v>285</v>
       </c>
-      <c r="E254" t="str">
-        <f>VLOOKUP(B254,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E254" t="s">
+        <v>994</v>
       </c>
       <c r="F254" t="s">
         <v>751</v>
@@ -56493,9 +54610,8 @@
       <c r="D255" t="s">
         <v>286</v>
       </c>
-      <c r="E255" t="str">
-        <f>VLOOKUP(B255,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E255" t="s">
+        <v>994</v>
       </c>
       <c r="F255" t="s">
         <v>751</v>
@@ -56517,9 +54633,8 @@
       <c r="D256" t="s">
         <v>287</v>
       </c>
-      <c r="E256" t="str">
-        <f>VLOOKUP(B256,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E256" t="s">
+        <v>994</v>
       </c>
       <c r="F256" t="s">
         <v>751</v>
@@ -56541,9 +54656,8 @@
       <c r="D257" t="s">
         <v>288</v>
       </c>
-      <c r="E257" t="str">
-        <f>VLOOKUP(B257,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E257" t="s">
+        <v>994</v>
       </c>
       <c r="F257" t="s">
         <v>751</v>
@@ -56565,9 +54679,8 @@
       <c r="D258" t="s">
         <v>289</v>
       </c>
-      <c r="E258" t="str">
-        <f>VLOOKUP(B258,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E258" t="s">
+        <v>994</v>
       </c>
       <c r="F258" t="s">
         <v>751</v>
@@ -56589,9 +54702,8 @@
       <c r="D259" t="s">
         <v>291</v>
       </c>
-      <c r="E259" t="str">
-        <f>VLOOKUP(B259,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Chemical products (325)</v>
+      <c r="E259" t="s">
+        <v>994</v>
       </c>
       <c r="F259" t="s">
         <v>751</v>
@@ -56613,9 +54725,8 @@
       <c r="D260" t="s">
         <v>292</v>
       </c>
-      <c r="E260" t="str">
-        <f>VLOOKUP(B260,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E260" t="s">
+        <v>995</v>
       </c>
       <c r="F260" t="s">
         <v>752</v>
@@ -56637,9 +54748,8 @@
       <c r="D261" t="s">
         <v>293</v>
       </c>
-      <c r="E261" t="str">
-        <f>VLOOKUP(B261,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E261" t="s">
+        <v>995</v>
       </c>
       <c r="F261" t="s">
         <v>752</v>
@@ -56661,9 +54771,8 @@
       <c r="D262" t="s">
         <v>294</v>
       </c>
-      <c r="E262" t="str">
-        <f>VLOOKUP(B262,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E262" t="s">
+        <v>995</v>
       </c>
       <c r="F262" t="s">
         <v>752</v>
@@ -56685,9 +54794,8 @@
       <c r="D263" t="s">
         <v>295</v>
       </c>
-      <c r="E263" t="str">
-        <f>VLOOKUP(B263,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E263" t="s">
+        <v>995</v>
       </c>
       <c r="F263" t="s">
         <v>752</v>
@@ -56709,9 +54817,8 @@
       <c r="D264" t="s">
         <v>296</v>
       </c>
-      <c r="E264" t="str">
-        <f>VLOOKUP(B264,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E264" t="s">
+        <v>995</v>
       </c>
       <c r="F264" t="s">
         <v>752</v>
@@ -56733,9 +54840,8 @@
       <c r="D265" t="s">
         <v>297</v>
       </c>
-      <c r="E265" t="str">
-        <f>VLOOKUP(B265,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E265" t="s">
+        <v>995</v>
       </c>
       <c r="F265" t="s">
         <v>752</v>
@@ -56757,9 +54863,8 @@
       <c r="D266" t="s">
         <v>298</v>
       </c>
-      <c r="E266" t="str">
-        <f>VLOOKUP(B266,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E266" t="s">
+        <v>995</v>
       </c>
       <c r="F266" t="s">
         <v>752</v>
@@ -56781,9 +54886,8 @@
       <c r="D267" t="s">
         <v>299</v>
       </c>
-      <c r="E267" t="str">
-        <f>VLOOKUP(B267,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E267" t="s">
+        <v>995</v>
       </c>
       <c r="F267" t="s">
         <v>752</v>
@@ -56805,9 +54909,8 @@
       <c r="D268" t="s">
         <v>300</v>
       </c>
-      <c r="E268" t="str">
-        <f>VLOOKUP(B268,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E268" t="s">
+        <v>995</v>
       </c>
       <c r="F268" t="s">
         <v>752</v>
@@ -56829,9 +54932,8 @@
       <c r="D269" t="s">
         <v>301</v>
       </c>
-      <c r="E269" t="str">
-        <f>VLOOKUP(B269,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Plastics and rubber products (326)</v>
+      <c r="E269" t="s">
+        <v>995</v>
       </c>
       <c r="F269" t="s">
         <v>752</v>
@@ -56853,9 +54955,8 @@
       <c r="D270" t="s">
         <v>452</v>
       </c>
-      <c r="E270" t="str">
-        <f>VLOOKUP(B270,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E270" t="s">
+        <v>996</v>
       </c>
       <c r="F270" t="s">
         <v>753</v>
@@ -56877,9 +54978,8 @@
       <c r="D271" t="s">
         <v>453</v>
       </c>
-      <c r="E271" t="str">
-        <f>VLOOKUP(B271,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E271" t="s">
+        <v>996</v>
       </c>
       <c r="F271" t="s">
         <v>753</v>
@@ -56901,9 +55001,8 @@
       <c r="D272" t="s">
         <v>595</v>
       </c>
-      <c r="E272" t="str">
-        <f>VLOOKUP(B272,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E272" t="s">
+        <v>996</v>
       </c>
       <c r="F272" t="s">
         <v>753</v>
@@ -56925,9 +55024,8 @@
       <c r="D273" t="s">
         <v>454</v>
       </c>
-      <c r="E273" t="str">
-        <f>VLOOKUP(B273,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E273" t="s">
+        <v>996</v>
       </c>
       <c r="F273" t="s">
         <v>753</v>
@@ -56949,9 +55047,8 @@
       <c r="D274" t="s">
         <v>423</v>
       </c>
-      <c r="E274" t="str">
-        <f>VLOOKUP(B274,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E274" t="s">
+        <v>996</v>
       </c>
       <c r="F274" t="s">
         <v>753</v>
@@ -56973,9 +55070,8 @@
       <c r="D275" t="s">
         <v>598</v>
       </c>
-      <c r="E275" t="str">
-        <f>VLOOKUP(B275,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E275" t="s">
+        <v>996</v>
       </c>
       <c r="F275" t="s">
         <v>753</v>
@@ -56997,9 +55093,8 @@
       <c r="D276" t="s">
         <v>599</v>
       </c>
-      <c r="E276" t="str">
-        <f>VLOOKUP(B276,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E276" t="s">
+        <v>996</v>
       </c>
       <c r="F276" t="s">
         <v>753</v>
@@ -57021,9 +55116,8 @@
       <c r="D277" t="s">
         <v>455</v>
       </c>
-      <c r="E277" t="str">
-        <f>VLOOKUP(B277,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E277" t="s">
+        <v>996</v>
       </c>
       <c r="F277" t="s">
         <v>753</v>
@@ -57045,9 +55139,8 @@
       <c r="D278" t="s">
         <v>424</v>
       </c>
-      <c r="E278" t="str">
-        <f>VLOOKUP(B278,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E278" t="s">
+        <v>996</v>
       </c>
       <c r="F278" t="s">
         <v>753</v>
@@ -57069,9 +55162,8 @@
       <c r="D279" t="s">
         <v>425</v>
       </c>
-      <c r="E279" t="str">
-        <f>VLOOKUP(B279,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E279" t="s">
+        <v>996</v>
       </c>
       <c r="F279" t="s">
         <v>753</v>
@@ -57093,9 +55185,8 @@
       <c r="D280" t="s">
         <v>426</v>
       </c>
-      <c r="E280" t="str">
-        <f>VLOOKUP(B280,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Wholesale trade (42)</v>
+      <c r="E280" t="s">
+        <v>996</v>
       </c>
       <c r="F280" t="s">
         <v>753</v>
@@ -57117,9 +55208,8 @@
       <c r="D281" t="s">
         <v>1</v>
       </c>
-      <c r="E281" t="str">
-        <f>VLOOKUP(B281,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motor vehicle and parts dealers (441)</v>
+      <c r="E281" t="s">
+        <v>997</v>
       </c>
       <c r="F281" t="s">
         <v>754</v>
@@ -57141,9 +55231,8 @@
       <c r="D282" t="s">
         <v>2</v>
       </c>
-      <c r="E282" t="str">
-        <f>VLOOKUP(B282,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food and beverage stores (445)</v>
+      <c r="E282" t="s">
+        <v>998</v>
       </c>
       <c r="F282" t="s">
         <v>755</v>
@@ -57165,9 +55254,8 @@
       <c r="D283" t="s">
         <v>3</v>
       </c>
-      <c r="E283" t="str">
-        <f>VLOOKUP(B283,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>General merchandise stores (452)</v>
+      <c r="E283" t="s">
+        <v>999</v>
       </c>
       <c r="F283" t="s">
         <v>756</v>
@@ -57189,9 +55277,8 @@
       <c r="D284" t="s">
         <v>427</v>
       </c>
-      <c r="E284" t="str">
-        <f>VLOOKUP(B284,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E284" t="s">
+        <v>1000</v>
       </c>
       <c r="F284" t="s">
         <v>757</v>
@@ -57213,9 +55300,8 @@
       <c r="D285" t="s">
         <v>428</v>
       </c>
-      <c r="E285" t="str">
-        <f>VLOOKUP(B285,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E285" t="s">
+        <v>1000</v>
       </c>
       <c r="F285" t="s">
         <v>757</v>
@@ -57237,9 +55323,8 @@
       <c r="D286" t="s">
         <v>429</v>
       </c>
-      <c r="E286" t="str">
-        <f>VLOOKUP(B286,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E286" t="s">
+        <v>1000</v>
       </c>
       <c r="F286" t="s">
         <v>757</v>
@@ -57261,9 +55346,8 @@
       <c r="D287" t="s">
         <v>430</v>
       </c>
-      <c r="E287" t="str">
-        <f>VLOOKUP(B287,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E287" t="s">
+        <v>1000</v>
       </c>
       <c r="F287" t="s">
         <v>757</v>
@@ -57285,9 +55369,8 @@
       <c r="D288" t="s">
         <v>431</v>
       </c>
-      <c r="E288" t="str">
-        <f>VLOOKUP(B288,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E288" t="s">
+        <v>1000</v>
       </c>
       <c r="F288" t="s">
         <v>757</v>
@@ -57309,9 +55392,8 @@
       <c r="D289" t="s">
         <v>459</v>
       </c>
-      <c r="E289" t="str">
-        <f>VLOOKUP(B289,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other retail (4A0)</v>
+      <c r="E289" t="s">
+        <v>1000</v>
       </c>
       <c r="F289" t="s">
         <v>757</v>
@@ -57333,9 +55415,8 @@
       <c r="D290" t="s">
         <v>4</v>
       </c>
-      <c r="E290" t="str">
-        <f>VLOOKUP(B290,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Air transportation (481)</v>
+      <c r="E290" t="s">
+        <v>1001</v>
       </c>
       <c r="F290" t="s">
         <v>758</v>
@@ -57357,9 +55438,8 @@
       <c r="D291" t="s">
         <v>5</v>
       </c>
-      <c r="E291" t="str">
-        <f>VLOOKUP(B291,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Rail transportation (482)</v>
+      <c r="E291" t="s">
+        <v>1002</v>
       </c>
       <c r="F291" t="s">
         <v>759</v>
@@ -57381,9 +55461,8 @@
       <c r="D292" t="s">
         <v>6</v>
       </c>
-      <c r="E292" t="str">
-        <f>VLOOKUP(B292,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Water transportation (483)</v>
+      <c r="E292" t="s">
+        <v>1003</v>
       </c>
       <c r="F292" t="s">
         <v>760</v>
@@ -57405,9 +55484,8 @@
       <c r="D293" t="s">
         <v>7</v>
       </c>
-      <c r="E293" t="str">
-        <f>VLOOKUP(B293,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Truck transportation (484)</v>
+      <c r="E293" t="s">
+        <v>1004</v>
       </c>
       <c r="F293" t="s">
         <v>761</v>
@@ -57429,9 +55507,8 @@
       <c r="D294" t="s">
         <v>8</v>
       </c>
-      <c r="E294" t="str">
-        <f>VLOOKUP(B294,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Transit and ground passenger transportation (485)</v>
+      <c r="E294" t="s">
+        <v>1005</v>
       </c>
       <c r="F294" t="s">
         <v>762</v>
@@ -57453,9 +55530,8 @@
       <c r="D295" t="s">
         <v>9</v>
       </c>
-      <c r="E295" t="str">
-        <f>VLOOKUP(B295,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Pipeline transportation (486)</v>
+      <c r="E295" t="s">
+        <v>1006</v>
       </c>
       <c r="F295" t="s">
         <v>763</v>
@@ -57477,9 +55553,8 @@
       <c r="D296" t="s">
         <v>618</v>
       </c>
-      <c r="E296" t="str">
-        <f>VLOOKUP(B296,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation and support activities (487OS)</v>
+      <c r="E296" t="s">
+        <v>1007</v>
       </c>
       <c r="F296" t="s">
         <v>764</v>
@@ -57501,9 +55576,8 @@
       <c r="D297" t="s">
         <v>303</v>
       </c>
-      <c r="E297" t="str">
-        <f>VLOOKUP(B297,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other transportation and support activities (487OS)</v>
+      <c r="E297" t="s">
+        <v>1007</v>
       </c>
       <c r="F297" t="s">
         <v>764</v>
@@ -57525,9 +55599,8 @@
       <c r="D298" t="s">
         <v>10</v>
       </c>
-      <c r="E298" t="str">
-        <f>VLOOKUP(B298,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Warehousing and storage (493)</v>
+      <c r="E298" t="s">
+        <v>1008</v>
       </c>
       <c r="F298" t="s">
         <v>765</v>
@@ -57549,9 +55622,8 @@
       <c r="D299" t="s">
         <v>304</v>
       </c>
-      <c r="E299" t="str">
-        <f>VLOOKUP(B299,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Publishing industries, except internet (includes software) (511)</v>
+      <c r="E299" t="s">
+        <v>1009</v>
       </c>
       <c r="F299" t="s">
         <v>766</v>
@@ -57573,9 +55645,8 @@
       <c r="D300" t="s">
         <v>623</v>
       </c>
-      <c r="E300" t="str">
-        <f>VLOOKUP(B300,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Publishing industries, except internet (includes software) (511)</v>
+      <c r="E300" t="s">
+        <v>1009</v>
       </c>
       <c r="F300" t="s">
         <v>766</v>
@@ -57597,9 +55668,8 @@
       <c r="D301" t="s">
         <v>305</v>
       </c>
-      <c r="E301" t="str">
-        <f>VLOOKUP(B301,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Publishing industries, except internet (includes software) (511)</v>
+      <c r="E301" t="s">
+        <v>1009</v>
       </c>
       <c r="F301" t="s">
         <v>766</v>
@@ -57621,9 +55691,8 @@
       <c r="D302" t="s">
         <v>307</v>
       </c>
-      <c r="E302" t="str">
-        <f>VLOOKUP(B302,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Publishing industries, except internet (includes software) (511)</v>
+      <c r="E302" t="s">
+        <v>1009</v>
       </c>
       <c r="F302" t="s">
         <v>766</v>
@@ -57645,9 +55714,8 @@
       <c r="D303" t="s">
         <v>308</v>
       </c>
-      <c r="E303" t="str">
-        <f>VLOOKUP(B303,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Publishing industries, except internet (includes software) (511)</v>
+      <c r="E303" t="s">
+        <v>1009</v>
       </c>
       <c r="F303" t="s">
         <v>766</v>
@@ -57669,9 +55737,8 @@
       <c r="D304" t="s">
         <v>309</v>
       </c>
-      <c r="E304" t="str">
-        <f>VLOOKUP(B304,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motion picture and sound recording industries (512)</v>
+      <c r="E304" t="s">
+        <v>1010</v>
       </c>
       <c r="F304" t="s">
         <v>767</v>
@@ -57693,9 +55760,8 @@
       <c r="D305" t="s">
         <v>310</v>
       </c>
-      <c r="E305" t="str">
-        <f>VLOOKUP(B305,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Motion picture and sound recording industries (512)</v>
+      <c r="E305" t="s">
+        <v>1010</v>
       </c>
       <c r="F305" t="s">
         <v>767</v>
@@ -57717,9 +55783,8 @@
       <c r="D306" t="s">
         <v>311</v>
       </c>
-      <c r="E306" t="str">
-        <f>VLOOKUP(B306,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Broadcasting and telecommunications (513)</v>
+      <c r="E306" t="s">
+        <v>1011</v>
       </c>
       <c r="F306" t="s">
         <v>768</v>
@@ -57741,9 +55806,8 @@
       <c r="D307" t="s">
         <v>312</v>
       </c>
-      <c r="E307" t="str">
-        <f>VLOOKUP(B307,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Broadcasting and telecommunications (513)</v>
+      <c r="E307" t="s">
+        <v>1011</v>
       </c>
       <c r="F307" t="s">
         <v>768</v>
@@ -57765,9 +55829,8 @@
       <c r="D308" t="s">
         <v>313</v>
       </c>
-      <c r="E308" t="str">
-        <f>VLOOKUP(B308,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Broadcasting and telecommunications (513)</v>
+      <c r="E308" t="s">
+        <v>1011</v>
       </c>
       <c r="F308" t="s">
         <v>768</v>
@@ -57789,9 +55852,8 @@
       <c r="D309" t="s">
         <v>314</v>
       </c>
-      <c r="E309" t="str">
-        <f>VLOOKUP(B309,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Broadcasting and telecommunications (513)</v>
+      <c r="E309" t="s">
+        <v>1011</v>
       </c>
       <c r="F309" t="s">
         <v>768</v>
@@ -57813,9 +55875,8 @@
       <c r="D310" t="s">
         <v>316</v>
       </c>
-      <c r="E310" t="str">
-        <f>VLOOKUP(B310,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Broadcasting and telecommunications (513)</v>
+      <c r="E310" t="s">
+        <v>1011</v>
       </c>
       <c r="F310" t="s">
         <v>768</v>
@@ -57837,9 +55898,8 @@
       <c r="D311" t="s">
         <v>317</v>
       </c>
-      <c r="E311" t="str">
-        <f>VLOOKUP(B311,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Data processing, internet publishing, and other information services (514)</v>
+      <c r="E311" t="s">
+        <v>1012</v>
       </c>
       <c r="F311" t="s">
         <v>769</v>
@@ -57861,9 +55921,8 @@
       <c r="D312" t="s">
         <v>320</v>
       </c>
-      <c r="E312" t="str">
-        <f>VLOOKUP(B312,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Data processing, internet publishing, and other information services (514)</v>
+      <c r="E312" t="s">
+        <v>1012</v>
       </c>
       <c r="F312" t="s">
         <v>769</v>
@@ -57885,9 +55944,8 @@
       <c r="D313" t="s">
         <v>319</v>
       </c>
-      <c r="E313" t="str">
-        <f>VLOOKUP(B313,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Data processing, internet publishing, and other information services (514)</v>
+      <c r="E313" t="s">
+        <v>1012</v>
       </c>
       <c r="F313" t="s">
         <v>769</v>
@@ -57909,9 +55967,8 @@
       <c r="D314" t="s">
         <v>322</v>
       </c>
-      <c r="E314" t="str">
-        <f>VLOOKUP(B314,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal Reserve banks, credit intermediation, and related activities (521CI)</v>
+      <c r="E314" t="s">
+        <v>1013</v>
       </c>
       <c r="F314" t="s">
         <v>770</v>
@@ -57933,9 +55990,8 @@
       <c r="D315" t="s">
         <v>324</v>
       </c>
-      <c r="E315" t="str">
-        <f>VLOOKUP(B315,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal Reserve banks, credit intermediation, and related activities (521CI)</v>
+      <c r="E315" t="s">
+        <v>1013</v>
       </c>
       <c r="F315" t="s">
         <v>770</v>
@@ -57957,9 +56013,8 @@
       <c r="D316" t="s">
         <v>326</v>
       </c>
-      <c r="E316" t="str">
-        <f>VLOOKUP(B316,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Securities, commodity contracts, and investments (523)</v>
+      <c r="E316" t="s">
+        <v>1014</v>
       </c>
       <c r="F316" t="s">
         <v>771</v>
@@ -57981,9 +56036,8 @@
       <c r="D317" t="s">
         <v>327</v>
       </c>
-      <c r="E317" t="str">
-        <f>VLOOKUP(B317,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Securities, commodity contracts, and investments (523)</v>
+      <c r="E317" t="s">
+        <v>1014</v>
       </c>
       <c r="F317" t="s">
         <v>771</v>
@@ -58005,9 +56059,8 @@
       <c r="D318" t="s">
         <v>460</v>
       </c>
-      <c r="E318" t="str">
-        <f>VLOOKUP(B318,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Insurance carriers and related activities (524)</v>
+      <c r="E318" t="s">
+        <v>1015</v>
       </c>
       <c r="F318" t="s">
         <v>772</v>
@@ -58029,9 +56082,8 @@
       <c r="D319" t="s">
         <v>432</v>
       </c>
-      <c r="E319" t="str">
-        <f>VLOOKUP(B319,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Insurance carriers and related activities (524)</v>
+      <c r="E319" t="s">
+        <v>1015</v>
       </c>
       <c r="F319" t="s">
         <v>772</v>
@@ -58053,9 +56105,8 @@
       <c r="D320" t="s">
         <v>328</v>
       </c>
-      <c r="E320" t="str">
-        <f>VLOOKUP(B320,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Insurance carriers and related activities (524)</v>
+      <c r="E320" t="s">
+        <v>1015</v>
       </c>
       <c r="F320" t="s">
         <v>772</v>
@@ -58077,9 +56128,8 @@
       <c r="D321" t="s">
         <v>11</v>
       </c>
-      <c r="E321" t="str">
-        <f>VLOOKUP(B321,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Funds, trusts, and other financial vehicles (525)</v>
+      <c r="E321" t="s">
+        <v>1016</v>
       </c>
       <c r="F321" t="s">
         <v>773</v>
@@ -58101,9 +56151,8 @@
       <c r="D322" t="s">
         <v>433</v>
       </c>
-      <c r="E322" t="str">
-        <f>VLOOKUP(B322,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Housing (HS)</v>
+      <c r="E322" t="s">
+        <v>1017</v>
       </c>
       <c r="F322" t="s">
         <v>774</v>
@@ -58125,9 +56174,8 @@
       <c r="D323" t="s">
         <v>434</v>
       </c>
-      <c r="E323" t="str">
-        <f>VLOOKUP(B323,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Housing (HS)</v>
+      <c r="E323" t="s">
+        <v>1017</v>
       </c>
       <c r="F323" t="s">
         <v>774</v>
@@ -58149,9 +56197,8 @@
       <c r="D324" t="s">
         <v>12</v>
       </c>
-      <c r="E324" t="str">
-        <f>VLOOKUP(B324,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other real estate (ORE)</v>
+      <c r="E324" t="s">
+        <v>1018</v>
       </c>
       <c r="F324" t="s">
         <v>775</v>
@@ -58173,9 +56220,8 @@
       <c r="D325" t="s">
         <v>330</v>
       </c>
-      <c r="E325" t="str">
-        <f>VLOOKUP(B325,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Rental and leasing services and lessors of intangible assets (532RL)</v>
+      <c r="E325" t="s">
+        <v>1019</v>
       </c>
       <c r="F325" t="s">
         <v>776</v>
@@ -58197,9 +56243,8 @@
       <c r="D326" t="s">
         <v>457</v>
       </c>
-      <c r="E326" t="str">
-        <f>VLOOKUP(B326,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Rental and leasing services and lessors of intangible assets (532RL)</v>
+      <c r="E326" t="s">
+        <v>1019</v>
       </c>
       <c r="F326" t="s">
         <v>776</v>
@@ -58221,9 +56266,8 @@
       <c r="D327" t="s">
         <v>332</v>
       </c>
-      <c r="E327" t="str">
-        <f>VLOOKUP(B327,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Rental and leasing services and lessors of intangible assets (532RL)</v>
+      <c r="E327" t="s">
+        <v>1019</v>
       </c>
       <c r="F327" t="s">
         <v>776</v>
@@ -58245,9 +56289,8 @@
       <c r="D328" t="s">
         <v>333</v>
       </c>
-      <c r="E328" t="str">
-        <f>VLOOKUP(B328,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Rental and leasing services and lessors of intangible assets (532RL)</v>
+      <c r="E328" t="s">
+        <v>1019</v>
       </c>
       <c r="F328" t="s">
         <v>776</v>
@@ -58269,9 +56312,8 @@
       <c r="D329" t="s">
         <v>13</v>
       </c>
-      <c r="E329" t="str">
-        <f>VLOOKUP(B329,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Legal services (5411)</v>
+      <c r="E329" t="s">
+        <v>1020</v>
       </c>
       <c r="F329" t="s">
         <v>777</v>
@@ -58293,9 +56335,8 @@
       <c r="D330" t="s">
         <v>338</v>
       </c>
-      <c r="E330" t="str">
-        <f>VLOOKUP(B330,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E330" t="s">
+        <v>1021</v>
       </c>
       <c r="F330" t="s">
         <v>779</v>
@@ -58317,9 +56358,8 @@
       <c r="D331" t="s">
         <v>339</v>
       </c>
-      <c r="E331" t="str">
-        <f>VLOOKUP(B331,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E331" t="s">
+        <v>1021</v>
       </c>
       <c r="F331" t="s">
         <v>779</v>
@@ -58341,9 +56381,8 @@
       <c r="D332" t="s">
         <v>341</v>
       </c>
-      <c r="E332" t="str">
-        <f>VLOOKUP(B332,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E332" t="s">
+        <v>1021</v>
       </c>
       <c r="F332" t="s">
         <v>779</v>
@@ -58365,9 +56404,8 @@
       <c r="D333" t="s">
         <v>343</v>
       </c>
-      <c r="E333" t="str">
-        <f>VLOOKUP(B333,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E333" t="s">
+        <v>1021</v>
       </c>
       <c r="F333" t="s">
         <v>779</v>
@@ -58389,9 +56427,8 @@
       <c r="D334" t="s">
         <v>344</v>
       </c>
-      <c r="E334" t="str">
-        <f>VLOOKUP(B334,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E334" t="s">
+        <v>1021</v>
       </c>
       <c r="F334" t="s">
         <v>779</v>
@@ -58413,9 +56450,8 @@
       <c r="D335" t="s">
         <v>345</v>
       </c>
-      <c r="E335" t="str">
-        <f>VLOOKUP(B335,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E335" t="s">
+        <v>1021</v>
       </c>
       <c r="F335" t="s">
         <v>779</v>
@@ -58437,9 +56473,8 @@
       <c r="D336" t="s">
         <v>340</v>
       </c>
-      <c r="E336" t="str">
-        <f>VLOOKUP(B336,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E336" t="s">
+        <v>1021</v>
       </c>
       <c r="F336" t="s">
         <v>779</v>
@@ -58461,9 +56496,8 @@
       <c r="D337" t="s">
         <v>661</v>
       </c>
-      <c r="E337" t="str">
-        <f>VLOOKUP(B337,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E337" t="s">
+        <v>1021</v>
       </c>
       <c r="F337" t="s">
         <v>779</v>
@@ -58485,9 +56519,8 @@
       <c r="D338" t="s">
         <v>347</v>
       </c>
-      <c r="E338" t="str">
-        <f>VLOOKUP(B338,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E338" t="s">
+        <v>1021</v>
       </c>
       <c r="F338" t="s">
         <v>779</v>
@@ -58509,9 +56542,8 @@
       <c r="D339" t="s">
         <v>348</v>
       </c>
-      <c r="E339" t="str">
-        <f>VLOOKUP(B339,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Miscellaneous professional, scientific, and technical services (5412OP)</v>
+      <c r="E339" t="s">
+        <v>1021</v>
       </c>
       <c r="F339" t="s">
         <v>779</v>
@@ -58533,9 +56565,8 @@
       <c r="D340" t="s">
         <v>334</v>
       </c>
-      <c r="E340" t="str">
-        <f>VLOOKUP(B340,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer systems design and related services (5415)</v>
+      <c r="E340" t="s">
+        <v>1022</v>
       </c>
       <c r="F340" t="s">
         <v>778</v>
@@ -58557,9 +56588,8 @@
       <c r="D341" t="s">
         <v>335</v>
       </c>
-      <c r="E341" t="str">
-        <f>VLOOKUP(B341,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer systems design and related services (5415)</v>
+      <c r="E341" t="s">
+        <v>1022</v>
       </c>
       <c r="F341" t="s">
         <v>778</v>
@@ -58581,9 +56611,8 @@
       <c r="D342" t="s">
         <v>337</v>
       </c>
-      <c r="E342" t="str">
-        <f>VLOOKUP(B342,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Computer systems design and related services (5415)</v>
+      <c r="E342" t="s">
+        <v>1022</v>
       </c>
       <c r="F342" t="s">
         <v>778</v>
@@ -58605,9 +56634,8 @@
       <c r="D343" t="s">
         <v>14</v>
       </c>
-      <c r="E343" t="str">
-        <f>VLOOKUP(B343,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Management of companies and enterprises (55)</v>
+      <c r="E343" t="s">
+        <v>1023</v>
       </c>
       <c r="F343" t="s">
         <v>780</v>
@@ -58629,9 +56657,8 @@
       <c r="D344" t="s">
         <v>351</v>
       </c>
-      <c r="E344" t="str">
-        <f>VLOOKUP(B344,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E344" t="s">
+        <v>1024</v>
       </c>
       <c r="F344" t="s">
         <v>781</v>
@@ -58653,9 +56680,8 @@
       <c r="D345" t="s">
         <v>355</v>
       </c>
-      <c r="E345" t="str">
-        <f>VLOOKUP(B345,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E345" t="s">
+        <v>1024</v>
       </c>
       <c r="F345" t="s">
         <v>781</v>
@@ -58677,9 +56703,8 @@
       <c r="D346" t="s">
         <v>349</v>
       </c>
-      <c r="E346" t="str">
-        <f>VLOOKUP(B346,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E346" t="s">
+        <v>1024</v>
       </c>
       <c r="F346" t="s">
         <v>781</v>
@@ -58701,9 +56726,8 @@
       <c r="D347" t="s">
         <v>350</v>
       </c>
-      <c r="E347" t="str">
-        <f>VLOOKUP(B347,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E347" t="s">
+        <v>1024</v>
       </c>
       <c r="F347" t="s">
         <v>781</v>
@@ -58725,9 +56749,8 @@
       <c r="D348" t="s">
         <v>352</v>
       </c>
-      <c r="E348" t="str">
-        <f>VLOOKUP(B348,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E348" t="s">
+        <v>1024</v>
       </c>
       <c r="F348" t="s">
         <v>781</v>
@@ -58749,9 +56772,8 @@
       <c r="D349" t="s">
         <v>353</v>
       </c>
-      <c r="E349" t="str">
-        <f>VLOOKUP(B349,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E349" t="s">
+        <v>1024</v>
       </c>
       <c r="F349" t="s">
         <v>781</v>
@@ -58773,9 +56795,8 @@
       <c r="D350" t="s">
         <v>354</v>
       </c>
-      <c r="E350" t="str">
-        <f>VLOOKUP(B350,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E350" t="s">
+        <v>1024</v>
       </c>
       <c r="F350" t="s">
         <v>781</v>
@@ -58797,9 +56818,8 @@
       <c r="D351" t="s">
         <v>356</v>
       </c>
-      <c r="E351" t="str">
-        <f>VLOOKUP(B351,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Administrative and support services (561)</v>
+      <c r="E351" t="s">
+        <v>1024</v>
       </c>
       <c r="F351" t="s">
         <v>781</v>
@@ -58821,9 +56841,8 @@
       <c r="D352" t="s">
         <v>15</v>
       </c>
-      <c r="E352" t="str">
-        <f>VLOOKUP(B352,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Waste management and remediation services (562)</v>
+      <c r="E352" t="s">
+        <v>1025</v>
       </c>
       <c r="F352" t="s">
         <v>782</v>
@@ -58845,9 +56864,8 @@
       <c r="D353" t="s">
         <v>357</v>
       </c>
-      <c r="E353" t="str">
-        <f>VLOOKUP(B353,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Educational services (61)</v>
+      <c r="E353" t="s">
+        <v>1026</v>
       </c>
       <c r="F353" t="s">
         <v>783</v>
@@ -58869,9 +56887,8 @@
       <c r="D354" t="s">
         <v>359</v>
       </c>
-      <c r="E354" t="str">
-        <f>VLOOKUP(B354,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Educational services (61)</v>
+      <c r="E354" t="s">
+        <v>1026</v>
       </c>
       <c r="F354" t="s">
         <v>783</v>
@@ -58893,9 +56910,8 @@
       <c r="D355" t="s">
         <v>361</v>
       </c>
-      <c r="E355" t="str">
-        <f>VLOOKUP(B355,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Educational services (61)</v>
+      <c r="E355" t="s">
+        <v>1026</v>
       </c>
       <c r="F355" t="s">
         <v>783</v>
@@ -58917,9 +56933,8 @@
       <c r="D356" t="s">
         <v>362</v>
       </c>
-      <c r="E356" t="str">
-        <f>VLOOKUP(B356,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E356" t="s">
+        <v>1027</v>
       </c>
       <c r="F356" t="s">
         <v>784</v>
@@ -58941,9 +56956,8 @@
       <c r="D357" t="s">
         <v>363</v>
       </c>
-      <c r="E357" t="str">
-        <f>VLOOKUP(B357,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E357" t="s">
+        <v>1027</v>
       </c>
       <c r="F357" t="s">
         <v>784</v>
@@ -58965,9 +56979,8 @@
       <c r="D358" t="s">
         <v>364</v>
       </c>
-      <c r="E358" t="str">
-        <f>VLOOKUP(B358,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E358" t="s">
+        <v>1027</v>
       </c>
       <c r="F358" t="s">
         <v>784</v>
@@ -58989,9 +57002,8 @@
       <c r="D359" t="s">
         <v>365</v>
       </c>
-      <c r="E359" t="str">
-        <f>VLOOKUP(B359,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E359" t="s">
+        <v>1027</v>
       </c>
       <c r="F359" t="s">
         <v>784</v>
@@ -59013,9 +57025,8 @@
       <c r="D360" t="s">
         <v>366</v>
       </c>
-      <c r="E360" t="str">
-        <f>VLOOKUP(B360,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E360" t="s">
+        <v>1027</v>
       </c>
       <c r="F360" t="s">
         <v>784</v>
@@ -59037,9 +57048,8 @@
       <c r="D361" t="s">
         <v>367</v>
       </c>
-      <c r="E361" t="str">
-        <f>VLOOKUP(B361,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E361" t="s">
+        <v>1027</v>
       </c>
       <c r="F361" t="s">
         <v>784</v>
@@ -59061,9 +57071,8 @@
       <c r="D362" t="s">
         <v>368</v>
       </c>
-      <c r="E362" t="str">
-        <f>VLOOKUP(B362,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Ambulatory health care services (621)</v>
+      <c r="E362" t="s">
+        <v>1027</v>
       </c>
       <c r="F362" t="s">
         <v>784</v>
@@ -59085,9 +57094,8 @@
       <c r="D363" t="s">
         <v>16</v>
       </c>
-      <c r="E363" t="str">
-        <f>VLOOKUP(B363,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Hospitals (622)</v>
+      <c r="E363" t="s">
+        <v>1028</v>
       </c>
       <c r="F363" t="s">
         <v>785</v>
@@ -59109,9 +57117,8 @@
       <c r="D364" t="s">
         <v>370</v>
       </c>
-      <c r="E364" t="str">
-        <f>VLOOKUP(B364,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nursing and residential care facilities (623)</v>
+      <c r="E364" t="s">
+        <v>1029</v>
       </c>
       <c r="F364" t="s">
         <v>786</v>
@@ -59133,9 +57140,8 @@
       <c r="D365" t="s">
         <v>458</v>
       </c>
-      <c r="E365" t="str">
-        <f>VLOOKUP(B365,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nursing and residential care facilities (623)</v>
+      <c r="E365" t="s">
+        <v>1029</v>
       </c>
       <c r="F365" t="s">
         <v>786</v>
@@ -59157,9 +57163,8 @@
       <c r="D366" t="s">
         <v>372</v>
       </c>
-      <c r="E366" t="str">
-        <f>VLOOKUP(B366,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Social assistance (624)</v>
+      <c r="E366" t="s">
+        <v>1030</v>
       </c>
       <c r="F366" t="s">
         <v>787</v>
@@ -59181,9 +57186,8 @@
       <c r="D367" t="s">
         <v>681</v>
       </c>
-      <c r="E367" t="str">
-        <f>VLOOKUP(B367,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Social assistance (624)</v>
+      <c r="E367" t="s">
+        <v>1030</v>
       </c>
       <c r="F367" t="s">
         <v>787</v>
@@ -59205,9 +57209,8 @@
       <c r="D368" t="s">
         <v>374</v>
       </c>
-      <c r="E368" t="str">
-        <f>VLOOKUP(B368,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Social assistance (624)</v>
+      <c r="E368" t="s">
+        <v>1030</v>
       </c>
       <c r="F368" t="s">
         <v>787</v>
@@ -59229,9 +57232,8 @@
       <c r="D369" t="s">
         <v>375</v>
       </c>
-      <c r="E369" t="str">
-        <f>VLOOKUP(B369,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
+      <c r="E369" t="s">
+        <v>1031</v>
       </c>
       <c r="F369" t="s">
         <v>788</v>
@@ -59253,9 +57255,8 @@
       <c r="D370" t="s">
         <v>376</v>
       </c>
-      <c r="E370" t="str">
-        <f>VLOOKUP(B370,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
+      <c r="E370" t="s">
+        <v>1031</v>
       </c>
       <c r="F370" t="s">
         <v>788</v>
@@ -59277,9 +57278,8 @@
       <c r="D371" t="s">
         <v>378</v>
       </c>
-      <c r="E371" t="str">
-        <f>VLOOKUP(B371,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
+      <c r="E371" t="s">
+        <v>1031</v>
       </c>
       <c r="F371" t="s">
         <v>788</v>
@@ -59301,9 +57301,8 @@
       <c r="D372" t="s">
         <v>379</v>
       </c>
-      <c r="E372" t="str">
-        <f>VLOOKUP(B372,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
+      <c r="E372" t="s">
+        <v>1031</v>
       </c>
       <c r="F372" t="s">
         <v>788</v>
@@ -59325,9 +57324,8 @@
       <c r="D373" t="s">
         <v>380</v>
       </c>
-      <c r="E373" t="str">
-        <f>VLOOKUP(B373,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Performing arts, spectator sports, museums, and related activities (711AS)</v>
+      <c r="E373" t="s">
+        <v>1031</v>
       </c>
       <c r="F373" t="s">
         <v>788</v>
@@ -59349,9 +57347,8 @@
       <c r="D374" t="s">
         <v>381</v>
       </c>
-      <c r="E374" t="str">
-        <f>VLOOKUP(B374,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Amusements, gambling, and recreation industries (713)</v>
+      <c r="E374" t="s">
+        <v>1032</v>
       </c>
       <c r="F374" t="s">
         <v>789</v>
@@ -59373,9 +57370,8 @@
       <c r="D375" t="s">
         <v>382</v>
       </c>
-      <c r="E375" t="str">
-        <f>VLOOKUP(B375,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Amusements, gambling, and recreation industries (713)</v>
+      <c r="E375" t="s">
+        <v>1032</v>
       </c>
       <c r="F375" t="s">
         <v>789</v>
@@ -59397,9 +57393,8 @@
       <c r="D376" t="s">
         <v>383</v>
       </c>
-      <c r="E376" t="str">
-        <f>VLOOKUP(B376,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Amusements, gambling, and recreation industries (713)</v>
+      <c r="E376" t="s">
+        <v>1032</v>
       </c>
       <c r="F376" t="s">
         <v>789</v>
@@ -59421,9 +57416,8 @@
       <c r="D377" t="s">
         <v>17</v>
       </c>
-      <c r="E377" t="str">
-        <f>VLOOKUP(B377,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Accommodation (721)</v>
+      <c r="E377" t="s">
+        <v>1033</v>
       </c>
       <c r="F377" t="s">
         <v>790</v>
@@ -59445,9 +57439,8 @@
       <c r="D378" t="s">
         <v>384</v>
       </c>
-      <c r="E378" t="str">
-        <f>VLOOKUP(B378,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food services and drinking places (722)</v>
+      <c r="E378" t="s">
+        <v>1034</v>
       </c>
       <c r="F378" t="s">
         <v>791</v>
@@ -59469,9 +57462,8 @@
       <c r="D379" t="s">
         <v>385</v>
       </c>
-      <c r="E379" t="str">
-        <f>VLOOKUP(B379,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food services and drinking places (722)</v>
+      <c r="E379" t="s">
+        <v>1034</v>
       </c>
       <c r="F379" t="s">
         <v>791</v>
@@ -59493,9 +57485,8 @@
       <c r="D380" t="s">
         <v>387</v>
       </c>
-      <c r="E380" t="str">
-        <f>VLOOKUP(B380,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Food services and drinking places (722)</v>
+      <c r="E380" t="s">
+        <v>1034</v>
       </c>
       <c r="F380" t="s">
         <v>791</v>
@@ -59517,9 +57508,8 @@
       <c r="D381" t="s">
         <v>468</v>
       </c>
-      <c r="E381" t="str">
-        <f>VLOOKUP(B381,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E381" t="s">
+        <v>1035</v>
       </c>
       <c r="F381" t="s">
         <v>792</v>
@@ -59541,9 +57531,8 @@
       <c r="D382" t="s">
         <v>388</v>
       </c>
-      <c r="E382" t="str">
-        <f>VLOOKUP(B382,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E382" t="s">
+        <v>1035</v>
       </c>
       <c r="F382" t="s">
         <v>792</v>
@@ -59565,9 +57554,8 @@
       <c r="D383" t="s">
         <v>389</v>
       </c>
-      <c r="E383" t="str">
-        <f>VLOOKUP(B383,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E383" t="s">
+        <v>1035</v>
       </c>
       <c r="F383" t="s">
         <v>792</v>
@@ -59589,9 +57577,8 @@
       <c r="D384" t="s">
         <v>390</v>
       </c>
-      <c r="E384" t="str">
-        <f>VLOOKUP(B384,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E384" t="s">
+        <v>1035</v>
       </c>
       <c r="F384" t="s">
         <v>792</v>
@@ -59613,9 +57600,8 @@
       <c r="D385" t="s">
         <v>391</v>
       </c>
-      <c r="E385" t="str">
-        <f>VLOOKUP(B385,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E385" t="s">
+        <v>1035</v>
       </c>
       <c r="F385" t="s">
         <v>792</v>
@@ -59637,9 +57623,8 @@
       <c r="D386" t="s">
         <v>392</v>
       </c>
-      <c r="E386" t="str">
-        <f>VLOOKUP(B386,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E386" t="s">
+        <v>1035</v>
       </c>
       <c r="F386" t="s">
         <v>792</v>
@@ -59661,9 +57646,8 @@
       <c r="D387" t="s">
         <v>393</v>
       </c>
-      <c r="E387" t="str">
-        <f>VLOOKUP(B387,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E387" t="s">
+        <v>1035</v>
       </c>
       <c r="F387" t="s">
         <v>792</v>
@@ -59685,9 +57669,8 @@
       <c r="D388" t="s">
         <v>394</v>
       </c>
-      <c r="E388" t="str">
-        <f>VLOOKUP(B388,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E388" t="s">
+        <v>1035</v>
       </c>
       <c r="F388" t="s">
         <v>792</v>
@@ -59709,9 +57692,8 @@
       <c r="D389" t="s">
         <v>395</v>
       </c>
-      <c r="E389" t="str">
-        <f>VLOOKUP(B389,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E389" t="s">
+        <v>1035</v>
       </c>
       <c r="F389" t="s">
         <v>792</v>
@@ -59733,9 +57715,8 @@
       <c r="D390" t="s">
         <v>397</v>
       </c>
-      <c r="E390" t="str">
-        <f>VLOOKUP(B390,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E390" t="s">
+        <v>1035</v>
       </c>
       <c r="F390" t="s">
         <v>792</v>
@@ -59757,9 +57738,8 @@
       <c r="D391" t="s">
         <v>399</v>
       </c>
-      <c r="E391" t="str">
-        <f>VLOOKUP(B391,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E391" t="s">
+        <v>1035</v>
       </c>
       <c r="F391" t="s">
         <v>792</v>
@@ -59781,9 +57761,8 @@
       <c r="D392" t="s">
         <v>400</v>
       </c>
-      <c r="E392" t="str">
-        <f>VLOOKUP(B392,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other services, except government (81)</v>
+      <c r="E392" t="s">
+        <v>1035</v>
       </c>
       <c r="F392" t="s">
         <v>792</v>
@@ -59805,9 +57784,8 @@
       <c r="D393" t="s">
         <v>18</v>
       </c>
-      <c r="E393" t="str">
-        <f>VLOOKUP(B393,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal general government (defense) (GFGD)</v>
+      <c r="E393" t="s">
+        <v>1036</v>
       </c>
       <c r="F393" t="s">
         <v>793</v>
@@ -59829,9 +57807,8 @@
       <c r="D394" t="s">
         <v>19</v>
       </c>
-      <c r="E394" t="str">
-        <f>VLOOKUP(B394,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal general government (nondefense) (GFGN)</v>
+      <c r="E394" t="s">
+        <v>1037</v>
       </c>
       <c r="F394" t="s">
         <v>794</v>
@@ -59853,9 +57830,8 @@
       <c r="D395" t="s">
         <v>403</v>
       </c>
-      <c r="E395" t="str">
-        <f>VLOOKUP(B395,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal government enterprises (GFE)</v>
+      <c r="E395" t="s">
+        <v>1038</v>
       </c>
       <c r="F395" t="s">
         <v>795</v>
@@ -59877,9 +57853,8 @@
       <c r="D396" t="s">
         <v>405</v>
       </c>
-      <c r="E396" t="str">
-        <f>VLOOKUP(B396,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal government enterprises (GFE)</v>
+      <c r="E396" t="s">
+        <v>1038</v>
       </c>
       <c r="F396" t="s">
         <v>795</v>
@@ -59901,9 +57876,8 @@
       <c r="D397" t="s">
         <v>407</v>
       </c>
-      <c r="E397" t="str">
-        <f>VLOOKUP(B397,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal government enterprises (GFE)</v>
+      <c r="E397" t="s">
+        <v>1038</v>
       </c>
       <c r="F397" t="s">
         <v>795</v>
@@ -59925,9 +57899,8 @@
       <c r="D398" t="s">
         <v>469</v>
       </c>
-      <c r="E398" t="str">
-        <f>VLOOKUP(B398,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local general government (GSLG)</v>
+      <c r="E398" t="s">
+        <v>1039</v>
       </c>
       <c r="F398" t="s">
         <v>796</v>
@@ -59949,9 +57922,8 @@
       <c r="D399" t="s">
         <v>470</v>
       </c>
-      <c r="E399" t="str">
-        <f>VLOOKUP(B399,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local general government (GSLG)</v>
+      <c r="E399" t="s">
+        <v>1039</v>
       </c>
       <c r="F399" t="s">
         <v>796</v>
@@ -59973,9 +57945,8 @@
       <c r="D400" t="s">
         <v>471</v>
       </c>
-      <c r="E400" t="str">
-        <f>VLOOKUP(B400,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local general government (GSLG)</v>
+      <c r="E400" t="s">
+        <v>1039</v>
       </c>
       <c r="F400" t="s">
         <v>796</v>
@@ -59997,9 +57968,8 @@
       <c r="D401" t="s">
         <v>409</v>
       </c>
-      <c r="E401" t="str">
-        <f>VLOOKUP(B401,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local government enterprises (GSLE)</v>
+      <c r="E401" t="s">
+        <v>1040</v>
       </c>
       <c r="F401" t="s">
         <v>797</v>
@@ -60021,9 +57991,8 @@
       <c r="D402" t="s">
         <v>411</v>
       </c>
-      <c r="E402" t="str">
-        <f>VLOOKUP(B402,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local government enterprises (GSLE)</v>
+      <c r="E402" t="s">
+        <v>1040</v>
       </c>
       <c r="F402" t="s">
         <v>797</v>
@@ -60045,9 +58014,8 @@
       <c r="D403" t="s">
         <v>413</v>
       </c>
-      <c r="E403" t="str">
-        <f>VLOOKUP(B403,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local government enterprises (GSLE)</v>
+      <c r="E403" t="s">
+        <v>1040</v>
       </c>
       <c r="F403" t="s">
         <v>797</v>
@@ -60069,9 +58037,8 @@
       <c r="D404" t="s">
         <v>415</v>
       </c>
-      <c r="E404" t="str">
-        <f>VLOOKUP(B404,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Scrap, used and secondhand goods (Used)</v>
+      <c r="E404" t="s">
+        <v>1041</v>
       </c>
       <c r="F404" t="s">
         <v>799</v>
@@ -60093,9 +58060,8 @@
       <c r="D405" t="s">
         <v>417</v>
       </c>
-      <c r="E405" t="str">
-        <f>VLOOKUP(B405,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Scrap, used and secondhand goods (Used)</v>
+      <c r="E405" t="s">
+        <v>1041</v>
       </c>
       <c r="F405" t="s">
         <v>799</v>
@@ -60117,9 +58083,8 @@
       <c r="D406" t="s">
         <v>419</v>
       </c>
-      <c r="E406" t="str">
-        <f>VLOOKUP(B406,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Noncomparable imports and rest-of-the-world adjustment (Other)</v>
+      <c r="E406" t="s">
+        <v>1042</v>
       </c>
       <c r="F406" t="s">
         <v>798</v>
@@ -60141,9 +58106,8 @@
       <c r="D407" t="s">
         <v>421</v>
       </c>
-      <c r="E407" t="str">
-        <f>VLOOKUP(B407,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Noncomparable imports and rest-of-the-world adjustment (Other)</v>
+      <c r="E407" t="s">
+        <v>1042</v>
       </c>
       <c r="F407" t="s">
         <v>798</v>
@@ -60165,9 +58129,8 @@
       <c r="D408" t="s">
         <v>899</v>
       </c>
-      <c r="E408" t="str">
-        <f>VLOOKUP(B408,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonresidential private fixed investment in equipment (F02E)</v>
+      <c r="E408" t="s">
+        <v>1043</v>
       </c>
       <c r="F408" t="s">
         <v>817</v>
@@ -60189,9 +58152,8 @@
       <c r="D409" t="s">
         <v>905</v>
       </c>
-      <c r="E409" t="str">
-        <f>VLOOKUP(B409,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonresidential private fixed investment in intellectual property products (F02N)</v>
+      <c r="E409" t="s">
+        <v>1044</v>
       </c>
       <c r="F409" t="s">
         <v>818</v>
@@ -60213,9 +58175,8 @@
       <c r="D410" t="s">
         <v>902</v>
       </c>
-      <c r="E410" t="str">
-        <f>VLOOKUP(B410,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Residential private fixed investment (F02R)</v>
+      <c r="E410" t="s">
+        <v>1045</v>
       </c>
       <c r="F410" t="s">
         <v>819</v>
@@ -60237,9 +58198,8 @@
       <c r="D411" t="s">
         <v>900</v>
       </c>
-      <c r="E411" t="str">
-        <f>VLOOKUP(B411,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nonresidential private fixed investment in structures (F02S)</v>
+      <c r="E411" t="s">
+        <v>1046</v>
       </c>
       <c r="F411" t="s">
         <v>820</v>
@@ -60261,9 +58221,8 @@
       <c r="D412" t="s">
         <v>893</v>
       </c>
-      <c r="E412" t="str">
-        <f>VLOOKUP(B412,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Change in private inventories (F030)</v>
+      <c r="E412" t="s">
+        <v>1047</v>
       </c>
       <c r="F412" t="s">
         <v>821</v>
@@ -60285,9 +58244,8 @@
       <c r="D413" t="s">
         <v>901</v>
       </c>
-      <c r="E413" t="str">
-        <f>VLOOKUP(B413,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>National defense: Consumption expenditures (F06C)</v>
+      <c r="E413" t="s">
+        <v>1048</v>
       </c>
       <c r="F413" t="s">
         <v>823</v>
@@ -60309,9 +58267,8 @@
       <c r="D414" t="s">
         <v>892</v>
       </c>
-      <c r="E414" t="str">
-        <f>VLOOKUP(B414,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal national defense: Gross investment in equipment (F06E)</v>
+      <c r="E414" t="s">
+        <v>1049</v>
       </c>
       <c r="F414" t="s">
         <v>824</v>
@@ -60333,9 +58290,8 @@
       <c r="D415" t="s">
         <v>896</v>
       </c>
-      <c r="E415" t="str">
-        <f>VLOOKUP(B415,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal national defense: Gross investment in intellectual property products (F06N)</v>
+      <c r="E415" t="s">
+        <v>1050</v>
       </c>
       <c r="F415" t="s">
         <v>825</v>
@@ -60357,9 +58313,8 @@
       <c r="D416" t="s">
         <v>894</v>
       </c>
-      <c r="E416" t="str">
-        <f>VLOOKUP(B416,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal national defense: Gross investment in structures (F06S)</v>
+      <c r="E416" t="s">
+        <v>1051</v>
       </c>
       <c r="F416" t="s">
         <v>826</v>
@@ -60381,9 +58336,8 @@
       <c r="D417" t="s">
         <v>897</v>
       </c>
-      <c r="E417" t="str">
-        <f>VLOOKUP(B417,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Nondefense: Consumption expenditures (F07C)</v>
+      <c r="E417" t="s">
+        <v>1052</v>
       </c>
       <c r="F417" t="s">
         <v>827</v>
@@ -60405,9 +58359,8 @@
       <c r="D418" t="s">
         <v>898</v>
       </c>
-      <c r="E418" t="str">
-        <f>VLOOKUP(B418,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal nondefense: Gross investment in equipment (F07E)</v>
+      <c r="E418" t="s">
+        <v>1053</v>
       </c>
       <c r="F418" t="s">
         <v>828</v>
@@ -60429,9 +58382,8 @@
       <c r="D419" t="s">
         <v>908</v>
       </c>
-      <c r="E419" t="str">
-        <f>VLOOKUP(B419,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal nondefense: Gross investment in intellectual property products (F07N)</v>
+      <c r="E419" t="s">
+        <v>1054</v>
       </c>
       <c r="F419" t="s">
         <v>829</v>
@@ -60453,9 +58405,8 @@
       <c r="D420" t="s">
         <v>891</v>
       </c>
-      <c r="E420" t="str">
-        <f>VLOOKUP(B420,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Federal nondefense: Gross investment in structures (F07S)</v>
+      <c r="E420" t="s">
+        <v>1055</v>
       </c>
       <c r="F420" t="s">
         <v>830</v>
@@ -60477,9 +58428,8 @@
       <c r="D421" t="s">
         <v>907</v>
       </c>
-      <c r="E421" t="str">
-        <f>VLOOKUP(B421,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local government consumption expenditures (F10C)</v>
+      <c r="E421" t="s">
+        <v>1056</v>
       </c>
       <c r="F421" t="s">
         <v>831</v>
@@ -60501,9 +58451,8 @@
       <c r="D422" t="s">
         <v>895</v>
       </c>
-      <c r="E422" t="str">
-        <f>VLOOKUP(B422,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local: Gross investment in equipment (F10E)</v>
+      <c r="E422" t="s">
+        <v>1057</v>
       </c>
       <c r="F422" t="s">
         <v>832</v>
@@ -60525,9 +58474,8 @@
       <c r="D423" t="s">
         <v>904</v>
       </c>
-      <c r="E423" t="str">
-        <f>VLOOKUP(B423,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local: Gross investment in intellectual property products (F10N)</v>
+      <c r="E423" t="s">
+        <v>1058</v>
       </c>
       <c r="F423" t="s">
         <v>833</v>
@@ -60549,9 +58497,8 @@
       <c r="D424" t="s">
         <v>903</v>
       </c>
-      <c r="E424" t="str">
-        <f>VLOOKUP(B424,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>State and local: Gross investment in structures (F10S)</v>
+      <c r="E424" t="s">
+        <v>1059</v>
       </c>
       <c r="F424" t="s">
         <v>834</v>
@@ -60573,9 +58520,8 @@
       <c r="D425" t="s">
         <v>906</v>
       </c>
-      <c r="E425" t="str">
-        <f>VLOOKUP(B425,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Personal consumption expenditures (F010)</v>
+      <c r="E425" t="s">
+        <v>1060</v>
       </c>
       <c r="F425" t="s">
         <v>816</v>
@@ -60597,9 +58543,8 @@
       <c r="D426" t="s">
         <v>941</v>
       </c>
-      <c r="E426" t="str">
-        <f>VLOOKUP(B426,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Exports of goods and services (F040)</v>
+      <c r="E426" t="s">
+        <v>1061</v>
       </c>
       <c r="F426" t="s">
         <v>822</v>
@@ -60644,9 +58589,8 @@
       <c r="D428" t="s">
         <v>932</v>
       </c>
-      <c r="E428" t="str">
-        <f>VLOOKUP(B428,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Total Intermediate (T005)</v>
+      <c r="E428" t="s">
+        <v>1062</v>
       </c>
       <c r="F428" t="s">
         <v>806</v>
@@ -60668,9 +58612,8 @@
       <c r="D429" t="s">
         <v>933</v>
       </c>
-      <c r="E429" t="str">
-        <f>VLOOKUP(B429,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Compensation of employees (V001)</v>
+      <c r="E429" t="s">
+        <v>1063</v>
       </c>
       <c r="F429" t="s">
         <v>807</v>
@@ -60692,9 +58635,8 @@
       <c r="D430" t="s">
         <v>934</v>
       </c>
-      <c r="E430" t="str">
-        <f>VLOOKUP(B430,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Gross operating surplus (V003)</v>
+      <c r="E430" t="s">
+        <v>1064</v>
       </c>
       <c r="F430" t="s">
         <v>808</v>
@@ -60716,9 +58658,8 @@
       <c r="D431" t="s">
         <v>935</v>
       </c>
-      <c r="E431" t="str">
-        <f>VLOOKUP(B431,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Other taxes on production (T00OTOP)</v>
+      <c r="E431" t="s">
+        <v>969</v>
       </c>
       <c r="F431" t="s">
         <v>809</v>
@@ -60740,9 +58681,8 @@
       <c r="D432" t="s">
         <v>936</v>
       </c>
-      <c r="E432" t="str">
-        <f>VLOOKUP(B432,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Value Added (basic prices) (VABAS)</v>
+      <c r="E432" t="s">
+        <v>1065</v>
       </c>
       <c r="F432" t="s">
         <v>810</v>
@@ -60764,9 +58704,8 @@
       <c r="D433" t="s">
         <v>937</v>
       </c>
-      <c r="E433" t="str">
-        <f>VLOOKUP(B433,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Total industry output (basic prices) (T018)</v>
+      <c r="E433" t="s">
+        <v>1066</v>
       </c>
       <c r="F433" t="s">
         <v>811</v>
@@ -60788,9 +58727,8 @@
       <c r="D434" t="s">
         <v>938</v>
       </c>
-      <c r="E434" t="str">
-        <f>VLOOKUP(B434,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Taxes on products and imports (T00TOP)</v>
+      <c r="E434" t="s">
+        <v>1067</v>
       </c>
       <c r="F434" t="s">
         <v>812</v>
@@ -60812,9 +58750,8 @@
       <c r="D435" t="s">
         <v>939</v>
       </c>
-      <c r="E435" t="str">
-        <f>VLOOKUP(B435,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Less: Subsidies (T00SUB)</v>
+      <c r="E435" t="s">
+        <v>1068</v>
       </c>
       <c r="F435" t="s">
         <v>813</v>
@@ -60836,9 +58773,8 @@
       <c r="D436" t="s">
         <v>940</v>
       </c>
-      <c r="E436" t="str">
-        <f>VLOOKUP(B436,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Value Added (producer prices) (VAPRO)</v>
+      <c r="E436" t="s">
+        <v>1069</v>
       </c>
       <c r="F436" t="s">
         <v>814</v>
@@ -60860,9 +58796,8 @@
       <c r="D437" t="s">
         <v>932</v>
       </c>
-      <c r="E437" t="str">
-        <f>VLOOKUP(B437,[1]bea_all!A$2:E$117,5,FALSE)</f>
-        <v>Total Intermediate (T001)</v>
+      <c r="E437" t="s">
+        <v>1070</v>
       </c>
       <c r="F437" t="s">
         <v>815</v>
@@ -60924,7 +58859,7 @@
       <c r="B440" t="s">
         <v>885</v>
       </c>
-      <c r="C440" s="46" t="s">
+      <c r="C440" t="s">
         <v>885</v>
       </c>
       <c r="D440" t="s">

--- a/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
+++ b/data/BEA-Industry-and-Commodity-Codes-and-NAICS-Concordance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\WiNnat_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B123789-72D5-45C4-AFC8-C13461E363B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3CA3F-2BE0-482C-BF4F-901A0CDD7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8715" yWindow="-21600" windowWidth="19410" windowHeight="21705" tabRatio="463" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="1077">
   <si>
     <t>Oil and gas extraction</t>
   </si>
@@ -3650,6 +3650,24 @@
   </si>
   <si>
     <t>Total Intermediate (T001)</t>
+  </si>
+  <si>
+    <t>rnw</t>
+  </si>
+  <si>
+    <t>Created code for renewables separated from all electricity generation</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Created code for gas separated from oil</t>
+  </si>
+  <si>
+    <t>gas extraction, not in BEA</t>
+  </si>
+  <si>
+    <t>renewable generation, not in BEA</t>
   </si>
 </sst>
 </file>
@@ -3867,7 +3885,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -3996,6 +4014,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -48741,11 +48762,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B68322-A9FD-40B9-A576-DB2111CD9A1C}">
-  <dimension ref="A1:G443"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E396" sqref="E396"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -49102,25 +49123,25 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="31">
-        <v>212100</v>
+        <v>211001</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>1074</v>
       </c>
       <c r="E16" t="s">
-        <v>973</v>
+        <v>1075</v>
       </c>
       <c r="F16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G16" t="s">
-        <v>948</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49130,11 +49151,11 @@
       <c r="B17" s="6">
         <v>212</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>39</v>
+      <c r="C17" s="31">
+        <v>212100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>973</v>
@@ -49143,7 +49164,7 @@
         <v>730</v>
       </c>
       <c r="G17" t="s">
-        <v>730</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49153,11 +49174,11 @@
       <c r="B18" s="6">
         <v>212</v>
       </c>
-      <c r="C18" s="32">
-        <v>212230</v>
+      <c r="C18" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>973</v>
@@ -49177,10 +49198,10 @@
         <v>212</v>
       </c>
       <c r="C19" s="32">
-        <v>212310</v>
+        <v>212230</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>973</v>
@@ -49199,11 +49220,11 @@
       <c r="B20" s="6">
         <v>212</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>42</v>
+      <c r="C20" s="32">
+        <v>212310</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>973</v>
@@ -49217,25 +49238,25 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="6">
-        <v>213</v>
-      </c>
-      <c r="C21" s="31">
-        <v>213111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
+        <v>212</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49245,11 +49266,11 @@
       <c r="B22" s="6">
         <v>213</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>45</v>
+      <c r="C22" s="31">
+        <v>213111</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>974</v>
@@ -49263,25 +49284,25 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="B23" s="6">
-        <v>22</v>
-      </c>
-      <c r="C23" s="31">
-        <v>221100</v>
+        <v>213</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G23" t="s">
-        <v>945</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49291,11 +49312,11 @@
       <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="36">
-        <v>221200</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>48</v>
+      <c r="C24" s="31">
+        <v>221100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>975</v>
@@ -49304,76 +49325,76 @@
         <v>732</v>
       </c>
       <c r="G24" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="47">
         <v>22</v>
       </c>
-      <c r="C25" s="34">
-        <v>221300</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>49</v>
+      <c r="C25" s="31">
+        <v>221101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1072</v>
       </c>
       <c r="E25" t="s">
-        <v>975</v>
+        <v>1076</v>
       </c>
       <c r="F25" t="s">
         <v>732</v>
       </c>
       <c r="G25" t="s">
-        <v>946</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>23</v>
-      </c>
-      <c r="C26" s="31">
-        <v>233210</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="36">
+        <v>221200</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G26" t="s">
-        <v>733</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>23</v>
-      </c>
-      <c r="C27" s="31">
-        <v>233262</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="C27" s="34">
+        <v>221300</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G27" t="s">
-        <v>733</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49383,11 +49404,11 @@
       <c r="B28" s="6">
         <v>23</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>56</v>
+      <c r="C28" s="31">
+        <v>233210</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
         <v>976</v>
@@ -49407,10 +49428,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="31">
-        <v>233240</v>
+        <v>233262</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>976</v>
@@ -49430,10 +49451,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>436</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="E30" t="s">
         <v>976</v>
@@ -49453,10 +49474,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="31">
-        <v>233230</v>
+        <v>233240</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>976</v>
@@ -49476,10 +49497,10 @@
         <v>23</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>422</v>
       </c>
       <c r="E32" t="s">
         <v>976</v>
@@ -49499,10 +49520,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="31">
-        <v>233411</v>
+        <v>233230</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
         <v>976</v>
@@ -49521,11 +49542,11 @@
       <c r="B34" s="6">
         <v>23</v>
       </c>
-      <c r="C34" s="31">
-        <v>233412</v>
+      <c r="C34" s="31" t="s">
+        <v>435</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
         <v>976</v>
@@ -49544,11 +49565,11 @@
       <c r="B35" s="6">
         <v>23</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>60</v>
+      <c r="C35" s="31">
+        <v>233411</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>976</v>
@@ -49568,10 +49589,10 @@
         <v>23</v>
       </c>
       <c r="C36" s="31">
-        <v>230301</v>
+        <v>233412</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
         <v>976</v>
@@ -49590,11 +49611,11 @@
       <c r="B37" s="6">
         <v>23</v>
       </c>
-      <c r="C37" s="31">
-        <v>230302</v>
+      <c r="C37" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>976</v>
@@ -49608,48 +49629,48 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="C38" s="31">
-        <v>321100</v>
+        <v>230301</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="B39" s="6">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="C39" s="31">
-        <v>321200</v>
+        <v>230302</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49660,10 +49681,10 @@
         <v>321</v>
       </c>
       <c r="C40" s="31">
-        <v>321910</v>
+        <v>321100</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>977</v>
@@ -49682,11 +49703,11 @@
       <c r="B41" s="6">
         <v>321</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>65</v>
+      <c r="C41" s="31">
+        <v>321200</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
         <v>977</v>
@@ -49700,48 +49721,48 @@
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B42" s="6">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C42" s="31">
-        <v>327100</v>
+        <v>321910</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B43" s="6">
-        <v>327</v>
-      </c>
-      <c r="C43" s="31">
-        <v>327200</v>
+        <v>321</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -49752,10 +49773,10 @@
         <v>327</v>
       </c>
       <c r="C44" s="31">
-        <v>327310</v>
+        <v>327100</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
         <v>978</v>
@@ -49775,10 +49796,10 @@
         <v>327</v>
       </c>
       <c r="C45" s="31">
-        <v>327320</v>
+        <v>327200</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
         <v>978</v>
@@ -49798,10 +49819,10 @@
         <v>327</v>
       </c>
       <c r="C46" s="31">
-        <v>327330</v>
+        <v>327310</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>978</v>
@@ -49821,10 +49842,10 @@
         <v>327</v>
       </c>
       <c r="C47" s="31">
-        <v>327390</v>
+        <v>327320</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
         <v>978</v>
@@ -49844,10 +49865,10 @@
         <v>327</v>
       </c>
       <c r="C48" s="31">
-        <v>327400</v>
+        <v>327330</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
         <v>978</v>
@@ -49867,10 +49888,10 @@
         <v>327</v>
       </c>
       <c r="C49" s="31">
-        <v>327910</v>
+        <v>327390</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
         <v>978</v>
@@ -49890,10 +49911,10 @@
         <v>327</v>
       </c>
       <c r="C50" s="31">
-        <v>327991</v>
+        <v>327400</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
         <v>978</v>
@@ -49913,10 +49934,10 @@
         <v>327</v>
       </c>
       <c r="C51" s="31">
-        <v>327992</v>
+        <v>327910</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
         <v>978</v>
@@ -49936,10 +49957,10 @@
         <v>327</v>
       </c>
       <c r="C52" s="31">
-        <v>327993</v>
+        <v>327991</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
         <v>978</v>
@@ -49959,10 +49980,10 @@
         <v>327</v>
       </c>
       <c r="C53" s="31">
-        <v>327999</v>
+        <v>327992</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
         <v>978</v>
@@ -49976,48 +49997,48 @@
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B54" s="6">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C54" s="31">
-        <v>331110</v>
+        <v>327993</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F54" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G54" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B55" s="6">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C55" s="31">
-        <v>331200</v>
+        <v>327999</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F55" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G55" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -50028,10 +50049,10 @@
         <v>331</v>
       </c>
       <c r="C56" s="31">
-        <v>331313</v>
+        <v>331110</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
         <v>979</v>
@@ -50051,10 +50072,10 @@
         <v>331</v>
       </c>
       <c r="C57" s="31">
-        <v>331314</v>
+        <v>331200</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
         <v>979</v>
@@ -50073,11 +50094,11 @@
       <c r="B58" s="6">
         <v>331</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>83</v>
+      <c r="C58" s="31">
+        <v>331313</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
         <v>979</v>
@@ -50097,10 +50118,10 @@
         <v>331</v>
       </c>
       <c r="C59" s="31">
-        <v>331410</v>
+        <v>331314</v>
       </c>
       <c r="D59" t="s">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
         <v>979</v>
@@ -50119,11 +50140,11 @@
       <c r="B60" s="6">
         <v>331</v>
       </c>
-      <c r="C60" s="31">
-        <v>331420</v>
+      <c r="C60" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
         <v>979</v>
@@ -50143,10 +50164,10 @@
         <v>331</v>
       </c>
       <c r="C61" s="31">
-        <v>331490</v>
+        <v>331410</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="E61" t="s">
         <v>979</v>
@@ -50166,10 +50187,10 @@
         <v>331</v>
       </c>
       <c r="C62" s="31">
-        <v>331510</v>
+        <v>331420</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
         <v>979</v>
@@ -50189,10 +50210,10 @@
         <v>331</v>
       </c>
       <c r="C63" s="31">
-        <v>331520</v>
+        <v>331490</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
         <v>979</v>
@@ -50206,48 +50227,48 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" s="6">
-        <v>332</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>89</v>
+        <v>331</v>
+      </c>
+      <c r="C64" s="31">
+        <v>331510</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A65" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B65" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="31">
-        <v>332114</v>
+        <v>331520</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F65" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G65" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -50257,11 +50278,11 @@
       <c r="B66" s="6">
         <v>332</v>
       </c>
-      <c r="C66" s="31">
-        <v>332119</v>
+      <c r="C66" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>448</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
         <v>980</v>
@@ -50281,10 +50302,10 @@
         <v>332</v>
       </c>
       <c r="C67" s="31">
-        <v>332200</v>
+        <v>332114</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" t="s">
         <v>980</v>
@@ -50304,10 +50325,10 @@
         <v>332</v>
       </c>
       <c r="C68" s="31">
-        <v>332310</v>
+        <v>332119</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
       <c r="E68" t="s">
         <v>980</v>
@@ -50327,10 +50348,10 @@
         <v>332</v>
       </c>
       <c r="C69" s="31">
-        <v>332320</v>
+        <v>332200</v>
       </c>
       <c r="D69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
         <v>980</v>
@@ -50350,10 +50371,10 @@
         <v>332</v>
       </c>
       <c r="C70" s="31">
-        <v>332410</v>
+        <v>332310</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
         <v>980</v>
@@ -50373,10 +50394,10 @@
         <v>332</v>
       </c>
       <c r="C71" s="31">
-        <v>332420</v>
+        <v>332320</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
         <v>980</v>
@@ -50396,10 +50417,10 @@
         <v>332</v>
       </c>
       <c r="C72" s="31">
-        <v>332430</v>
+        <v>332410</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
         <v>980</v>
@@ -50419,10 +50440,10 @@
         <v>332</v>
       </c>
       <c r="C73" s="31">
-        <v>332500</v>
+        <v>332420</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
         <v>980</v>
@@ -50442,10 +50463,10 @@
         <v>332</v>
       </c>
       <c r="C74" s="31">
-        <v>332600</v>
+        <v>332430</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
         <v>980</v>
@@ -50465,10 +50486,10 @@
         <v>332</v>
       </c>
       <c r="C75" s="31">
-        <v>332710</v>
+        <v>332500</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
         <v>980</v>
@@ -50488,10 +50509,10 @@
         <v>332</v>
       </c>
       <c r="C76" s="31">
-        <v>332720</v>
+        <v>332600</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
         <v>980</v>
@@ -50511,10 +50532,10 @@
         <v>332</v>
       </c>
       <c r="C77" s="31">
-        <v>332800</v>
+        <v>332710</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
         <v>980</v>
@@ -50533,11 +50554,11 @@
       <c r="B78" s="6">
         <v>332</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>103</v>
+      <c r="C78" s="31">
+        <v>332720</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E78" t="s">
         <v>980</v>
@@ -50557,10 +50578,10 @@
         <v>332</v>
       </c>
       <c r="C79" s="31">
-        <v>332913</v>
+        <v>332800</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
         <v>980</v>
@@ -50579,11 +50600,11 @@
       <c r="B80" s="6">
         <v>332</v>
       </c>
-      <c r="C80" s="31">
-        <v>332991</v>
+      <c r="C80" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E80" t="s">
         <v>980</v>
@@ -50602,11 +50623,11 @@
       <c r="B81" s="6">
         <v>332</v>
       </c>
-      <c r="C81" s="31" t="s">
-        <v>107</v>
+      <c r="C81" s="31">
+        <v>332913</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>980</v>
@@ -50626,10 +50647,10 @@
         <v>332</v>
       </c>
       <c r="C82" s="31">
-        <v>332996</v>
+        <v>332991</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>980</v>
@@ -50648,11 +50669,11 @@
       <c r="B83" s="6">
         <v>332</v>
       </c>
-      <c r="C83" s="31">
-        <v>332999</v>
+      <c r="C83" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>980</v>
@@ -50666,48 +50687,48 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A84" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B84" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C84" s="31">
-        <v>333111</v>
+        <v>332996</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F84" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G84" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A85" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B85" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C85" s="31">
-        <v>333112</v>
+        <v>332999</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -50718,10 +50739,10 @@
         <v>333</v>
       </c>
       <c r="C86" s="31">
-        <v>333120</v>
+        <v>333111</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E86" t="s">
         <v>981</v>
@@ -50741,10 +50762,10 @@
         <v>333</v>
       </c>
       <c r="C87" s="31">
-        <v>333130</v>
+        <v>333112</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
         <v>981</v>
@@ -50764,10 +50785,10 @@
         <v>333</v>
       </c>
       <c r="C88" s="31">
-        <v>333242</v>
+        <v>333120</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
         <v>981</v>
@@ -50786,11 +50807,11 @@
       <c r="B89" s="6">
         <v>333</v>
       </c>
-      <c r="C89" s="31" t="s">
-        <v>115</v>
+      <c r="C89" s="31">
+        <v>333130</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E89" t="s">
         <v>981</v>
@@ -50810,10 +50831,10 @@
         <v>333</v>
       </c>
       <c r="C90" s="31">
-        <v>333314</v>
+        <v>333242</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" t="s">
         <v>981</v>
@@ -50832,11 +50853,11 @@
       <c r="B91" s="6">
         <v>333</v>
       </c>
-      <c r="C91" s="31">
-        <v>333316</v>
+      <c r="C91" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E91" t="s">
         <v>981</v>
@@ -50856,10 +50877,10 @@
         <v>333</v>
       </c>
       <c r="C92" s="31">
-        <v>333318</v>
+        <v>333314</v>
       </c>
       <c r="D92" t="s">
-        <v>449</v>
+        <v>118</v>
       </c>
       <c r="E92" t="s">
         <v>981</v>
@@ -50879,10 +50900,10 @@
         <v>333</v>
       </c>
       <c r="C93" s="31">
-        <v>333413</v>
+        <v>333316</v>
       </c>
       <c r="D93" t="s">
-        <v>450</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
         <v>981</v>
@@ -50902,10 +50923,10 @@
         <v>333</v>
       </c>
       <c r="C94" s="31">
-        <v>333414</v>
+        <v>333318</v>
       </c>
       <c r="D94" t="s">
-        <v>120</v>
+        <v>449</v>
       </c>
       <c r="E94" t="s">
         <v>981</v>
@@ -50925,10 +50946,10 @@
         <v>333</v>
       </c>
       <c r="C95" s="31">
-        <v>333415</v>
+        <v>333413</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="E95" t="s">
         <v>981</v>
@@ -50948,10 +50969,10 @@
         <v>333</v>
       </c>
       <c r="C96" s="31">
-        <v>333511</v>
+        <v>333414</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
         <v>981</v>
@@ -50971,10 +50992,10 @@
         <v>333</v>
       </c>
       <c r="C97" s="31">
-        <v>333517</v>
+        <v>333415</v>
       </c>
       <c r="D97" t="s">
-        <v>451</v>
+        <v>121</v>
       </c>
       <c r="E97" t="s">
         <v>981</v>
@@ -50994,10 +51015,10 @@
         <v>333</v>
       </c>
       <c r="C98" s="31">
-        <v>333514</v>
+        <v>333511</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
         <v>981</v>
@@ -51016,11 +51037,11 @@
       <c r="B99" s="6">
         <v>333</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>124</v>
+      <c r="C99" s="31">
+        <v>333517</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="E99" t="s">
         <v>981</v>
@@ -51040,10 +51061,10 @@
         <v>333</v>
       </c>
       <c r="C100" s="31">
-        <v>333611</v>
+        <v>333514</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E100" t="s">
         <v>981</v>
@@ -51062,11 +51083,11 @@
       <c r="B101" s="6">
         <v>333</v>
       </c>
-      <c r="C101" s="31">
-        <v>333612</v>
+      <c r="C101" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
         <v>981</v>
@@ -51086,10 +51107,10 @@
         <v>333</v>
       </c>
       <c r="C102" s="31">
-        <v>333613</v>
+        <v>333611</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E102" t="s">
         <v>981</v>
@@ -51109,10 +51130,10 @@
         <v>333</v>
       </c>
       <c r="C103" s="31">
-        <v>333618</v>
+        <v>333612</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E103" t="s">
         <v>981</v>
@@ -51132,10 +51153,10 @@
         <v>333</v>
       </c>
       <c r="C104" s="31">
-        <v>333914</v>
+        <v>333613</v>
       </c>
       <c r="D104" t="s">
-        <v>463</v>
+        <v>128</v>
       </c>
       <c r="E104" t="s">
         <v>981</v>
@@ -51155,10 +51176,10 @@
         <v>333</v>
       </c>
       <c r="C105" s="31">
-        <v>333912</v>
+        <v>333618</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" t="s">
         <v>981</v>
@@ -51178,10 +51199,10 @@
         <v>333</v>
       </c>
       <c r="C106" s="31">
-        <v>333920</v>
+        <v>333914</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
       <c r="E106" t="s">
         <v>981</v>
@@ -51201,10 +51222,10 @@
         <v>333</v>
       </c>
       <c r="C107" s="31">
-        <v>333991</v>
+        <v>333912</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E107" t="s">
         <v>981</v>
@@ -51223,11 +51244,11 @@
       <c r="B108" s="6">
         <v>333</v>
       </c>
-      <c r="C108" s="31" t="s">
-        <v>133</v>
+      <c r="C108" s="31">
+        <v>333920</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
         <v>981</v>
@@ -51247,10 +51268,10 @@
         <v>333</v>
       </c>
       <c r="C109" s="31">
-        <v>333993</v>
+        <v>333991</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E109" t="s">
         <v>981</v>
@@ -51269,11 +51290,11 @@
       <c r="B110" s="6">
         <v>333</v>
       </c>
-      <c r="C110" s="31">
-        <v>333994</v>
+      <c r="C110" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E110" t="s">
         <v>981</v>
@@ -51292,11 +51313,11 @@
       <c r="B111" s="6">
         <v>333</v>
       </c>
-      <c r="C111" s="31" t="s">
-        <v>137</v>
+      <c r="C111" s="31">
+        <v>333993</v>
       </c>
       <c r="D111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
         <v>981</v>
@@ -51310,48 +51331,48 @@
     </row>
     <row r="112" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A112" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B112" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C112" s="31">
-        <v>334111</v>
+        <v>333994</v>
       </c>
       <c r="D112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E112" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F112" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G112" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A113" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B113" s="6">
-        <v>334</v>
-      </c>
-      <c r="C113" s="31">
-        <v>334112</v>
+        <v>333</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F113" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G113" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -51362,10 +51383,10 @@
         <v>334</v>
       </c>
       <c r="C114" s="31">
-        <v>334118</v>
+        <v>334111</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
         <v>982</v>
@@ -51385,10 +51406,10 @@
         <v>334</v>
       </c>
       <c r="C115" s="31">
-        <v>334210</v>
+        <v>334112</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
         <v>982</v>
@@ -51408,10 +51429,10 @@
         <v>334</v>
       </c>
       <c r="C116" s="31">
-        <v>334220</v>
+        <v>334118</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E116" t="s">
         <v>982</v>
@@ -51431,10 +51452,10 @@
         <v>334</v>
       </c>
       <c r="C117" s="31">
-        <v>334290</v>
+        <v>334210</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
         <v>982</v>
@@ -51454,10 +51475,10 @@
         <v>334</v>
       </c>
       <c r="C118" s="31">
-        <v>334413</v>
+        <v>334220</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E118" t="s">
         <v>982</v>
@@ -51477,10 +51498,10 @@
         <v>334</v>
       </c>
       <c r="C119" s="31">
-        <v>334418</v>
+        <v>334290</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
         <v>982</v>
@@ -51499,11 +51520,11 @@
       <c r="B120" s="6">
         <v>334</v>
       </c>
-      <c r="C120" s="31" t="s">
-        <v>146</v>
+      <c r="C120" s="31">
+        <v>334413</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
         <v>982</v>
@@ -51523,10 +51544,10 @@
         <v>334</v>
       </c>
       <c r="C121" s="31">
-        <v>334510</v>
+        <v>334418</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
         <v>982</v>
@@ -51545,11 +51566,11 @@
       <c r="B122" s="6">
         <v>334</v>
       </c>
-      <c r="C122" s="31">
-        <v>334511</v>
+      <c r="C122" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E122" t="s">
         <v>982</v>
@@ -51569,10 +51590,10 @@
         <v>334</v>
       </c>
       <c r="C123" s="31">
-        <v>334512</v>
+        <v>334510</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E123" t="s">
         <v>982</v>
@@ -51592,10 +51613,10 @@
         <v>334</v>
       </c>
       <c r="C124" s="31">
-        <v>334513</v>
+        <v>334511</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E124" t="s">
         <v>982</v>
@@ -51615,10 +51636,10 @@
         <v>334</v>
       </c>
       <c r="C125" s="31">
-        <v>334514</v>
+        <v>334512</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
         <v>982</v>
@@ -51638,10 +51659,10 @@
         <v>334</v>
       </c>
       <c r="C126" s="31">
-        <v>334515</v>
+        <v>334513</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E126" t="s">
         <v>982</v>
@@ -51661,10 +51682,10 @@
         <v>334</v>
       </c>
       <c r="C127" s="31">
-        <v>334516</v>
+        <v>334514</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s">
         <v>982</v>
@@ -51684,10 +51705,10 @@
         <v>334</v>
       </c>
       <c r="C128" s="31">
-        <v>334517</v>
+        <v>334515</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" t="s">
         <v>982</v>
@@ -51706,11 +51727,11 @@
       <c r="B129" s="6">
         <v>334</v>
       </c>
-      <c r="C129" s="31" t="s">
-        <v>158</v>
+      <c r="C129" s="31">
+        <v>334516</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E129" t="s">
         <v>982</v>
@@ -51730,10 +51751,10 @@
         <v>334</v>
       </c>
       <c r="C130" s="31">
-        <v>334300</v>
+        <v>334517</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E130" t="s">
         <v>982</v>
@@ -51752,11 +51773,11 @@
       <c r="B131" s="6">
         <v>334</v>
       </c>
-      <c r="C131" s="31">
-        <v>334610</v>
+      <c r="C131" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E131" t="s">
         <v>982</v>
@@ -51770,48 +51791,48 @@
     </row>
     <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A132" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B132" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C132" s="31">
-        <v>335110</v>
+        <v>334300</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E132" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F132" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G132" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A133" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B133" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C133" s="31">
-        <v>335120</v>
+        <v>334610</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E133" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F133" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G133" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -51822,10 +51843,10 @@
         <v>335</v>
       </c>
       <c r="C134" s="31">
-        <v>335210</v>
+        <v>335110</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E134" t="s">
         <v>983</v>
@@ -51845,10 +51866,10 @@
         <v>335</v>
       </c>
       <c r="C135" s="31">
-        <v>335220</v>
+        <v>335120</v>
       </c>
       <c r="D135" t="s">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="E135" t="s">
         <v>983</v>
@@ -51868,10 +51889,10 @@
         <v>335</v>
       </c>
       <c r="C136" s="31">
-        <v>335311</v>
+        <v>335210</v>
       </c>
       <c r="D136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E136" t="s">
         <v>983</v>
@@ -51891,10 +51912,10 @@
         <v>335</v>
       </c>
       <c r="C137" s="31">
-        <v>335312</v>
+        <v>335220</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>461</v>
       </c>
       <c r="E137" t="s">
         <v>983</v>
@@ -51914,10 +51935,10 @@
         <v>335</v>
       </c>
       <c r="C138" s="31">
-        <v>335313</v>
+        <v>335311</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E138" t="s">
         <v>983</v>
@@ -51937,10 +51958,10 @@
         <v>335</v>
       </c>
       <c r="C139" s="31">
-        <v>335314</v>
+        <v>335312</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E139" t="s">
         <v>983</v>
@@ -51960,10 +51981,10 @@
         <v>335</v>
       </c>
       <c r="C140" s="31">
-        <v>335911</v>
+        <v>335313</v>
       </c>
       <c r="D140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E140" t="s">
         <v>983</v>
@@ -51983,10 +52004,10 @@
         <v>335</v>
       </c>
       <c r="C141" s="31">
-        <v>335912</v>
+        <v>335314</v>
       </c>
       <c r="D141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E141" t="s">
         <v>983</v>
@@ -52006,10 +52027,10 @@
         <v>335</v>
       </c>
       <c r="C142" s="31">
-        <v>335920</v>
+        <v>335911</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E142" t="s">
         <v>983</v>
@@ -52029,10 +52050,10 @@
         <v>335</v>
       </c>
       <c r="C143" s="31">
-        <v>335930</v>
+        <v>335912</v>
       </c>
       <c r="D143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E143" t="s">
         <v>983</v>
@@ -52052,10 +52073,10 @@
         <v>335</v>
       </c>
       <c r="C144" s="31">
-        <v>335991</v>
+        <v>335920</v>
       </c>
       <c r="D144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E144" t="s">
         <v>983</v>
@@ -52075,10 +52096,10 @@
         <v>335</v>
       </c>
       <c r="C145" s="31">
-        <v>335999</v>
+        <v>335930</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E145" t="s">
         <v>983</v>
@@ -52091,49 +52112,49 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A146" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>551</v>
+      <c r="A146" s="6">
+        <v>335</v>
+      </c>
+      <c r="B146" s="6">
+        <v>335</v>
       </c>
       <c r="C146" s="31">
-        <v>336111</v>
+        <v>335991</v>
       </c>
       <c r="D146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E146" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F146" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G146" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A147" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>551</v>
+      <c r="A147" s="6">
+        <v>335</v>
+      </c>
+      <c r="B147" s="6">
+        <v>335</v>
       </c>
       <c r="C147" s="31">
-        <v>336112</v>
+        <v>335999</v>
       </c>
       <c r="D147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E147" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F147" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G147" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -52144,10 +52165,10 @@
         <v>551</v>
       </c>
       <c r="C148" s="31">
-        <v>336120</v>
+        <v>336111</v>
       </c>
       <c r="D148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E148" t="s">
         <v>984</v>
@@ -52167,10 +52188,10 @@
         <v>551</v>
       </c>
       <c r="C149" s="31">
-        <v>336211</v>
+        <v>336112</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E149" t="s">
         <v>984</v>
@@ -52190,10 +52211,10 @@
         <v>551</v>
       </c>
       <c r="C150" s="31">
-        <v>336212</v>
+        <v>336120</v>
       </c>
       <c r="D150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E150" t="s">
         <v>984</v>
@@ -52213,10 +52234,10 @@
         <v>551</v>
       </c>
       <c r="C151" s="31">
-        <v>336213</v>
+        <v>336211</v>
       </c>
       <c r="D151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E151" t="s">
         <v>984</v>
@@ -52236,10 +52257,10 @@
         <v>551</v>
       </c>
       <c r="C152" s="31">
-        <v>336214</v>
+        <v>336212</v>
       </c>
       <c r="D152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E152" t="s">
         <v>984</v>
@@ -52259,10 +52280,10 @@
         <v>551</v>
       </c>
       <c r="C153" s="31">
-        <v>336310</v>
+        <v>336213</v>
       </c>
       <c r="D153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E153" t="s">
         <v>984</v>
@@ -52282,10 +52303,10 @@
         <v>551</v>
       </c>
       <c r="C154" s="31">
-        <v>336320</v>
+        <v>336214</v>
       </c>
       <c r="D154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E154" t="s">
         <v>984</v>
@@ -52304,11 +52325,11 @@
       <c r="B155" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C155" s="31" t="s">
-        <v>183</v>
+      <c r="C155" s="31">
+        <v>336310</v>
       </c>
       <c r="D155" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E155" t="s">
         <v>984</v>
@@ -52328,10 +52349,10 @@
         <v>551</v>
       </c>
       <c r="C156" s="31">
-        <v>336350</v>
+        <v>336320</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E156" t="s">
         <v>984</v>
@@ -52350,11 +52371,11 @@
       <c r="B157" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C157" s="31">
-        <v>336360</v>
+      <c r="C157" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="D157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E157" t="s">
         <v>984</v>
@@ -52374,10 +52395,10 @@
         <v>551</v>
       </c>
       <c r="C158" s="31">
-        <v>336370</v>
+        <v>336350</v>
       </c>
       <c r="D158" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E158" t="s">
         <v>984</v>
@@ -52397,10 +52418,10 @@
         <v>551</v>
       </c>
       <c r="C159" s="31">
-        <v>336390</v>
+        <v>336360</v>
       </c>
       <c r="D159" t="s">
-        <v>464</v>
+        <v>186</v>
       </c>
       <c r="E159" t="s">
         <v>984</v>
@@ -52414,48 +52435,48 @@
     </row>
     <row r="160" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C160" s="31">
-        <v>336411</v>
+        <v>336370</v>
       </c>
       <c r="D160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E160" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F160" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G160" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C161" s="31">
-        <v>336412</v>
+        <v>336390</v>
       </c>
       <c r="D161" t="s">
-        <v>189</v>
+        <v>464</v>
       </c>
       <c r="E161" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F161" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G161" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -52466,10 +52487,10 @@
         <v>556</v>
       </c>
       <c r="C162" s="31">
-        <v>336413</v>
+        <v>336411</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E162" t="s">
         <v>985</v>
@@ -52489,10 +52510,10 @@
         <v>556</v>
       </c>
       <c r="C163" s="31">
-        <v>336414</v>
+        <v>336412</v>
       </c>
       <c r="D163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E163" t="s">
         <v>985</v>
@@ -52511,11 +52532,11 @@
       <c r="B164" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C164" s="31" t="s">
-        <v>192</v>
+      <c r="C164" s="31">
+        <v>336413</v>
       </c>
       <c r="D164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E164" t="s">
         <v>985</v>
@@ -52535,10 +52556,10 @@
         <v>556</v>
       </c>
       <c r="C165" s="31">
-        <v>336500</v>
+        <v>336414</v>
       </c>
       <c r="D165" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E165" t="s">
         <v>985</v>
@@ -52557,11 +52578,11 @@
       <c r="B166" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C166" s="31">
-        <v>336611</v>
+      <c r="C166" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="D166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E166" t="s">
         <v>985</v>
@@ -52581,10 +52602,10 @@
         <v>556</v>
       </c>
       <c r="C167" s="31">
-        <v>336612</v>
+        <v>336500</v>
       </c>
       <c r="D167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E167" t="s">
         <v>985</v>
@@ -52604,10 +52625,10 @@
         <v>556</v>
       </c>
       <c r="C168" s="31">
-        <v>336991</v>
+        <v>336611</v>
       </c>
       <c r="D168" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E168" t="s">
         <v>985</v>
@@ -52627,10 +52648,10 @@
         <v>556</v>
       </c>
       <c r="C169" s="31">
-        <v>336992</v>
+        <v>336612</v>
       </c>
       <c r="D169" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E169" t="s">
         <v>985</v>
@@ -52650,10 +52671,10 @@
         <v>556</v>
       </c>
       <c r="C170" s="31">
-        <v>336999</v>
+        <v>336991</v>
       </c>
       <c r="D170" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E170" t="s">
         <v>985</v>
@@ -52666,49 +52687,49 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="6">
-        <v>337</v>
-      </c>
-      <c r="B171" s="6">
-        <v>337</v>
+      <c r="A171" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="C171" s="31">
-        <v>337110</v>
+        <v>336992</v>
       </c>
       <c r="D171" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E171" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F171" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G171" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A172" s="6">
-        <v>337</v>
-      </c>
-      <c r="B172" s="6">
-        <v>337</v>
+      <c r="A172" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="C172" s="31">
-        <v>337121</v>
+        <v>336999</v>
       </c>
       <c r="D172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E172" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F172" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G172" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -52719,10 +52740,10 @@
         <v>337</v>
       </c>
       <c r="C173" s="31">
-        <v>337122</v>
+        <v>337110</v>
       </c>
       <c r="D173" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E173" t="s">
         <v>986</v>
@@ -52741,11 +52762,11 @@
       <c r="B174" s="6">
         <v>337</v>
       </c>
-      <c r="C174" s="31" t="s">
-        <v>437</v>
+      <c r="C174" s="31">
+        <v>337121</v>
       </c>
       <c r="D174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E174" t="s">
         <v>986</v>
@@ -52765,10 +52786,10 @@
         <v>337</v>
       </c>
       <c r="C175" s="31">
-        <v>337127</v>
+        <v>337122</v>
       </c>
       <c r="D175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E175" t="s">
         <v>986</v>
@@ -52788,10 +52809,10 @@
         <v>337</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="D176" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E176" t="s">
         <v>986</v>
@@ -52811,10 +52832,10 @@
         <v>337</v>
       </c>
       <c r="C177" s="31">
-        <v>337215</v>
+        <v>337127</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E177" t="s">
         <v>986</v>
@@ -52833,11 +52854,11 @@
       <c r="B178" s="6">
         <v>337</v>
       </c>
-      <c r="C178" s="31">
-        <v>337900</v>
+      <c r="C178" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="D178" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E178" t="s">
         <v>986</v>
@@ -52851,48 +52872,48 @@
     </row>
     <row r="179" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A179" s="6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B179" s="6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C179" s="31">
-        <v>339112</v>
+        <v>337215</v>
       </c>
       <c r="D179" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E179" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F179" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G179" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A180" s="6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B180" s="6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C180" s="31">
-        <v>339113</v>
+        <v>337900</v>
       </c>
       <c r="D180" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E180" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F180" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G180" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -52903,10 +52924,10 @@
         <v>339</v>
       </c>
       <c r="C181" s="31">
-        <v>339114</v>
+        <v>339112</v>
       </c>
       <c r="D181" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E181" t="s">
         <v>987</v>
@@ -52926,10 +52947,10 @@
         <v>339</v>
       </c>
       <c r="C182" s="31">
-        <v>339115</v>
+        <v>339113</v>
       </c>
       <c r="D182" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E182" t="s">
         <v>987</v>
@@ -52949,10 +52970,10 @@
         <v>339</v>
       </c>
       <c r="C183" s="31">
-        <v>339116</v>
+        <v>339114</v>
       </c>
       <c r="D183" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E183" t="s">
         <v>987</v>
@@ -52972,10 +52993,10 @@
         <v>339</v>
       </c>
       <c r="C184" s="31">
-        <v>339910</v>
+        <v>339115</v>
       </c>
       <c r="D184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E184" t="s">
         <v>987</v>
@@ -52995,10 +53016,10 @@
         <v>339</v>
       </c>
       <c r="C185" s="31">
-        <v>339920</v>
+        <v>339116</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E185" t="s">
         <v>987</v>
@@ -53018,10 +53039,10 @@
         <v>339</v>
       </c>
       <c r="C186" s="31">
-        <v>339930</v>
+        <v>339910</v>
       </c>
       <c r="D186" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E186" t="s">
         <v>987</v>
@@ -53041,10 +53062,10 @@
         <v>339</v>
       </c>
       <c r="C187" s="31">
-        <v>339940</v>
+        <v>339920</v>
       </c>
       <c r="D187" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E187" t="s">
         <v>987</v>
@@ -53064,10 +53085,10 @@
         <v>339</v>
       </c>
       <c r="C188" s="31">
-        <v>339950</v>
+        <v>339930</v>
       </c>
       <c r="D188" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E188" t="s">
         <v>987</v>
@@ -53087,10 +53108,10 @@
         <v>339</v>
       </c>
       <c r="C189" s="31">
-        <v>339990</v>
+        <v>339940</v>
       </c>
       <c r="D189" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E189" t="s">
         <v>987</v>
@@ -53103,49 +53124,49 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A190" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>569</v>
+      <c r="A190" s="6">
+        <v>339</v>
+      </c>
+      <c r="B190" s="6">
+        <v>339</v>
       </c>
       <c r="C190" s="31">
-        <v>311111</v>
+        <v>339950</v>
       </c>
       <c r="D190" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E190" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F190" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G190" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A191" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>569</v>
+      <c r="A191" s="6">
+        <v>339</v>
+      </c>
+      <c r="B191" s="6">
+        <v>339</v>
       </c>
       <c r="C191" s="31">
-        <v>311119</v>
+        <v>339990</v>
       </c>
       <c r="D191" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E191" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F191" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G191" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -53156,10 +53177,10 @@
         <v>569</v>
       </c>
       <c r="C192" s="31">
-        <v>311210</v>
+        <v>311111</v>
       </c>
       <c r="D192" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E192" t="s">
         <v>988</v>
@@ -53179,10 +53200,10 @@
         <v>569</v>
       </c>
       <c r="C193" s="31">
-        <v>311221</v>
+        <v>311119</v>
       </c>
       <c r="D193" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E193" t="s">
         <v>988</v>
@@ -53202,10 +53223,10 @@
         <v>569</v>
       </c>
       <c r="C194" s="31">
-        <v>311224</v>
+        <v>311210</v>
       </c>
       <c r="D194" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E194" t="s">
         <v>988</v>
@@ -53225,10 +53246,10 @@
         <v>569</v>
       </c>
       <c r="C195" s="31">
-        <v>311225</v>
+        <v>311221</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E195" t="s">
         <v>988</v>
@@ -53248,10 +53269,10 @@
         <v>569</v>
       </c>
       <c r="C196" s="31">
-        <v>311230</v>
+        <v>311224</v>
       </c>
       <c r="D196" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E196" t="s">
         <v>988</v>
@@ -53271,10 +53292,10 @@
         <v>569</v>
       </c>
       <c r="C197" s="31">
-        <v>311300</v>
+        <v>311225</v>
       </c>
       <c r="D197" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E197" t="s">
         <v>988</v>
@@ -53294,10 +53315,10 @@
         <v>569</v>
       </c>
       <c r="C198" s="31">
-        <v>311410</v>
+        <v>311230</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E198" t="s">
         <v>988</v>
@@ -53317,10 +53338,10 @@
         <v>569</v>
       </c>
       <c r="C199" s="31">
-        <v>311420</v>
+        <v>311300</v>
       </c>
       <c r="D199" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E199" t="s">
         <v>988</v>
@@ -53339,11 +53360,11 @@
       <c r="B200" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C200" s="31" t="s">
-        <v>230</v>
+      <c r="C200" s="31">
+        <v>311410</v>
       </c>
       <c r="D200" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E200" t="s">
         <v>988</v>
@@ -53363,10 +53384,10 @@
         <v>569</v>
       </c>
       <c r="C201" s="31">
-        <v>311513</v>
+        <v>311420</v>
       </c>
       <c r="D201" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E201" t="s">
         <v>988</v>
@@ -53385,11 +53406,11 @@
       <c r="B202" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C202" s="31">
-        <v>311514</v>
+      <c r="C202" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="D202" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E202" t="s">
         <v>988</v>
@@ -53409,10 +53430,10 @@
         <v>569</v>
       </c>
       <c r="C203" s="31">
-        <v>311520</v>
+        <v>311513</v>
       </c>
       <c r="D203" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E203" t="s">
         <v>988</v>
@@ -53431,11 +53452,11 @@
       <c r="B204" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C204" s="31" t="s">
-        <v>235</v>
+      <c r="C204" s="31">
+        <v>311514</v>
       </c>
       <c r="D204" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E204" t="s">
         <v>988</v>
@@ -53455,10 +53476,10 @@
         <v>569</v>
       </c>
       <c r="C205" s="31">
-        <v>311615</v>
+        <v>311520</v>
       </c>
       <c r="D205" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E205" t="s">
         <v>988</v>
@@ -53477,11 +53498,11 @@
       <c r="B206" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C206" s="31">
-        <v>311700</v>
+      <c r="C206" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="D206" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E206" t="s">
         <v>988</v>
@@ -53501,10 +53522,10 @@
         <v>569</v>
       </c>
       <c r="C207" s="31">
-        <v>311810</v>
+        <v>311615</v>
       </c>
       <c r="D207" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E207" t="s">
         <v>988</v>
@@ -53523,11 +53544,11 @@
       <c r="B208" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C208" s="31" t="s">
-        <v>240</v>
+      <c r="C208" s="31">
+        <v>311700</v>
       </c>
       <c r="D208" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E208" t="s">
         <v>988</v>
@@ -53547,10 +53568,10 @@
         <v>569</v>
       </c>
       <c r="C209" s="31">
-        <v>311910</v>
+        <v>311810</v>
       </c>
       <c r="D209" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E209" t="s">
         <v>988</v>
@@ -53569,11 +53590,11 @@
       <c r="B210" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C210" s="31">
-        <v>311920</v>
+      <c r="C210" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="D210" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E210" t="s">
         <v>988</v>
@@ -53593,10 +53614,10 @@
         <v>569</v>
       </c>
       <c r="C211" s="31">
-        <v>311930</v>
+        <v>311910</v>
       </c>
       <c r="D211" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E211" t="s">
         <v>988</v>
@@ -53616,10 +53637,10 @@
         <v>569</v>
       </c>
       <c r="C212" s="31">
-        <v>311940</v>
+        <v>311920</v>
       </c>
       <c r="D212" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E212" t="s">
         <v>988</v>
@@ -53639,10 +53660,10 @@
         <v>569</v>
       </c>
       <c r="C213" s="31">
-        <v>311990</v>
+        <v>311930</v>
       </c>
       <c r="D213" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E213" t="s">
         <v>988</v>
@@ -53662,10 +53683,10 @@
         <v>569</v>
       </c>
       <c r="C214" s="31">
-        <v>312110</v>
+        <v>311940</v>
       </c>
       <c r="D214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E214" t="s">
         <v>988</v>
@@ -53685,10 +53706,10 @@
         <v>569</v>
       </c>
       <c r="C215" s="31">
-        <v>312120</v>
+        <v>311990</v>
       </c>
       <c r="D215" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E215" t="s">
         <v>988</v>
@@ -53708,10 +53729,10 @@
         <v>569</v>
       </c>
       <c r="C216" s="31">
-        <v>312130</v>
+        <v>312110</v>
       </c>
       <c r="D216" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E216" t="s">
         <v>988</v>
@@ -53731,10 +53752,10 @@
         <v>569</v>
       </c>
       <c r="C217" s="31">
-        <v>312140</v>
+        <v>312120</v>
       </c>
       <c r="D217" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E217" t="s">
         <v>988</v>
@@ -53754,10 +53775,10 @@
         <v>569</v>
       </c>
       <c r="C218" s="31">
-        <v>312200</v>
+        <v>312130</v>
       </c>
       <c r="D218" t="s">
-        <v>465</v>
+        <v>249</v>
       </c>
       <c r="E218" t="s">
         <v>988</v>
@@ -53771,48 +53792,48 @@
     </row>
     <row r="219" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C219" s="31">
-        <v>313100</v>
+        <v>312140</v>
       </c>
       <c r="D219" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E219" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F219" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G219" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C220" s="31">
-        <v>313200</v>
+        <v>312200</v>
       </c>
       <c r="D220" t="s">
-        <v>252</v>
+        <v>465</v>
       </c>
       <c r="E220" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -53823,10 +53844,10 @@
         <v>576</v>
       </c>
       <c r="C221" s="31">
-        <v>313300</v>
+        <v>313100</v>
       </c>
       <c r="D221" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E221" t="s">
         <v>989</v>
@@ -53846,10 +53867,10 @@
         <v>576</v>
       </c>
       <c r="C222" s="31">
-        <v>314110</v>
+        <v>313200</v>
       </c>
       <c r="D222" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E222" t="s">
         <v>989</v>
@@ -53869,10 +53890,10 @@
         <v>576</v>
       </c>
       <c r="C223" s="31">
-        <v>314120</v>
+        <v>313300</v>
       </c>
       <c r="D223" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E223" t="s">
         <v>989</v>
@@ -53892,10 +53913,10 @@
         <v>576</v>
       </c>
       <c r="C224" s="31">
-        <v>314900</v>
+        <v>314110</v>
       </c>
       <c r="D224" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E224" t="s">
         <v>989</v>
@@ -53909,94 +53930,94 @@
     </row>
     <row r="225" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C225" s="31">
-        <v>315000</v>
+        <v>314120</v>
       </c>
       <c r="D225" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E225" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F225" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G225" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C226" s="31">
+        <v>314900</v>
+      </c>
+      <c r="D226" t="s">
+        <v>256</v>
+      </c>
+      <c r="E226" t="s">
+        <v>989</v>
+      </c>
+      <c r="F226" t="s">
+        <v>746</v>
+      </c>
+      <c r="G226" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A227" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B227" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C226" s="31">
+      <c r="C227" s="31">
+        <v>315000</v>
+      </c>
+      <c r="D227" t="s">
+        <v>257</v>
+      </c>
+      <c r="E227" t="s">
+        <v>990</v>
+      </c>
+      <c r="F227" t="s">
+        <v>747</v>
+      </c>
+      <c r="G227" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A228" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C228" s="31">
         <v>316000</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D228" t="s">
         <v>258</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E228" t="s">
         <v>990</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F228" t="s">
         <v>747</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G228" t="s">
         <v>747</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A227" s="6">
-        <v>322</v>
-      </c>
-      <c r="B227" s="6">
-        <v>322</v>
-      </c>
-      <c r="C227" s="31">
-        <v>322110</v>
-      </c>
-      <c r="D227" t="s">
-        <v>259</v>
-      </c>
-      <c r="E227" t="s">
-        <v>991</v>
-      </c>
-      <c r="F227" t="s">
-        <v>748</v>
-      </c>
-      <c r="G227" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A228" s="6">
-        <v>322</v>
-      </c>
-      <c r="B228" s="6">
-        <v>322</v>
-      </c>
-      <c r="C228" s="31">
-        <v>322120</v>
-      </c>
-      <c r="D228" t="s">
-        <v>260</v>
-      </c>
-      <c r="E228" t="s">
-        <v>991</v>
-      </c>
-      <c r="F228" t="s">
-        <v>748</v>
-      </c>
-      <c r="G228" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -54007,10 +54028,10 @@
         <v>322</v>
       </c>
       <c r="C229" s="31">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="D229" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E229" t="s">
         <v>991</v>
@@ -54030,10 +54051,10 @@
         <v>322</v>
       </c>
       <c r="C230" s="31">
-        <v>322210</v>
+        <v>322120</v>
       </c>
       <c r="D230" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E230" t="s">
         <v>991</v>
@@ -54053,10 +54074,10 @@
         <v>322</v>
       </c>
       <c r="C231" s="31">
-        <v>322220</v>
+        <v>322130</v>
       </c>
       <c r="D231" t="s">
-        <v>466</v>
+        <v>261</v>
       </c>
       <c r="E231" t="s">
         <v>991</v>
@@ -54076,10 +54097,10 @@
         <v>322</v>
       </c>
       <c r="C232" s="31">
-        <v>322230</v>
+        <v>322210</v>
       </c>
       <c r="D232" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E232" t="s">
         <v>991</v>
@@ -54099,10 +54120,10 @@
         <v>322</v>
       </c>
       <c r="C233" s="31">
-        <v>322291</v>
+        <v>322220</v>
       </c>
       <c r="D233" t="s">
-        <v>264</v>
+        <v>466</v>
       </c>
       <c r="E233" t="s">
         <v>991</v>
@@ -54122,10 +54143,10 @@
         <v>322</v>
       </c>
       <c r="C234" s="31">
-        <v>322299</v>
+        <v>322230</v>
       </c>
       <c r="D234" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E234" t="s">
         <v>991</v>
@@ -54139,94 +54160,94 @@
     </row>
     <row r="235" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A235" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B235" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C235" s="31">
-        <v>323110</v>
+        <v>322291</v>
       </c>
       <c r="D235" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E235" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F235" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G235" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A236" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B236" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C236" s="31">
-        <v>323120</v>
+        <v>322299</v>
       </c>
       <c r="D236" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E236" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F236" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G236" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A237" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B237" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C237" s="31">
-        <v>324110</v>
+        <v>323110</v>
       </c>
       <c r="D237" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E237" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F237" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G237" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A238" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B238" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="31">
-        <v>324121</v>
+        <v>323120</v>
       </c>
       <c r="D238" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E238" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F238" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G238" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -54237,10 +54258,10 @@
         <v>324</v>
       </c>
       <c r="C239" s="31">
-        <v>324122</v>
+        <v>324110</v>
       </c>
       <c r="D239" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E239" t="s">
         <v>993</v>
@@ -54260,10 +54281,10 @@
         <v>324</v>
       </c>
       <c r="C240" s="31">
-        <v>324190</v>
+        <v>324121</v>
       </c>
       <c r="D240" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E240" t="s">
         <v>993</v>
@@ -54277,48 +54298,48 @@
     </row>
     <row r="241" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A241" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B241" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C241" s="31">
-        <v>325110</v>
+        <v>324122</v>
       </c>
       <c r="D241" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E241" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F241" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G241" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A242" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B242" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C242" s="31">
-        <v>325120</v>
+        <v>324190</v>
       </c>
       <c r="D242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E242" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F242" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G242" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -54329,10 +54350,10 @@
         <v>325</v>
       </c>
       <c r="C243" s="31">
-        <v>325130</v>
+        <v>325110</v>
       </c>
       <c r="D243" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E243" t="s">
         <v>994</v>
@@ -54352,10 +54373,10 @@
         <v>325</v>
       </c>
       <c r="C244" s="31">
-        <v>325180</v>
+        <v>325120</v>
       </c>
       <c r="D244" t="s">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="E244" t="s">
         <v>994</v>
@@ -54375,10 +54396,10 @@
         <v>325</v>
       </c>
       <c r="C245" s="31">
-        <v>325190</v>
+        <v>325130</v>
       </c>
       <c r="D245" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E245" t="s">
         <v>994</v>
@@ -54398,10 +54419,10 @@
         <v>325</v>
       </c>
       <c r="C246" s="31">
-        <v>325211</v>
+        <v>325180</v>
       </c>
       <c r="D246" t="s">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="E246" t="s">
         <v>994</v>
@@ -54420,11 +54441,11 @@
       <c r="B247" s="6">
         <v>325</v>
       </c>
-      <c r="C247" s="31" t="s">
-        <v>277</v>
+      <c r="C247" s="31">
+        <v>325190</v>
       </c>
       <c r="D247" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E247" t="s">
         <v>994</v>
@@ -54444,10 +54465,10 @@
         <v>325</v>
       </c>
       <c r="C248" s="31">
-        <v>325411</v>
+        <v>325211</v>
       </c>
       <c r="D248" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E248" t="s">
         <v>994</v>
@@ -54466,11 +54487,11 @@
       <c r="B249" s="6">
         <v>325</v>
       </c>
-      <c r="C249" s="31">
-        <v>325412</v>
+      <c r="C249" s="31" t="s">
+        <v>277</v>
       </c>
       <c r="D249" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E249" t="s">
         <v>994</v>
@@ -54490,10 +54511,10 @@
         <v>325</v>
       </c>
       <c r="C250" s="31">
-        <v>325413</v>
+        <v>325411</v>
       </c>
       <c r="D250" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E250" t="s">
         <v>994</v>
@@ -54513,10 +54534,10 @@
         <v>325</v>
       </c>
       <c r="C251" s="31">
-        <v>325414</v>
+        <v>325412</v>
       </c>
       <c r="D251" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E251" t="s">
         <v>994</v>
@@ -54536,10 +54557,10 @@
         <v>325</v>
       </c>
       <c r="C252" s="31">
-        <v>325310</v>
+        <v>325413</v>
       </c>
       <c r="D252" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E252" t="s">
         <v>994</v>
@@ -54559,10 +54580,10 @@
         <v>325</v>
       </c>
       <c r="C253" s="31">
-        <v>325320</v>
+        <v>325414</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E253" t="s">
         <v>994</v>
@@ -54582,10 +54603,10 @@
         <v>325</v>
       </c>
       <c r="C254" s="31">
-        <v>325510</v>
+        <v>325310</v>
       </c>
       <c r="D254" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E254" t="s">
         <v>994</v>
@@ -54605,10 +54626,10 @@
         <v>325</v>
       </c>
       <c r="C255" s="31">
-        <v>325520</v>
+        <v>325320</v>
       </c>
       <c r="D255" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E255" t="s">
         <v>994</v>
@@ -54628,10 +54649,10 @@
         <v>325</v>
       </c>
       <c r="C256" s="31">
-        <v>325610</v>
+        <v>325510</v>
       </c>
       <c r="D256" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E256" t="s">
         <v>994</v>
@@ -54651,10 +54672,10 @@
         <v>325</v>
       </c>
       <c r="C257" s="31">
-        <v>325620</v>
+        <v>325520</v>
       </c>
       <c r="D257" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E257" t="s">
         <v>994</v>
@@ -54674,10 +54695,10 @@
         <v>325</v>
       </c>
       <c r="C258" s="31">
-        <v>325910</v>
+        <v>325610</v>
       </c>
       <c r="D258" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E258" t="s">
         <v>994</v>
@@ -54696,11 +54717,11 @@
       <c r="B259" s="6">
         <v>325</v>
       </c>
-      <c r="C259" s="31" t="s">
-        <v>290</v>
+      <c r="C259" s="31">
+        <v>325620</v>
       </c>
       <c r="D259" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E259" t="s">
         <v>994</v>
@@ -54714,48 +54735,48 @@
     </row>
     <row r="260" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A260" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B260" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C260" s="31">
-        <v>326110</v>
+        <v>325910</v>
       </c>
       <c r="D260" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E260" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F260" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G260" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A261" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B261" s="6">
-        <v>326</v>
-      </c>
-      <c r="C261" s="31">
-        <v>326120</v>
+        <v>325</v>
+      </c>
+      <c r="C261" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="D261" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E261" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F261" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G261" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -54766,10 +54787,10 @@
         <v>326</v>
       </c>
       <c r="C262" s="31">
-        <v>326130</v>
+        <v>326110</v>
       </c>
       <c r="D262" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E262" t="s">
         <v>995</v>
@@ -54789,10 +54810,10 @@
         <v>326</v>
       </c>
       <c r="C263" s="31">
-        <v>326140</v>
+        <v>326120</v>
       </c>
       <c r="D263" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E263" t="s">
         <v>995</v>
@@ -54812,10 +54833,10 @@
         <v>326</v>
       </c>
       <c r="C264" s="31">
-        <v>326150</v>
+        <v>326130</v>
       </c>
       <c r="D264" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E264" t="s">
         <v>995</v>
@@ -54835,10 +54856,10 @@
         <v>326</v>
       </c>
       <c r="C265" s="31">
-        <v>326160</v>
+        <v>326140</v>
       </c>
       <c r="D265" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E265" t="s">
         <v>995</v>
@@ -54858,10 +54879,10 @@
         <v>326</v>
       </c>
       <c r="C266" s="31">
-        <v>326190</v>
+        <v>326150</v>
       </c>
       <c r="D266" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E266" t="s">
         <v>995</v>
@@ -54881,10 +54902,10 @@
         <v>326</v>
       </c>
       <c r="C267" s="31">
-        <v>326210</v>
+        <v>326160</v>
       </c>
       <c r="D267" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E267" t="s">
         <v>995</v>
@@ -54904,10 +54925,10 @@
         <v>326</v>
       </c>
       <c r="C268" s="31">
-        <v>326220</v>
+        <v>326190</v>
       </c>
       <c r="D268" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E268" t="s">
         <v>995</v>
@@ -54927,10 +54948,10 @@
         <v>326</v>
       </c>
       <c r="C269" s="31">
-        <v>326290</v>
+        <v>326210</v>
       </c>
       <c r="D269" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E269" t="s">
         <v>995</v>
@@ -54944,48 +54965,48 @@
     </row>
     <row r="270" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A270" s="6">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="B270" s="6">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="C270" s="31">
-        <v>423100</v>
+        <v>326220</v>
       </c>
       <c r="D270" t="s">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="E270" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F270" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G270" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A271" s="6">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="B271" s="6">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="C271" s="31">
-        <v>423400</v>
+        <v>326290</v>
       </c>
       <c r="D271" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="E271" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F271" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G271" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -54996,10 +55017,10 @@
         <v>42</v>
       </c>
       <c r="C272" s="31">
-        <v>423600</v>
+        <v>423100</v>
       </c>
       <c r="D272" t="s">
-        <v>595</v>
+        <v>452</v>
       </c>
       <c r="E272" t="s">
         <v>996</v>
@@ -55019,10 +55040,10 @@
         <v>42</v>
       </c>
       <c r="C273" s="31">
-        <v>423800</v>
+        <v>423400</v>
       </c>
       <c r="D273" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E273" t="s">
         <v>996</v>
@@ -55041,11 +55062,11 @@
       <c r="B274" s="6">
         <v>42</v>
       </c>
-      <c r="C274" s="31" t="s">
-        <v>438</v>
+      <c r="C274" s="31">
+        <v>423600</v>
       </c>
       <c r="D274" t="s">
-        <v>423</v>
+        <v>595</v>
       </c>
       <c r="E274" t="s">
         <v>996</v>
@@ -55065,10 +55086,10 @@
         <v>42</v>
       </c>
       <c r="C275" s="31">
-        <v>424200</v>
+        <v>423800</v>
       </c>
       <c r="D275" t="s">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="E275" t="s">
         <v>996</v>
@@ -55087,11 +55108,11 @@
       <c r="B276" s="6">
         <v>42</v>
       </c>
-      <c r="C276" s="31">
-        <v>424400</v>
+      <c r="C276" s="31" t="s">
+        <v>438</v>
       </c>
       <c r="D276" t="s">
-        <v>599</v>
+        <v>423</v>
       </c>
       <c r="E276" t="s">
         <v>996</v>
@@ -55111,10 +55132,10 @@
         <v>42</v>
       </c>
       <c r="C277" s="31">
-        <v>424700</v>
+        <v>424200</v>
       </c>
       <c r="D277" t="s">
-        <v>455</v>
+        <v>598</v>
       </c>
       <c r="E277" t="s">
         <v>996</v>
@@ -55133,11 +55154,11 @@
       <c r="B278" s="6">
         <v>42</v>
       </c>
-      <c r="C278" s="31" t="s">
-        <v>439</v>
+      <c r="C278" s="31">
+        <v>424400</v>
       </c>
       <c r="D278" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="E278" t="s">
         <v>996</v>
@@ -55157,10 +55178,10 @@
         <v>42</v>
       </c>
       <c r="C279" s="31">
-        <v>425000</v>
+        <v>424700</v>
       </c>
       <c r="D279" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="E279" t="s">
         <v>996</v>
@@ -55180,10 +55201,10 @@
         <v>42</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D280" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E280" t="s">
         <v>996</v>
@@ -55197,117 +55218,117 @@
     </row>
     <row r="281" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A281" s="6">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="B281" s="6">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="C281" s="31">
-        <v>441000</v>
+        <v>425000</v>
       </c>
       <c r="D281" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="E281" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F281" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G281" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A282" s="6">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="B282" s="6">
-        <v>445</v>
-      </c>
-      <c r="C282" s="31">
-        <v>445000</v>
+        <v>42</v>
+      </c>
+      <c r="C282" s="31" t="s">
+        <v>440</v>
       </c>
       <c r="D282" t="s">
-        <v>2</v>
+        <v>426</v>
       </c>
       <c r="E282" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F282" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G282" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A283" s="6">
+        <v>441</v>
+      </c>
+      <c r="B283" s="6">
+        <v>441</v>
+      </c>
+      <c r="C283" s="31">
+        <v>441000</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>997</v>
+      </c>
+      <c r="F283" t="s">
+        <v>754</v>
+      </c>
+      <c r="G283" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A284" s="6">
+        <v>445</v>
+      </c>
+      <c r="B284" s="6">
+        <v>445</v>
+      </c>
+      <c r="C284" s="31">
+        <v>445000</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>998</v>
+      </c>
+      <c r="F284" t="s">
+        <v>755</v>
+      </c>
+      <c r="G284" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A285" s="6">
         <v>452</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B285" s="6">
         <v>452</v>
       </c>
-      <c r="C283" s="31">
+      <c r="C285" s="31">
         <v>452000</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D285" t="s">
         <v>3</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E285" t="s">
         <v>999</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F285" t="s">
         <v>756</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G285" t="s">
         <v>756</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A284" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C284" s="31">
-        <v>444000</v>
-      </c>
-      <c r="D284" t="s">
-        <v>427</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F284" t="s">
-        <v>757</v>
-      </c>
-      <c r="G284" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A285" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C285" s="31">
-        <v>446000</v>
-      </c>
-      <c r="D285" t="s">
-        <v>428</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F285" t="s">
-        <v>757</v>
-      </c>
-      <c r="G285" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -55318,10 +55339,10 @@
         <v>606</v>
       </c>
       <c r="C286" s="31">
-        <v>447000</v>
+        <v>444000</v>
       </c>
       <c r="D286" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E286" t="s">
         <v>1000</v>
@@ -55341,10 +55362,10 @@
         <v>606</v>
       </c>
       <c r="C287" s="31">
-        <v>448000</v>
+        <v>446000</v>
       </c>
       <c r="D287" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E287" t="s">
         <v>1000</v>
@@ -55364,10 +55385,10 @@
         <v>606</v>
       </c>
       <c r="C288" s="31">
-        <v>454000</v>
+        <v>447000</v>
       </c>
       <c r="D288" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E288" t="s">
         <v>1000</v>
@@ -55386,11 +55407,11 @@
       <c r="B289" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C289" s="31" t="s">
-        <v>441</v>
+      <c r="C289" s="31">
+        <v>448000</v>
       </c>
       <c r="D289" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="E289" t="s">
         <v>1000</v>
@@ -55403,256 +55424,256 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A290" s="6">
-        <v>481</v>
-      </c>
-      <c r="B290" s="6">
-        <v>481</v>
+      <c r="A290" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>606</v>
       </c>
       <c r="C290" s="31">
-        <v>481000</v>
+        <v>454000</v>
       </c>
       <c r="D290" t="s">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="E290" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F290" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G290" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A291" s="6">
-        <v>482</v>
-      </c>
-      <c r="B291" s="6">
-        <v>482</v>
-      </c>
-      <c r="C291" s="31">
-        <v>482000</v>
+      <c r="A291" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C291" s="31" t="s">
+        <v>441</v>
       </c>
       <c r="D291" t="s">
-        <v>5</v>
+        <v>459</v>
       </c>
       <c r="E291" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F291" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G291" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A292" s="6">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B292" s="6">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C292" s="31">
-        <v>483000</v>
+        <v>481000</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F292" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G292" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A293" s="6">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B293" s="6">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C293" s="31">
-        <v>484000</v>
+        <v>482000</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E293" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F293" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G293" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A294" s="6">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B294" s="6">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C294" s="31">
-        <v>485000</v>
+        <v>483000</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F294" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G294" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A295" s="6">
+        <v>484</v>
+      </c>
+      <c r="B295" s="6">
+        <v>484</v>
+      </c>
+      <c r="C295" s="31">
+        <v>484000</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F295" t="s">
+        <v>761</v>
+      </c>
+      <c r="G295" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A296" s="6">
+        <v>485</v>
+      </c>
+      <c r="B296" s="6">
+        <v>485</v>
+      </c>
+      <c r="C296" s="31">
+        <v>485000</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F296" t="s">
+        <v>762</v>
+      </c>
+      <c r="G296" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A297" s="6">
         <v>486</v>
       </c>
-      <c r="B295" s="6">
+      <c r="B297" s="6">
         <v>486</v>
       </c>
-      <c r="C295" s="31">
+      <c r="C297" s="31">
         <v>486000</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D297" t="s">
         <v>9</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E297" t="s">
         <v>1006</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F297" t="s">
         <v>763</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G297" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A296" s="6" t="s">
+    <row r="298" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A298" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B298" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C296" s="31" t="s">
+      <c r="C298" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D298" t="s">
         <v>618</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E298" t="s">
         <v>1007</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F298" t="s">
         <v>764</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G298" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A297" s="6" t="s">
+    <row r="299" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A299" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B299" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C297" s="31">
+      <c r="C299" s="31">
         <v>492000</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D299" t="s">
         <v>303</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E299" t="s">
         <v>1007</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F299" t="s">
         <v>764</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G299" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A298" s="6">
-        <v>493</v>
-      </c>
-      <c r="B298" s="6">
-        <v>493</v>
-      </c>
-      <c r="C298" s="31">
-        <v>493000</v>
-      </c>
-      <c r="D298" t="s">
-        <v>10</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F298" t="s">
-        <v>765</v>
-      </c>
-      <c r="G298" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A299" s="6">
-        <v>511</v>
-      </c>
-      <c r="B299" s="6">
-        <v>511</v>
-      </c>
-      <c r="C299" s="31">
-        <v>511110</v>
-      </c>
-      <c r="D299" t="s">
-        <v>304</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F299" t="s">
-        <v>766</v>
-      </c>
-      <c r="G299" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A300" s="6">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B300" s="6">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C300" s="31">
-        <v>511120</v>
+        <v>493000</v>
       </c>
       <c r="D300" t="s">
-        <v>623</v>
+        <v>10</v>
       </c>
       <c r="E300" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F300" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G300" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -55663,10 +55684,10 @@
         <v>511</v>
       </c>
       <c r="C301" s="31">
-        <v>511130</v>
+        <v>511110</v>
       </c>
       <c r="D301" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E301" t="s">
         <v>1009</v>
@@ -55685,11 +55706,11 @@
       <c r="B302" s="6">
         <v>511</v>
       </c>
-      <c r="C302" s="31" t="s">
-        <v>306</v>
+      <c r="C302" s="31">
+        <v>511120</v>
       </c>
       <c r="D302" t="s">
-        <v>307</v>
+        <v>623</v>
       </c>
       <c r="E302" t="s">
         <v>1009</v>
@@ -55709,10 +55730,10 @@
         <v>511</v>
       </c>
       <c r="C303" s="31">
-        <v>511200</v>
+        <v>511130</v>
       </c>
       <c r="D303" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E303" t="s">
         <v>1009</v>
@@ -55726,94 +55747,94 @@
     </row>
     <row r="304" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A304" s="6">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B304" s="6">
-        <v>512</v>
-      </c>
-      <c r="C304" s="31">
-        <v>512100</v>
+        <v>511</v>
+      </c>
+      <c r="C304" s="31" t="s">
+        <v>306</v>
       </c>
       <c r="D304" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F304" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G304" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A305" s="6">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B305" s="6">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C305" s="31">
-        <v>512200</v>
+        <v>511200</v>
       </c>
       <c r="D305" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F305" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G305" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A306" s="6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B306" s="6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C306" s="31">
-        <v>515100</v>
+        <v>512100</v>
       </c>
       <c r="D306" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F306" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G306" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A307" s="6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B307" s="6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C307" s="31">
-        <v>515200</v>
+        <v>512200</v>
       </c>
       <c r="D307" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F307" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G307" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -55824,10 +55845,10 @@
         <v>513</v>
       </c>
       <c r="C308" s="31">
-        <v>517110</v>
+        <v>515100</v>
       </c>
       <c r="D308" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E308" t="s">
         <v>1011</v>
@@ -55847,10 +55868,10 @@
         <v>513</v>
       </c>
       <c r="C309" s="31">
-        <v>517210</v>
+        <v>515200</v>
       </c>
       <c r="D309" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E309" t="s">
         <v>1011</v>
@@ -55869,11 +55890,11 @@
       <c r="B310" s="6">
         <v>513</v>
       </c>
-      <c r="C310" s="31" t="s">
-        <v>315</v>
+      <c r="C310" s="31">
+        <v>517110</v>
       </c>
       <c r="D310" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E310" t="s">
         <v>1011</v>
@@ -55887,48 +55908,48 @@
     </row>
     <row r="311" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A311" s="6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B311" s="6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C311" s="31">
-        <v>518200</v>
+        <v>517210</v>
       </c>
       <c r="D311" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F311" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G311" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A312" s="6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B312" s="6">
-        <v>514</v>
-      </c>
-      <c r="C312" s="31">
-        <v>519130</v>
+        <v>513</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="D312" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E312" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F312" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G312" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -55938,11 +55959,11 @@
       <c r="B313" s="6">
         <v>514</v>
       </c>
-      <c r="C313" s="31" t="s">
-        <v>318</v>
+      <c r="C313" s="31">
+        <v>518200</v>
       </c>
       <c r="D313" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E313" t="s">
         <v>1012</v>
@@ -55955,141 +55976,141 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="6">
+        <v>514</v>
+      </c>
+      <c r="B314" s="6">
+        <v>514</v>
+      </c>
+      <c r="C314" s="31">
+        <v>519130</v>
+      </c>
+      <c r="D314" t="s">
+        <v>320</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F314" t="s">
+        <v>769</v>
+      </c>
+      <c r="G314" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A315" s="6">
+        <v>514</v>
+      </c>
+      <c r="B315" s="6">
+        <v>514</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315" t="s">
+        <v>319</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F315" t="s">
+        <v>769</v>
+      </c>
+      <c r="G315" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A316" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B316" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C314" s="31" t="s">
+      <c r="C316" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D316" t="s">
         <v>322</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E316" t="s">
         <v>1013</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F316" t="s">
         <v>770</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G316" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A315" s="6" t="s">
+    <row r="317" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A317" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B317" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C315" s="31" t="s">
+      <c r="C317" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D317" t="s">
         <v>324</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E317" t="s">
         <v>1013</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F317" t="s">
         <v>770</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G317" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A316" s="6">
-        <v>523</v>
-      </c>
-      <c r="B316" s="6">
-        <v>523</v>
-      </c>
-      <c r="C316" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="D316" t="s">
-        <v>326</v>
-      </c>
-      <c r="E316" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F316" t="s">
-        <v>771</v>
-      </c>
-      <c r="G316" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A317" s="6">
-        <v>523</v>
-      </c>
-      <c r="B317" s="6">
-        <v>523</v>
-      </c>
-      <c r="C317" s="31">
-        <v>523900</v>
-      </c>
-      <c r="D317" t="s">
-        <v>327</v>
-      </c>
-      <c r="E317" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F317" t="s">
-        <v>771</v>
-      </c>
-      <c r="G317" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A318" s="6">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B318" s="6">
-        <v>524</v>
-      </c>
-      <c r="C318" s="31">
-        <v>524113</v>
+        <v>523</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>325</v>
       </c>
       <c r="D318" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
       <c r="E318" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F318" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G318" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A319" s="6">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B319" s="6">
-        <v>524</v>
-      </c>
-      <c r="C319" s="31" t="s">
-        <v>456</v>
+        <v>523</v>
+      </c>
+      <c r="C319" s="31">
+        <v>523900</v>
       </c>
       <c r="D319" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="E319" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F319" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G319" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56100,10 +56121,10 @@
         <v>524</v>
       </c>
       <c r="C320" s="31">
-        <v>524200</v>
+        <v>524113</v>
       </c>
       <c r="D320" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="E320" t="s">
         <v>1015</v>
@@ -56117,140 +56138,140 @@
     </row>
     <row r="321" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A321" s="6">
+        <v>524</v>
+      </c>
+      <c r="B321" s="6">
+        <v>524</v>
+      </c>
+      <c r="C321" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D321" t="s">
+        <v>432</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F321" t="s">
+        <v>772</v>
+      </c>
+      <c r="G321" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A322" s="6">
+        <v>524</v>
+      </c>
+      <c r="B322" s="6">
+        <v>524</v>
+      </c>
+      <c r="C322" s="31">
+        <v>524200</v>
+      </c>
+      <c r="D322" t="s">
+        <v>328</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F322" t="s">
+        <v>772</v>
+      </c>
+      <c r="G322" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A323" s="6">
         <v>525</v>
       </c>
-      <c r="B321" s="6">
+      <c r="B323" s="6">
         <v>525</v>
       </c>
-      <c r="C321" s="31">
+      <c r="C323" s="31">
         <v>525000</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D323" t="s">
         <v>11</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E323" t="s">
         <v>1016</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F323" t="s">
         <v>773</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G323" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A322" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C322" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="D322" t="s">
-        <v>433</v>
-      </c>
-      <c r="E322" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F322" t="s">
-        <v>774</v>
-      </c>
-      <c r="G322" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A323" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C323" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D323" t="s">
-        <v>434</v>
-      </c>
-      <c r="E323" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F323" t="s">
-        <v>774</v>
-      </c>
-      <c r="G323" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="D324" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="E324" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F324" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G324" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C325" s="31">
-        <v>532100</v>
+        <v>646</v>
+      </c>
+      <c r="C325" s="31" t="s">
+        <v>443</v>
       </c>
       <c r="D325" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="E325" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F325" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G325" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D326" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="E326" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F326" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G326" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56261,10 +56282,10 @@
         <v>651</v>
       </c>
       <c r="C327" s="31">
-        <v>532400</v>
+        <v>532100</v>
       </c>
       <c r="D327" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E327" t="s">
         <v>1019</v>
@@ -56283,11 +56304,11 @@
       <c r="B328" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C328" s="31">
-        <v>533000</v>
+      <c r="C328" s="31" t="s">
+        <v>331</v>
       </c>
       <c r="D328" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="E328" t="s">
         <v>1019</v>
@@ -56300,72 +56321,72 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A329" s="6">
-        <v>5411</v>
-      </c>
-      <c r="B329" s="6">
-        <v>5411</v>
+      <c r="A329" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="C329" s="31">
-        <v>541100</v>
+        <v>532400</v>
       </c>
       <c r="D329" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F329" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G329" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C330" s="31">
-        <v>541200</v>
+        <v>533000</v>
       </c>
       <c r="D330" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F330" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G330" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A331" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>655</v>
+      <c r="A331" s="6">
+        <v>5411</v>
+      </c>
+      <c r="B331" s="6">
+        <v>5411</v>
       </c>
       <c r="C331" s="31">
-        <v>541300</v>
+        <v>541100</v>
       </c>
       <c r="D331" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="E331" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F331" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G331" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56376,10 +56397,10 @@
         <v>655</v>
       </c>
       <c r="C332" s="31">
-        <v>541610</v>
+        <v>541200</v>
       </c>
       <c r="D332" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E332" t="s">
         <v>1021</v>
@@ -56398,11 +56419,11 @@
       <c r="B333" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C333" s="31" t="s">
-        <v>342</v>
+      <c r="C333" s="31">
+        <v>541300</v>
       </c>
       <c r="D333" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E333" t="s">
         <v>1021</v>
@@ -56422,10 +56443,10 @@
         <v>655</v>
       </c>
       <c r="C334" s="31">
-        <v>541700</v>
+        <v>541610</v>
       </c>
       <c r="D334" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E334" t="s">
         <v>1021</v>
@@ -56444,11 +56465,11 @@
       <c r="B335" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C335" s="31">
-        <v>541800</v>
+      <c r="C335" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="D335" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E335" t="s">
         <v>1021</v>
@@ -56468,10 +56489,10 @@
         <v>655</v>
       </c>
       <c r="C336" s="31">
-        <v>541400</v>
+        <v>541700</v>
       </c>
       <c r="D336" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E336" t="s">
         <v>1021</v>
@@ -56490,11 +56511,11 @@
       <c r="B337" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C337" s="31" t="s">
-        <v>346</v>
+      <c r="C337" s="31">
+        <v>541800</v>
       </c>
       <c r="D337" t="s">
-        <v>661</v>
+        <v>345</v>
       </c>
       <c r="E337" t="s">
         <v>1021</v>
@@ -56514,10 +56535,10 @@
         <v>655</v>
       </c>
       <c r="C338" s="31">
-        <v>541920</v>
+        <v>541400</v>
       </c>
       <c r="D338" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E338" t="s">
         <v>1021</v>
@@ -56536,11 +56557,11 @@
       <c r="B339" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C339" s="31">
-        <v>541940</v>
+      <c r="C339" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="D339" t="s">
-        <v>348</v>
+        <v>661</v>
       </c>
       <c r="E339" t="s">
         <v>1021</v>
@@ -56553,49 +56574,49 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A340" s="6">
-        <v>5415</v>
-      </c>
-      <c r="B340" s="6">
-        <v>5415</v>
+      <c r="A340" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="C340" s="31">
-        <v>541511</v>
+        <v>541920</v>
       </c>
       <c r="D340" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E340" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F340" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G340" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A341" s="6">
-        <v>5415</v>
-      </c>
-      <c r="B341" s="6">
-        <v>5415</v>
+      <c r="A341" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="C341" s="31">
-        <v>541512</v>
+        <v>541940</v>
       </c>
       <c r="D341" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E341" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F341" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G341" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56605,11 +56626,11 @@
       <c r="B342" s="6">
         <v>5415</v>
       </c>
-      <c r="C342" s="31" t="s">
-        <v>336</v>
+      <c r="C342" s="31">
+        <v>541511</v>
       </c>
       <c r="D342" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E342" t="s">
         <v>1022</v>
@@ -56623,71 +56644,71 @@
     </row>
     <row r="343" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A343" s="6">
-        <v>55</v>
+        <v>5415</v>
       </c>
       <c r="B343" s="6">
-        <v>55</v>
+        <v>5415</v>
       </c>
       <c r="C343" s="31">
-        <v>550000</v>
+        <v>541512</v>
       </c>
       <c r="D343" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="E343" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F343" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G343" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A344" s="6">
-        <v>561</v>
+        <v>5415</v>
       </c>
       <c r="B344" s="6">
-        <v>561</v>
-      </c>
-      <c r="C344" s="31">
-        <v>561300</v>
+        <v>5415</v>
+      </c>
+      <c r="C344" s="31" t="s">
+        <v>336</v>
       </c>
       <c r="D344" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="E344" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F344" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G344" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A345" s="6">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B345" s="6">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="C345" s="31">
-        <v>561700</v>
+        <v>550000</v>
       </c>
       <c r="D345" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="E345" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F345" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G345" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56698,10 +56719,10 @@
         <v>561</v>
       </c>
       <c r="C346" s="31">
-        <v>561100</v>
+        <v>561300</v>
       </c>
       <c r="D346" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E346" t="s">
         <v>1024</v>
@@ -56721,10 +56742,10 @@
         <v>561</v>
       </c>
       <c r="C347" s="31">
-        <v>561200</v>
+        <v>561700</v>
       </c>
       <c r="D347" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E347" t="s">
         <v>1024</v>
@@ -56744,10 +56765,10 @@
         <v>561</v>
       </c>
       <c r="C348" s="31">
-        <v>561400</v>
+        <v>561100</v>
       </c>
       <c r="D348" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E348" t="s">
         <v>1024</v>
@@ -56767,10 +56788,10 @@
         <v>561</v>
       </c>
       <c r="C349" s="31">
-        <v>561500</v>
+        <v>561200</v>
       </c>
       <c r="D349" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E349" t="s">
         <v>1024</v>
@@ -56790,10 +56811,10 @@
         <v>561</v>
       </c>
       <c r="C350" s="31">
-        <v>561600</v>
+        <v>561400</v>
       </c>
       <c r="D350" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E350" t="s">
         <v>1024</v>
@@ -56813,10 +56834,10 @@
         <v>561</v>
       </c>
       <c r="C351" s="31">
-        <v>561900</v>
+        <v>561500</v>
       </c>
       <c r="D351" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E351" t="s">
         <v>1024</v>
@@ -56830,71 +56851,71 @@
     </row>
     <row r="352" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A352" s="6">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B352" s="6">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C352" s="31">
-        <v>562000</v>
+        <v>561600</v>
       </c>
       <c r="D352" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="E352" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F352" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G352" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A353" s="6">
-        <v>61</v>
+        <v>561</v>
       </c>
       <c r="B353" s="6">
-        <v>61</v>
+        <v>561</v>
       </c>
       <c r="C353" s="31">
-        <v>611100</v>
+        <v>561900</v>
       </c>
       <c r="D353" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F353" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G353" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A354" s="6">
-        <v>61</v>
+        <v>562</v>
       </c>
       <c r="B354" s="6">
-        <v>61</v>
-      </c>
-      <c r="C354" s="31" t="s">
-        <v>358</v>
+        <v>562</v>
+      </c>
+      <c r="C354" s="31">
+        <v>562000</v>
       </c>
       <c r="D354" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="E354" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F354" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G354" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56904,11 +56925,11 @@
       <c r="B355" s="6">
         <v>61</v>
       </c>
-      <c r="C355" s="31" t="s">
-        <v>360</v>
+      <c r="C355" s="31">
+        <v>611100</v>
       </c>
       <c r="D355" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E355" t="s">
         <v>1026</v>
@@ -56922,48 +56943,48 @@
     </row>
     <row r="356" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A356" s="6">
-        <v>621</v>
+        <v>61</v>
       </c>
       <c r="B356" s="6">
-        <v>621</v>
-      </c>
-      <c r="C356" s="31">
-        <v>621100</v>
+        <v>61</v>
+      </c>
+      <c r="C356" s="31" t="s">
+        <v>358</v>
       </c>
       <c r="D356" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F356" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G356" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A357" s="6">
-        <v>621</v>
+        <v>61</v>
       </c>
       <c r="B357" s="6">
-        <v>621</v>
-      </c>
-      <c r="C357" s="31">
-        <v>621200</v>
+        <v>61</v>
+      </c>
+      <c r="C357" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="D357" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E357" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F357" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G357" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -56974,10 +56995,10 @@
         <v>621</v>
       </c>
       <c r="C358" s="31">
-        <v>621300</v>
+        <v>621100</v>
       </c>
       <c r="D358" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E358" t="s">
         <v>1027</v>
@@ -56997,10 +57018,10 @@
         <v>621</v>
       </c>
       <c r="C359" s="31">
-        <v>621400</v>
+        <v>621200</v>
       </c>
       <c r="D359" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E359" t="s">
         <v>1027</v>
@@ -57020,10 +57041,10 @@
         <v>621</v>
       </c>
       <c r="C360" s="31">
-        <v>621500</v>
+        <v>621300</v>
       </c>
       <c r="D360" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E360" t="s">
         <v>1027</v>
@@ -57043,10 +57064,10 @@
         <v>621</v>
       </c>
       <c r="C361" s="31">
-        <v>621600</v>
+        <v>621400</v>
       </c>
       <c r="D361" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E361" t="s">
         <v>1027</v>
@@ -57066,10 +57087,10 @@
         <v>621</v>
       </c>
       <c r="C362" s="31">
-        <v>621900</v>
+        <v>621500</v>
       </c>
       <c r="D362" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E362" t="s">
         <v>1027</v>
@@ -57083,117 +57104,117 @@
     </row>
     <row r="363" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A363" s="6">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B363" s="6">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C363" s="31">
-        <v>622000</v>
+        <v>621600</v>
       </c>
       <c r="D363" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="E363" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F363" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G363" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A364" s="6">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B364" s="6">
-        <v>623</v>
-      </c>
-      <c r="C364" s="31" t="s">
-        <v>369</v>
+        <v>621</v>
+      </c>
+      <c r="C364" s="31">
+        <v>621900</v>
       </c>
       <c r="D364" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E364" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F364" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G364" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A365" s="6">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B365" s="6">
-        <v>623</v>
-      </c>
-      <c r="C365" s="31" t="s">
-        <v>371</v>
+        <v>622</v>
+      </c>
+      <c r="C365" s="31">
+        <v>622000</v>
       </c>
       <c r="D365" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="E365" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F365" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G365" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A366" s="6">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B366" s="6">
-        <v>624</v>
-      </c>
-      <c r="C366" s="31">
-        <v>624100</v>
+        <v>623</v>
+      </c>
+      <c r="C366" s="31" t="s">
+        <v>369</v>
       </c>
       <c r="D366" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E366" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F366" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G366" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A367" s="6">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B367" s="6">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C367" s="31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D367" t="s">
-        <v>681</v>
+        <v>458</v>
       </c>
       <c r="E367" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F367" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G367" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57204,10 +57225,10 @@
         <v>624</v>
       </c>
       <c r="C368" s="31">
-        <v>624400</v>
+        <v>624100</v>
       </c>
       <c r="D368" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E368" t="s">
         <v>1030</v>
@@ -57220,49 +57241,49 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A369" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C369" s="31">
-        <v>711100</v>
+      <c r="A369" s="6">
+        <v>624</v>
+      </c>
+      <c r="B369" s="6">
+        <v>624</v>
+      </c>
+      <c r="C369" s="31" t="s">
+        <v>373</v>
       </c>
       <c r="D369" t="s">
-        <v>375</v>
+        <v>681</v>
       </c>
       <c r="E369" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F369" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G369" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A370" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>684</v>
+      <c r="A370" s="6">
+        <v>624</v>
+      </c>
+      <c r="B370" s="6">
+        <v>624</v>
       </c>
       <c r="C370" s="31">
-        <v>711200</v>
+        <v>624400</v>
       </c>
       <c r="D370" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E370" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F370" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G370" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57272,11 +57293,11 @@
       <c r="B371" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C371" s="31" t="s">
-        <v>377</v>
+      <c r="C371" s="31">
+        <v>711100</v>
       </c>
       <c r="D371" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E371" t="s">
         <v>1031</v>
@@ -57296,10 +57317,10 @@
         <v>684</v>
       </c>
       <c r="C372" s="31">
-        <v>711500</v>
+        <v>711200</v>
       </c>
       <c r="D372" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E372" t="s">
         <v>1031</v>
@@ -57318,11 +57339,11 @@
       <c r="B373" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C373" s="31">
-        <v>712000</v>
+      <c r="C373" s="31" t="s">
+        <v>377</v>
       </c>
       <c r="D373" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E373" t="s">
         <v>1031</v>
@@ -57335,49 +57356,49 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A374" s="6">
-        <v>713</v>
-      </c>
-      <c r="B374" s="6">
-        <v>713</v>
+      <c r="A374" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="C374" s="31">
-        <v>713100</v>
+        <v>711500</v>
       </c>
       <c r="D374" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E374" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F374" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G374" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A375" s="6">
-        <v>713</v>
-      </c>
-      <c r="B375" s="6">
-        <v>713</v>
+      <c r="A375" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="C375" s="31">
-        <v>713200</v>
+        <v>712000</v>
       </c>
       <c r="D375" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E375" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F375" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G375" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57388,10 +57409,10 @@
         <v>713</v>
       </c>
       <c r="C376" s="31">
-        <v>713900</v>
+        <v>713100</v>
       </c>
       <c r="D376" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E376" t="s">
         <v>1032</v>
@@ -57405,71 +57426,71 @@
     </row>
     <row r="377" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A377" s="6">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B377" s="6">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C377" s="31">
-        <v>721000</v>
+        <v>713200</v>
       </c>
       <c r="D377" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="E377" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F377" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G377" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A378" s="6">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B378" s="6">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="C378" s="31">
-        <v>722110</v>
+        <v>713900</v>
       </c>
       <c r="D378" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E378" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F378" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G378" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A379" s="6">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B379" s="6">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C379" s="31">
-        <v>722211</v>
+        <v>721000</v>
       </c>
       <c r="D379" t="s">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="E379" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F379" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G379" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57479,11 +57500,11 @@
       <c r="B380" s="6">
         <v>722</v>
       </c>
-      <c r="C380" s="31" t="s">
-        <v>386</v>
+      <c r="C380" s="31">
+        <v>722110</v>
       </c>
       <c r="D380" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E380" t="s">
         <v>1034</v>
@@ -57497,48 +57518,48 @@
     </row>
     <row r="381" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A381" s="6">
-        <v>81</v>
+        <v>722</v>
       </c>
       <c r="B381" s="6">
-        <v>81</v>
+        <v>722</v>
       </c>
       <c r="C381" s="31">
-        <v>811100</v>
+        <v>722211</v>
       </c>
       <c r="D381" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="E381" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F381" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G381" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A382" s="6">
-        <v>81</v>
+        <v>722</v>
       </c>
       <c r="B382" s="6">
-        <v>81</v>
-      </c>
-      <c r="C382" s="31">
-        <v>811200</v>
+        <v>722</v>
+      </c>
+      <c r="C382" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="D382" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E382" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F382" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G382" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57549,10 +57570,10 @@
         <v>81</v>
       </c>
       <c r="C383" s="31">
-        <v>811300</v>
+        <v>811100</v>
       </c>
       <c r="D383" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="E383" t="s">
         <v>1035</v>
@@ -57572,10 +57593,10 @@
         <v>81</v>
       </c>
       <c r="C384" s="31">
-        <v>811400</v>
+        <v>811200</v>
       </c>
       <c r="D384" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E384" t="s">
         <v>1035</v>
@@ -57595,10 +57616,10 @@
         <v>81</v>
       </c>
       <c r="C385" s="31">
-        <v>812100</v>
+        <v>811300</v>
       </c>
       <c r="D385" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E385" t="s">
         <v>1035</v>
@@ -57618,10 +57639,10 @@
         <v>81</v>
       </c>
       <c r="C386" s="31">
-        <v>812200</v>
+        <v>811400</v>
       </c>
       <c r="D386" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E386" t="s">
         <v>1035</v>
@@ -57641,10 +57662,10 @@
         <v>81</v>
       </c>
       <c r="C387" s="31">
-        <v>812300</v>
+        <v>812100</v>
       </c>
       <c r="D387" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E387" t="s">
         <v>1035</v>
@@ -57664,10 +57685,10 @@
         <v>81</v>
       </c>
       <c r="C388" s="31">
-        <v>812900</v>
+        <v>812200</v>
       </c>
       <c r="D388" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E388" t="s">
         <v>1035</v>
@@ -57687,10 +57708,10 @@
         <v>81</v>
       </c>
       <c r="C389" s="31">
-        <v>813100</v>
+        <v>812300</v>
       </c>
       <c r="D389" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E389" t="s">
         <v>1035</v>
@@ -57709,11 +57730,11 @@
       <c r="B390" s="6">
         <v>81</v>
       </c>
-      <c r="C390" s="31" t="s">
-        <v>396</v>
+      <c r="C390" s="31">
+        <v>812900</v>
       </c>
       <c r="D390" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E390" t="s">
         <v>1035</v>
@@ -57732,11 +57753,11 @@
       <c r="B391" s="6">
         <v>81</v>
       </c>
-      <c r="C391" s="31" t="s">
-        <v>398</v>
+      <c r="C391" s="31">
+        <v>813100</v>
       </c>
       <c r="D391" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E391" t="s">
         <v>1035</v>
@@ -57755,11 +57776,11 @@
       <c r="B392" s="6">
         <v>81</v>
       </c>
-      <c r="C392" s="31">
-        <v>814000</v>
+      <c r="C392" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="D392" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E392" t="s">
         <v>1035</v>
@@ -57772,95 +57793,95 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A393" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>700</v>
+      <c r="A393" s="6">
+        <v>81</v>
+      </c>
+      <c r="B393" s="6">
+        <v>81</v>
       </c>
       <c r="C393" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D393" t="s">
-        <v>18</v>
+        <v>399</v>
       </c>
       <c r="E393" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F393" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G393" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A394" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="B394" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C394" s="31" t="s">
-        <v>402</v>
+      <c r="A394" s="6">
+        <v>81</v>
+      </c>
+      <c r="B394" s="6">
+        <v>81</v>
+      </c>
+      <c r="C394" s="31">
+        <v>814000</v>
       </c>
       <c r="D394" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="E394" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F394" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G394" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A395" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C395" s="31">
-        <v>491000</v>
+        <v>700</v>
+      </c>
+      <c r="C395" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="D395" t="s">
-        <v>403</v>
+        <v>18</v>
       </c>
       <c r="E395" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F395" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G395" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A396" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C396" s="31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D396" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="E396" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F396" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G396" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57870,11 +57891,11 @@
       <c r="B397" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="C397" s="31" t="s">
-        <v>406</v>
+      <c r="C397" s="31">
+        <v>491000</v>
       </c>
       <c r="D397" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E397" t="s">
         <v>1038</v>
@@ -57888,48 +57909,48 @@
     </row>
     <row r="398" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A398" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C398" s="31" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="D398" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="E398" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F398" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G398" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A399" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C399" s="31" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="D399" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="E399" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F399" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G399" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -57940,10 +57961,10 @@
         <v>705</v>
       </c>
       <c r="C400" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D400" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E400" t="s">
         <v>1039</v>
@@ -57957,48 +57978,48 @@
     </row>
     <row r="401" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A401" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C401" s="31" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="D401" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="E401" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F401" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G401" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A402" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C402" s="31" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="D402" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="E402" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F402" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G402" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
@@ -58009,10 +58030,10 @@
         <v>707</v>
       </c>
       <c r="C403" s="31" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D403" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E403" t="s">
         <v>1040</v>
@@ -58026,921 +58047,967 @@
     </row>
     <row r="404" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A404" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C404" s="31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D404" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E404" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F404" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G404" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A405" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D405" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E405" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F405" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G405" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A406" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C406" s="31" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D406" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E406" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G406" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A407" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C407" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D407" t="s">
+        <v>417</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F407" t="s">
+        <v>799</v>
+      </c>
+      <c r="G407" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A408" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B408" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C407" s="31" t="s">
+      <c r="C408" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D408" t="s">
+        <v>419</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F408" t="s">
+        <v>798</v>
+      </c>
+      <c r="G408" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A409" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C409" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D409" t="s">
         <v>421</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E409" t="s">
         <v>1042</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F409" t="s">
         <v>798</v>
       </c>
-      <c r="G407" t="s">
+      <c r="G409" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A408" t="s">
-        <v>817</v>
-      </c>
-      <c r="B408" s="39" t="s">
-        <v>858</v>
-      </c>
-      <c r="C408" t="s">
-        <v>909</v>
-      </c>
-      <c r="D408" t="s">
-        <v>899</v>
-      </c>
-      <c r="E408" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F408" t="s">
-        <v>817</v>
-      </c>
-      <c r="G408" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A409" t="s">
-        <v>818</v>
-      </c>
-      <c r="B409" s="39" t="s">
-        <v>859</v>
-      </c>
-      <c r="C409" t="s">
-        <v>910</v>
-      </c>
-      <c r="D409" t="s">
-        <v>905</v>
-      </c>
-      <c r="E409" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F409" t="s">
-        <v>818</v>
-      </c>
-      <c r="G409" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B410" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C410" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D410" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E410" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F410" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G410" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B411" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C411" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D411" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E411" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F411" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G411" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B412" s="39" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C412" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D412" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="E412" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F412" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G412" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B413" s="39" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C413" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D413" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E413" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F413" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G413" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B414" s="39" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C414" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D414" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E414" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F414" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G414" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B415" s="39" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C415" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D415" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="E415" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F415" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G415" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B416" s="39" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C416" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D416" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E416" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F416" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G416" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B417" s="39" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C417" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D417" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E417" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F417" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G417" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B418" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C418" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D418" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E418" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F418" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G418" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B419" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C419" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D419" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="E419" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F419" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G419" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B420" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C420" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D420" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="E420" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F420" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G420" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B421" s="39" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C421" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D421" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E421" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F421" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G421" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B422" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C422" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D422" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E422" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F422" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G422" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B423" s="39" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C423" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D423" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E423" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F423" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G423" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C424" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D424" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="E424" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F424" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G424" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="B425" s="39" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="C425" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D425" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E425" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F425" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="G425" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="B426" s="39" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C426" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D426" t="s">
-        <v>941</v>
+        <v>903</v>
       </c>
       <c r="E426" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F426" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="G426" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
-        <v>838</v>
-      </c>
-      <c r="B427" t="s">
-        <v>879</v>
+        <v>816</v>
+      </c>
+      <c r="B427" s="39" t="s">
+        <v>857</v>
       </c>
       <c r="C427" t="s">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="D427" t="s">
-        <v>949</v>
+        <v>906</v>
       </c>
       <c r="E427" t="s">
-        <v>950</v>
+        <v>1060</v>
       </c>
       <c r="F427" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="G427" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
+        <v>822</v>
+      </c>
+      <c r="B428" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="C428" t="s">
+        <v>927</v>
+      </c>
+      <c r="D428" t="s">
+        <v>941</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F428" t="s">
+        <v>822</v>
+      </c>
+      <c r="G428" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A429" t="s">
+        <v>838</v>
+      </c>
+      <c r="B429" t="s">
+        <v>879</v>
+      </c>
+      <c r="C429" t="s">
+        <v>879</v>
+      </c>
+      <c r="D429" t="s">
+        <v>949</v>
+      </c>
+      <c r="E429" t="s">
+        <v>950</v>
+      </c>
+      <c r="F429" t="s">
+        <v>838</v>
+      </c>
+      <c r="G429" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
         <v>806</v>
       </c>
-      <c r="B428" s="39" t="s">
+      <c r="B430" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C430" t="s">
         <v>928</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D430" t="s">
         <v>932</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E430" t="s">
         <v>1062</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F430" t="s">
         <v>806</v>
       </c>
-      <c r="G428" t="s">
+      <c r="G430" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A429" s="40" t="s">
+    <row r="431" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A431" s="40" t="s">
         <v>890</v>
       </c>
-      <c r="B429" s="39" t="s">
+      <c r="B431" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C431" t="s">
         <v>929</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D431" t="s">
         <v>933</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E431" t="s">
         <v>1063</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F431" t="s">
         <v>807</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G431" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A430" s="40" t="s">
+    <row r="432" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A432" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="B430" s="39" t="s">
+      <c r="B432" s="39" t="s">
         <v>849</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C432" t="s">
         <v>930</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D432" t="s">
         <v>934</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E432" t="s">
         <v>1064</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F432" t="s">
         <v>808</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G432" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A431" t="s">
-        <v>809</v>
-      </c>
-      <c r="B431" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C431" t="s">
-        <v>850</v>
-      </c>
-      <c r="D431" t="s">
-        <v>935</v>
-      </c>
-      <c r="E431" t="s">
-        <v>969</v>
-      </c>
-      <c r="F431" t="s">
-        <v>809</v>
-      </c>
-      <c r="G431" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A432" t="s">
-        <v>810</v>
-      </c>
-      <c r="B432" s="39" t="s">
-        <v>851</v>
-      </c>
-      <c r="C432" t="s">
-        <v>851</v>
-      </c>
-      <c r="D432" t="s">
-        <v>936</v>
-      </c>
-      <c r="E432" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F432" t="s">
-        <v>810</v>
-      </c>
-      <c r="G432" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C433" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D433" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E433" t="s">
-        <v>1066</v>
+        <v>969</v>
       </c>
       <c r="F433" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G433" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C434" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D434" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E434" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G434" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C435" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D435" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E435" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F435" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G435" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C436" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D436" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E436" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F436" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G436" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="437" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
+        <v>813</v>
+      </c>
+      <c r="B437" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="C437" t="s">
+        <v>854</v>
+      </c>
+      <c r="D437" t="s">
+        <v>939</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F437" t="s">
+        <v>813</v>
+      </c>
+      <c r="G437" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>814</v>
+      </c>
+      <c r="B438" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="C438" t="s">
+        <v>855</v>
+      </c>
+      <c r="D438" t="s">
+        <v>940</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F438" t="s">
+        <v>814</v>
+      </c>
+      <c r="G438" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
         <v>815</v>
       </c>
-      <c r="B437" s="39" t="s">
+      <c r="B439" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C439" t="s">
         <v>856</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D439" t="s">
         <v>932</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E439" t="s">
         <v>1070</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F439" t="s">
         <v>815</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G439" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A438" t="s">
-        <v>951</v>
-      </c>
-      <c r="B438" t="s">
-        <v>883</v>
-      </c>
-      <c r="C438" t="s">
-        <v>883</v>
-      </c>
-      <c r="D438" t="s">
-        <v>953</v>
-      </c>
-      <c r="E438" t="s">
-        <v>955</v>
-      </c>
-      <c r="F438" t="s">
-        <v>951</v>
-      </c>
-      <c r="G438" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A439" t="s">
-        <v>952</v>
-      </c>
-      <c r="B439" t="s">
-        <v>882</v>
-      </c>
-      <c r="C439" t="s">
-        <v>882</v>
-      </c>
-      <c r="D439" t="s">
-        <v>954</v>
-      </c>
-      <c r="E439" t="s">
-        <v>956</v>
-      </c>
-      <c r="F439" t="s">
-        <v>952</v>
-      </c>
-      <c r="G439" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B440" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C440" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D440" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E440" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F440" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="G440" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="B441" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C441" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D441" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E441" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F441" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="G441" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B442" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C442" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D442" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="E442" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="F442" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G442" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
+        <v>963</v>
+      </c>
+      <c r="B443" t="s">
+        <v>886</v>
+      </c>
+      <c r="C443" t="s">
+        <v>886</v>
+      </c>
+      <c r="D443" t="s">
+        <v>961</v>
+      </c>
+      <c r="E443" t="s">
+        <v>962</v>
+      </c>
+      <c r="F443" t="s">
+        <v>967</v>
+      </c>
+      <c r="G443" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A444" t="s">
+        <v>964</v>
+      </c>
+      <c r="B444" t="s">
+        <v>887</v>
+      </c>
+      <c r="C444" t="s">
+        <v>887</v>
+      </c>
+      <c r="D444" t="s">
+        <v>965</v>
+      </c>
+      <c r="E444" t="s">
+        <v>966</v>
+      </c>
+      <c r="F444" t="s">
+        <v>968</v>
+      </c>
+      <c r="G444" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
         <v>850</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B445" t="s">
         <v>850</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C445" t="s">
         <v>850</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D445" t="s">
         <v>935</v>
       </c>
-      <c r="E443" t="s">
+      <c r="E445" t="s">
         <v>969</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F445" t="s">
         <v>809</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G445" t="s">
         <v>809</v>
       </c>
     </row>
